--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DFE298-E399-4B16-AD74-9DEE7B4F73F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D7726-C6BD-4F52-9C85-992A685C7DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="657">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1202,9 +1202,6 @@
   </si>
   <si>
     <t>http://www.paperdatas.com</t>
-  </si>
-  <si>
-    <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;🦄</t>
   </si>
   <si>
     <t>https://rightbrain.art</t>
@@ -2019,6 +2016,33 @@
   </si>
   <si>
     <t>onclick="test4()"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fby.pages.dev</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🦄</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;i style="color:hotpink;"&gt;发布页&lt;/i&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏dj导航网址发布页 (放丢失，建议收藏)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2486,7 +2510,7 @@
   <dimension ref="A1:CQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2527,10 +2551,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>653</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>3</v>
@@ -2883,20 +2907,14 @@
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
+      <c r="A3" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>656</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -2989,14 +3007,14 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="BA3" s="8" t="s">
         <v>68</v>
@@ -3087,16 +3105,16 @@
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>40</v>
@@ -3277,16 +3295,16 @@
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>154</v>
+        <v>96</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>40</v>
@@ -3449,19 +3467,19 @@
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>153</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>200</v>
@@ -3623,19 +3641,19 @@
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>239</v>
+        <v>85</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>247</v>
@@ -3792,19 +3810,19 @@
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>296</v>
+        <v>244</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>299</v>
@@ -3923,21 +3941,21 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:95" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>648</v>
+    <row r="9" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>335</v>
+        <v>297</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>336</v>
@@ -4041,18 +4059,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:95" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="D10" s="21" t="s">
         <v>647</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>365</v>
@@ -4152,54 +4173,57 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>364</v>
+    <row r="11" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>646</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="P11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="V11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AH11" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>68</v>
@@ -4208,50 +4232,50 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX11" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="AX11" s="12" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BD11" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="BD11" s="12" t="s">
+      <c r="BE11" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="BE11" s="12" t="s">
+      <c r="BF11" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BU11" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BV11" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="BV11" s="12" t="s">
+      <c r="BX11" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CA11" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CB11" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="CB11" s="12" t="s">
+      <c r="CD11" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CD11" s="1" t="s">
+      <c r="CG11" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="CG11" s="1" t="s">
+      <c r="CH11" s="13" t="s">
         <v>423</v>
-      </c>
-      <c r="CH11" s="13" t="s">
-        <v>424</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>293</v>
@@ -4259,421 +4283,430 @@
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>395</v>
+        <v>251</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>364</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="P12" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="U12" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="V12" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AH12" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX12" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="AX12" s="12" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="BD12" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="BD12" s="12" t="s">
+      <c r="BE12" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="BE12" s="12" t="s">
+      <c r="BF12" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BU12" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BV12" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="BV12" s="12" t="s">
+      <c r="BX12" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CA12" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CB12" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="CB12" s="12" t="s">
+      <c r="CD12" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="CD12" s="1" t="s">
+      <c r="CG12" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="CG12" s="1" t="s">
+      <c r="CH12" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="CH12" s="12" t="s">
+      <c r="CJ12" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="CJ12" s="1" t="s">
-        <v>457</v>
-      </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>425</v>
+    <row r="13" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="P13" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AH13" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AX13" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="AX13" s="16" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="BD13" s="12" t="s">
         <v>476</v>
-      </c>
-      <c r="BD13" s="12" t="s">
-        <v>477</v>
       </c>
       <c r="BE13" s="12" t="s">
         <v>384</v>
       </c>
       <c r="BF13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BU13" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BV13" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="BV13" s="12" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CB13" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="CB13" s="12" t="s">
+      <c r="CC13" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="CC13" s="12" t="s">
+      <c r="CD13" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="CD13" s="1" t="s">
+      <c r="CG13" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="CG13" s="1" t="s">
+      <c r="CH13" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="CH13" s="12" t="s">
+      <c r="CJ13" t="s">
         <v>486</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>460</v>
+        <v>426</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="J14" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="V14" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AH14" t="s">
         <v>498</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>499</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AX14" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="AX14" s="12" t="s">
+      <c r="AY14" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="AY14" s="12" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BD14" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BE14" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="BF14" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="BV14" s="12" t="s">
+      <c r="BW14" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="BW14" s="12" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CB14" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="CB14" s="12" t="s">
+      <c r="CC14" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="CC14" s="13" t="s">
+      <c r="CD14" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="M15" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="P15" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>651</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="V15" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AX15" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="AX15" s="12" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="BV15" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="BV15" s="12" t="s">
+      <c r="BX15" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="CA15" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CB15" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="CB15" s="12" t="s">
+      <c r="CD15" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="S16" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="V16" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="BV16" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="BV16" s="12" t="s">
+      <c r="BW16" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="BW16" s="12" t="s">
+      <c r="BX16" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="BX16" s="1" t="s">
+      <c r="CA16" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CB16" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="CB16" s="12" t="s">
+      <c r="CC16" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="CC16" s="12" t="s">
+      <c r="CD16" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="17" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S17" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="U17" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="V17" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4681,55 +4714,55 @@
       <c r="AX17" s="18"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="BV17" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="BV17" s="12" t="s">
+      <c r="BX17" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CA17" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CB17" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="CB17" s="12" t="s">
+      <c r="CD17" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S18" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="V18" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BV18" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="BV18" s="12" t="s">
+      <c r="BX18" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CA18" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="CB18" s="12" t="s">
+      <c r="CD18" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
@@ -4738,22 +4771,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="BV19" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="BV19" s="12" t="s">
+      <c r="BX19" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CA19" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="CB19" s="12" t="s">
+      <c r="CD19" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
@@ -4762,22 +4795,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BV20" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="BV20" s="12" t="s">
+      <c r="BX20" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="CB20" s="13" t="s">
+      <c r="CD20" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
@@ -4786,25 +4819,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="BV21" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="BV21" s="12" t="s">
+      <c r="BX21" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CA21" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="CB21" s="12" t="s">
+      <c r="CC21" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="CC21" s="12" t="s">
+      <c r="CD21" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
@@ -4813,22 +4846,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="BV22" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="BV22" s="12" t="s">
+      <c r="BX22" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CA22" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="CB22" s="12" t="s">
+      <c r="CD22" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="23" spans="19:83" x14ac:dyDescent="0.2">
@@ -4837,25 +4870,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="BV23" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="BV23" s="12" t="s">
+      <c r="BX23" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CA23" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="CB23" s="12" t="s">
+      <c r="CC23" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="CC23" s="12" t="s">
+      <c r="CD23" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="24" spans="19:83" x14ac:dyDescent="0.2">
@@ -4864,22 +4897,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="BV24" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="BV24" s="12" t="s">
+      <c r="BX24" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CA24" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="CB24" s="12" t="s">
+      <c r="CD24" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="25" spans="19:83" x14ac:dyDescent="0.2">
@@ -4888,65 +4921,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="BV25" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BX25" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="CB25" s="12" t="s">
+      <c r="CD25" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="26" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="BV26" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="BV26" s="12" t="s">
+      <c r="BX26" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CA26" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CB26" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="CB26" s="12" t="s">
+      <c r="CC26" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="CC26" s="12" t="s">
+      <c r="CD26" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="27" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="BV27" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="BV27" s="12" t="s">
+      <c r="BX27" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="CA27" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="CA27" s="1" t="s">
+      <c r="CB27" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="CB27" s="12" t="s">
+      <c r="CD27" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>68</v>
@@ -4954,115 +4987,115 @@
     </row>
     <row r="28" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="BV28" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="BV28" s="12" t="s">
+      <c r="BX28" t="s">
         <v>615</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="CA28" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="CA28" s="1" t="s">
+      <c r="CB28" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="CB28" s="12" t="s">
+      <c r="CC28" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="CC28" s="12" t="s">
+      <c r="CD28" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="29" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="BV29" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="BV29" s="12" t="s">
+      <c r="BW29" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="BW29" s="12" t="s">
+      <c r="BX29" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="BX29" s="1" t="s">
+      <c r="CA29" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="CA29" s="1" t="s">
+      <c r="CB29" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="CB29" s="12" t="s">
-        <v>626</v>
-      </c>
       <c r="CD29" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA30" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="CB30" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="CB30" s="12" t="s">
-        <v>628</v>
-      </c>
       <c r="CD30" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="CB31" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="CB31" s="10" t="s">
+      <c r="CD31" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="CD31" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="32" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="CB32" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="CB32" s="12" t="s">
+      <c r="CD32" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="CD32" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="CB33" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="CB33" s="13" t="s">
+      <c r="CC33" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="CC33" s="12" t="s">
+      <c r="CD33" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="CD33" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="CB34" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="CB34" s="12" t="s">
+      <c r="CD34" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" tooltip="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="https://ymck.me" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" tooltip="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId1" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" tooltip="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="https://ymck.me" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" tooltip="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="N3" r:id="rId5" tooltip="http://hao.58pic.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="O3" r:id="rId6" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="N4" r:id="rId7" tooltip="http://nav.sbkko.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
@@ -5073,15 +5106,15 @@
     <hyperlink ref="Z4" r:id="rId12" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="H3" r:id="rId13" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="I3" r:id="rId14" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B6" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B7" r:id="rId17" tooltip="https://www.uy5.net/?aff=7168" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B9" r:id="rId21" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B8" r:id="rId17" tooltip="https://www.uy5.net/?aff=7168" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B10" r:id="rId21" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="H4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="H5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="H6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
@@ -5294,10 +5327,10 @@
     <hyperlink ref="CB7" r:id="rId233" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="H13" r:id="rId234" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="I13" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B12" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B13" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
     <hyperlink ref="CB33" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
     <hyperlink ref="CC33" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B13" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B14" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
     <hyperlink ref="CB10" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="Z7" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
     <hyperlink ref="CB12" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
@@ -5319,14 +5352,15 @@
     <hyperlink ref="CJ13" r:id="rId258" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
     <hyperlink ref="AF14" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
     <hyperlink ref="AH14" r:id="rId260" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B14" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B15" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
     <hyperlink ref="BV29" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
     <hyperlink ref="BW29" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B10" r:id="rId264" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
-    <hyperlink ref="C10" r:id="rId265" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
+    <hyperlink ref="B11" r:id="rId264" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
+    <hyperlink ref="C11" r:id="rId265" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
     <hyperlink ref="N15" r:id="rId266" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="B3" r:id="rId267" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId267"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId268"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D7726-C6BD-4F52-9C85-992A685C7DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60589D6-884F-496E-850A-ACD603E91F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="665">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -2045,12 +2058,44 @@
     <t>夏dj导航网址发布页 (放丢失，建议收藏)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.canva.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canva可画</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gaoding.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿定设计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>做图做视频必备_在线设计神器_海量版权素材模板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chuangkit.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创客贴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线编辑名片、海报、ppt、邀请函、贺卡、宣传单、展架、公众号推文图片等社交媒体图片。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2132,6 +2177,15 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2164,7 +2218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2230,6 +2284,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2509,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="M9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4766,6 +4823,12 @@
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="S19" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>657</v>
+      </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
@@ -4790,6 +4853,15 @@
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="S20" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="V20" s="21" t="s">
+        <v>661</v>
+      </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
@@ -4814,6 +4886,15 @@
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="S21" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>664</v>
+      </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
@@ -5359,8 +5440,13 @@
     <hyperlink ref="C11" r:id="rId265" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
     <hyperlink ref="N15" r:id="rId266" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
     <hyperlink ref="B3" r:id="rId267" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
+    <hyperlink ref="T19" r:id="rId268" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
+    <hyperlink ref="S19" r:id="rId269" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
+    <hyperlink ref="T20" r:id="rId270" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
+    <hyperlink ref="S20" r:id="rId271" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
+    <hyperlink ref="T21" r:id="rId272" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId268"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60589D6-884F-496E-850A-ACD603E91F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CED8E0F-AE00-4FE4-8B40-21CFF957EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="668">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1963,26 +1963,11 @@
   </si>
   <si>
     <t>quicker它是一款效率软件，放双手</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>quicker-强烈安利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小陈GPT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>💕</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1997,43 +1982,39 @@
       </rPr>
       <t>💕</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://1gpt.pages.dev</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜像地址，前面打不开就用这个</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://1gpt.pages.dev/favicon.ico</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://idesign.qq.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>腾讯设计导航</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>腾讯14年做的设计导航</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>teacher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>onclick="test4()"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://fby.pages.dev</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2048,54 +2029,74 @@
       </rPr>
       <t>🦄</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>&lt;i style="color:hotpink;"&gt;发布页&lt;/i&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>夏dj导航网址发布页 (放丢失，建议收藏)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://www.canva.cn</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Canva可画</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://www.gaoding.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>稿定设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>做图做视频必备_在线设计神器_海量版权素材模板</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://www.chuangkit.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>创客贴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>在线编辑名片、海报、ppt、邀请函、贺卡、宣传单、展架、公众号推文图片等社交媒体图片。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jgw.aynu.edu.cn</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷契文渊</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>由安阳师范学院计算机与信息工程学院与中国社会科学院甲骨学殷商史研究中心合作建设，以方便网友为主，仅供学习。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像地址,基于gpt-3.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2137,12 +2138,6 @@
       <sz val="10.5"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
       <family val="3"/>
     </font>
     <font>
@@ -2218,7 +2213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2261,9 +2256,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2279,13 +2271,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2566,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2607,13 +2599,13 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>651</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>652</v>
-      </c>
-      <c r="M1" s="15" t="s">
+      <c r="H1" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2754,7 +2746,7 @@
       <c r="Q2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="17"/>
+      <c r="R2" s="16"/>
       <c r="S2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2770,7 +2762,7 @@
       <c r="W2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="17"/>
+      <c r="X2" s="16"/>
       <c r="Y2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2786,7 +2778,7 @@
       <c r="AC2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="17"/>
+      <c r="AD2" s="16"/>
       <c r="AE2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2802,7 +2794,7 @@
       <c r="AI2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="17"/>
+      <c r="AJ2" s="16"/>
       <c r="AK2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2818,7 +2810,7 @@
       <c r="AO2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="17"/>
+      <c r="AP2" s="16"/>
       <c r="AQ2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2834,7 +2826,7 @@
       <c r="AU2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AV2" s="17"/>
+      <c r="AV2" s="16"/>
       <c r="AW2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2850,7 +2842,7 @@
       <c r="BA2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BB2" s="17"/>
+      <c r="BB2" s="16"/>
       <c r="BC2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2866,7 +2858,7 @@
       <c r="BG2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="19"/>
+      <c r="BH2" s="18"/>
       <c r="BI2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2882,7 +2874,7 @@
       <c r="BM2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BN2" s="19"/>
+      <c r="BN2" s="18"/>
       <c r="BO2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2898,7 +2890,7 @@
       <c r="BS2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BT2" s="17"/>
+      <c r="BT2" s="16"/>
       <c r="BU2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2914,7 +2906,7 @@
       <c r="BY2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BZ2" s="17"/>
+      <c r="BZ2" s="16"/>
       <c r="CA2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2930,7 +2922,7 @@
       <c r="CE2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CF2" s="17"/>
+      <c r="CF2" s="16"/>
       <c r="CG2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2946,7 +2938,7 @@
       <c r="CK2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CL2" s="17"/>
+      <c r="CL2" s="16"/>
       <c r="CM2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2964,14 +2956,14 @@
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>655</v>
+      <c r="A3" s="20" t="s">
+        <v>653</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>656</v>
+        <v>651</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>654</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -3063,14 +3055,14 @@
       </c>
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
-      <c r="AW3" s="21" t="s">
+      <c r="AW3" s="20" t="s">
         <v>642</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AY3" s="7"/>
-      <c r="AZ3" s="21" t="s">
+      <c r="AZ3" s="20" t="s">
         <v>641</v>
       </c>
       <c r="BA3" s="8" t="s">
@@ -3380,7 +3372,7 @@
       <c r="M5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="9" t="s">
@@ -4116,21 +4108,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:95" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>332</v>
+      <c r="B10" s="12" t="s">
+        <v>644</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>335</v>
+        <v>645</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>666</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>365</v>
@@ -4230,18 +4222,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>646</v>
+    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>396</v>
@@ -4338,15 +4327,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>363</v>
+    <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>364</v>
+        <v>395</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>427</v>
@@ -4443,18 +4435,18 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>654</v>
+    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>460</v>
@@ -4501,7 +4493,7 @@
       <c r="AW13" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="AX13" s="16" t="s">
+      <c r="AX13" s="15" t="s">
         <v>473</v>
       </c>
       <c r="AZ13" s="1" t="s">
@@ -4553,16 +4545,13 @@
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>487</v>
@@ -4654,23 +4643,23 @@
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>457</v>
+      <c r="A15" s="20" t="s">
+        <v>664</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>649</v>
+        <v>663</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>647</v>
       </c>
       <c r="N15" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>648</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>650</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>514</v>
@@ -4768,7 +4757,7 @@
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AV17" s="3"/>
-      <c r="AX17" s="18"/>
+      <c r="AX17" s="17"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
         <v>541</v>
@@ -4823,17 +4812,17 @@
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
-      <c r="S19" s="22" t="s">
-        <v>658</v>
+      <c r="S19" s="21" t="s">
+        <v>656</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
-      <c r="BU19" s="20" t="s">
+      <c r="BU19" s="19" t="s">
         <v>556</v>
       </c>
       <c r="BV19" s="12" t="s">
@@ -4853,14 +4842,14 @@
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
-      <c r="S20" s="22" t="s">
-        <v>660</v>
+      <c r="S20" s="21" t="s">
+        <v>658</v>
       </c>
       <c r="T20" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>659</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>661</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
@@ -4886,14 +4875,14 @@
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
-      <c r="S21" s="21" t="s">
-        <v>663</v>
+      <c r="S21" s="20" t="s">
+        <v>661</v>
       </c>
       <c r="T21" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>662</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>664</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
@@ -5004,7 +4993,7 @@
       <c r="BU25" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BV25" s="15" t="s">
         <v>595</v>
       </c>
       <c r="BX25" s="1" t="s">
@@ -5171,7 +5160,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C4" r:id="rId2" tooltip="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5193,260 +5182,259 @@
     <hyperlink ref="C8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="C9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B10" r:id="rId21" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I4" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I6" r:id="rId34" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I7" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I8" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I9" r:id="rId37" tooltip="https://lottiefiles.com/favicons-new/apple-icon-144x144.png" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I10" r:id="rId38" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I11" r:id="rId39" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I12" r:id="rId40" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N5" r:id="rId41" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N6" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N7" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N8" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N9" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N10" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N11" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="N14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="T8" r:id="rId51" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="O5" r:id="rId52" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O6" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O9" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O8" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="O7" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T3" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="T4" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="T5" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="T10" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="T11" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="T12" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="T13" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="T14" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T16" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="T17" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="U9" r:id="rId68" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="T15" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Z5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="Z6" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AF3" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AF4" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AF5" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AF6" r:id="rId75" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AF7" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AF8" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AF9" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AF10" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AF11" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AF12" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AL3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AL4" r:id="rId83" location="/" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="AL5" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AL6" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AL7" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR3" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AX3" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AX4" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AX5" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AX6" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AX7" r:id="rId93" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AX8" r:id="rId94" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="AX9" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AX10" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AX11" r:id="rId97" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="BD3" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="BD4" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="BD5" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="BD6" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="BD7" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="BD8" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="BD9" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="BD10" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="BD11" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="BD12" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="BD13" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="BD14" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="BJ3" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="BJ4" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="BJ5" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="BJ6" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="BJ7" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="BP3" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="BP4" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="BP5" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="BP6" r:id="rId118" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="BP7" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="BV3" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="BV4" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="BV5" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="BV6" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="BV7" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="BV9" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="BV10" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="BV11" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="BV12" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="BV13" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="BV14" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="BV15" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="BV16" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="BV17" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="BV18" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="BV19" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="BV20" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="BV21" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="BV22" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="BV23" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="BV24" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="BV25" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="BV26" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="BV27" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="CN3" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="CN4" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="CN5" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="CB3" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="CB4" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="CB5" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="CB6" r:id="rId150" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="CB8" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="CB9" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="CB13" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="CB14" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="CB15" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="CB16" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="CB17" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="CB18" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="CB19" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="CB21" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="CB20" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="CB22" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="CB23" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="CB24" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="CB25" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="CB26" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB27" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB28" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB29" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB30" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB31" r:id="rId171" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB32" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="CH3" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="CH4" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="CH5" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="CH6" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="CH7" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="CH8" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="CH9" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="CH10" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="CH11" r:id="rId181" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="AM3" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="AM4" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="AS3" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="AY4" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="U10" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="U12" r:id="rId187" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="U17" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="AG6" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="AY6" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="AY7" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="AY8" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="AY9" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="BE14" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="BE12" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="BE13" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="BE10" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="BE3" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="BE4" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="BE5" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="BE6" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="BE7" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="BE8" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="BE9" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="BE11" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="BK4" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="BK3" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="BK6" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="BK7" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="BQ3" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="BW14" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="CC3" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="CC5" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="CC6" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="CC16" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="CI8" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="CC13" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC28" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="CC21" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC26" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC23" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="BW16" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="AF13" r:id="rId223" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="BV8" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="BW8" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="AX12" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="AX13" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="AX14" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="AX15" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="AY14" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="CC14" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="T18" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="CB7" r:id="rId233" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H13" r:id="rId234" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="I13" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B13" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="CB33" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC33" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B14" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="CB10" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="Z7" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="CB12" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="CB11" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H14" r:id="rId244" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB34" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="AR5" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="AT5" r:id="rId247" tooltip="https://c4dco.com/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="AR6" r:id="rId248" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="AT6" r:id="rId249" tooltip="http://cgka3d.com/" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="AR7" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="AT7" r:id="rId251" tooltip="https://c4dsky.com/" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="BV28" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="BX28" r:id="rId253" tooltip="https://www.67tool.com/" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="Z8" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="AB8" r:id="rId255" tooltip="https://aicolors.co/" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="CH12" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="CH13" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="CJ13" r:id="rId258" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="AF14" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="AH14" r:id="rId260" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B15" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="BV29" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="BW29" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B11" r:id="rId264" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
-    <hyperlink ref="C11" r:id="rId265" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
-    <hyperlink ref="N15" r:id="rId266" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
-    <hyperlink ref="B3" r:id="rId267" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
-    <hyperlink ref="T19" r:id="rId268" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
-    <hyperlink ref="S19" r:id="rId269" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
-    <hyperlink ref="T20" r:id="rId270" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
-    <hyperlink ref="S20" r:id="rId271" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
-    <hyperlink ref="T21" r:id="rId272" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
+    <hyperlink ref="C7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H12" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I6" r:id="rId31" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I9" r:id="rId34" tooltip="https://lottiefiles.com/favicons-new/apple-icon-144x144.png" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I10" r:id="rId35" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I12" r:id="rId36" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N5" r:id="rId37" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N6" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N7" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N8" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N9" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N12" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N13" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N14" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="T8" r:id="rId47" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O5" r:id="rId48" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O6" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O8" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O7" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T3" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T4" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="T5" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T9" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="T10" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T11" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="T12" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T13" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="T14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T16" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="T17" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="U9" r:id="rId64" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="T15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Z5" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Z6" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AF3" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AF4" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AF5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AF6" r:id="rId71" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AF7" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AF8" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AF9" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AF10" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AF11" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AF12" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AL3" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AL4" r:id="rId79" location="/" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AL5" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AL6" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AL7" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR3" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AX3" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AX4" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AX5" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AX6" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AX7" r:id="rId89" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AX8" r:id="rId90" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AX9" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AX10" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AX11" r:id="rId93" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="BD3" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="BD4" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="BD5" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="BD6" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="BD7" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="BD8" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BD9" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="BD10" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="BD11" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="BD12" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="BD13" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="BD14" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BJ3" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="BJ4" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="BJ5" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="BJ6" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="BJ7" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="BP3" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="BP4" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="BP5" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="BP6" r:id="rId114" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="BP7" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="BV3" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="BV4" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="BV5" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="BV6" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="BV7" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="BV9" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="BV10" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BV11" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="BV12" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BV13" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="BV14" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="BV15" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="BV16" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BV17" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="BV18" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="BV19" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="BV20" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="BV21" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="BV22" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="BV23" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="BV24" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="BV25" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="BV26" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="BV27" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="CN3" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="CN4" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="CN5" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="CB3" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="CB4" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="CB5" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="CB6" r:id="rId146" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="CB8" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CB9" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CB13" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="CB14" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="CB15" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="CB16" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CB17" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CB18" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CB19" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="CB21" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="CB20" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="CB22" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB23" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB24" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB25" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB26" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB27" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB28" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB29" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB30" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB31" r:id="rId167" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB32" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CH3" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="CH4" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="CH5" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="CH6" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="CH7" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="CH8" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="CH9" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="CH10" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="CH11" r:id="rId177" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="AM3" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AM4" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="AS3" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="AY4" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="U10" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="U12" r:id="rId183" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="U17" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="AG6" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="AY6" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AY7" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="AY8" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="AY9" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="BE14" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="BE12" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="BE13" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="BE10" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="BE3" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="BE4" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="BE5" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="BE6" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="BE7" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="BE8" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="BE9" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="BE11" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="BK4" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="BK3" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="BK6" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="BK7" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="BQ3" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="BW14" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="CC3" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="CC5" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC6" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="CC16" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CI8" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="CC13" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC28" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC21" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC26" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC23" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="BW16" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="AF13" r:id="rId219" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="BV8" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="BW8" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="AX12" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="AX13" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="AX14" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="AX15" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="AY14" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="CC14" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="T18" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="CB7" r:id="rId229" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H13" r:id="rId230" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="I13" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B12" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="CB33" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC33" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B13" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="CB10" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="Z7" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="CB12" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB11" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H14" r:id="rId240" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="CB34" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="AR5" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="AT5" r:id="rId243" tooltip="https://c4dco.com/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="AR6" r:id="rId244" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="AT6" r:id="rId245" tooltip="http://cgka3d.com/" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="AR7" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="AT7" r:id="rId247" tooltip="https://c4dsky.com/" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="BV28" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="BX28" r:id="rId249" tooltip="https://www.67tool.com/" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="Z8" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="AB8" r:id="rId251" tooltip="https://aicolors.co/" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="CH12" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="CH13" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="CJ13" r:id="rId254" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="AF14" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="AH14" r:id="rId256" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B14" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="BV29" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="BW29" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B10" r:id="rId260" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
+    <hyperlink ref="C10" r:id="rId261" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
+    <hyperlink ref="N15" r:id="rId262" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="B3" r:id="rId263" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
+    <hyperlink ref="T19" r:id="rId264" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
+    <hyperlink ref="S19" r:id="rId265" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
+    <hyperlink ref="T20" r:id="rId266" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
+    <hyperlink ref="S20" r:id="rId267" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
+    <hyperlink ref="T21" r:id="rId268" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
+    <hyperlink ref="B15" r:id="rId269" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
+    <hyperlink ref="I11" r:id="rId270" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H11" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId272"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CED8E0F-AE00-4FE4-8B40-21CFF957EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4613D4F9-385C-4138-B206-C3B45CA6F976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,9 +1049,6 @@
     <t>https://lottiefiles.com</t>
   </si>
   <si>
-    <t>https://lottiefiles.com/favicons-new/apple-icon-144x144.png</t>
-  </si>
-  <si>
     <t>世界上最大的洛蒂动画平台。随时随地添加免费动画（即使您不了解运动设计），或使用LottieFiles的设计和开发工具轻松创建、协作和发布运动</t>
   </si>
   <si>
@@ -2089,6 +2086,10 @@
   </si>
   <si>
     <t>镜像地址,基于gpt-3.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://static.lottiefiles.com/favicons-new/favicon-96x96.png</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2558,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2600,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>649</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>650</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>3</v>
@@ -2957,13 +2958,13 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>653</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>654</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -3056,14 +3057,14 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="BA3" s="8" t="s">
         <v>68</v>
@@ -4013,10 +4014,10 @@
         <v>337</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>85</v>
@@ -4032,77 +4033,77 @@
       </c>
       <c r="Q9" s="8"/>
       <c r="S9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="U9" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="V9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AH9" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX9" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AY9" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="AY9" s="12" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="BD9" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="BD9" s="12" t="s">
+      <c r="BE9" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="BE9" s="12" t="s">
+      <c r="BF9" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BU9" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BU9" s="1" t="s">
+      <c r="BV9" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="BV9" s="12" t="s">
+      <c r="BX9" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BX9" s="1" t="s">
+      <c r="CA9" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="CA9" s="1" t="s">
+      <c r="CB9" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="CB9" s="12" t="s">
+      <c r="CD9" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="CD9" s="1" t="s">
+      <c r="CG9" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="CG9" s="1" t="s">
+      <c r="CH9" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="CH9" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>293</v>
@@ -4110,113 +4111,113 @@
     </row>
     <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>645</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="P10" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="U10" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="V10" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AH10" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX10" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="AX10" s="12" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD10" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="BE10" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="BE10" s="12" t="s">
+      <c r="BF10" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="BU10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BV10" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="BV10" s="12" t="s">
+      <c r="BX10" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CA10" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CB10" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="CB10" s="13" t="s">
+      <c r="CD10" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="CD10" s="1" t="s">
+      <c r="CG10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="CG10" s="1" t="s">
+      <c r="CH10" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="CH10" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>293</v>
@@ -4227,49 +4228,49 @@
         <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="P11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="V11" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AH11" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>68</v>
@@ -4278,50 +4279,50 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AX11" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="AX11" s="12" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="BD11" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="BD11" s="12" t="s">
+      <c r="BE11" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="BE11" s="12" t="s">
+      <c r="BF11" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BU11" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BV11" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="BV11" s="12" t="s">
+      <c r="BX11" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CA11" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CB11" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="CB11" s="12" t="s">
+      <c r="CD11" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="CD11" s="1" t="s">
+      <c r="CG11" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CG11" s="1" t="s">
+      <c r="CH11" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="CH11" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>293</v>
@@ -4329,430 +4330,430 @@
     </row>
     <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="P12" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="U12" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="V12" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AH12" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX12" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="AX12" s="12" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BD12" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="BD12" s="12" t="s">
+      <c r="BE12" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="BE12" s="12" t="s">
+      <c r="BF12" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BU12" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BV12" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="BV12" s="12" t="s">
+      <c r="BX12" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CA12" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CB12" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="CB12" s="12" t="s">
+      <c r="CD12" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="CD12" s="1" t="s">
+      <c r="CG12" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="CG12" s="1" t="s">
+      <c r="CH12" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="CH12" s="12" t="s">
+      <c r="CJ12" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="CJ12" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="P13" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AH13" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AX13" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="AX13" s="15" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="BD13" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="BD13" s="12" t="s">
+      <c r="BE13" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="BE13" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BU13" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BV13" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="BV13" s="12" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CB13" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="CB13" s="12" t="s">
+      <c r="CC13" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="CC13" s="12" t="s">
+      <c r="CD13" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="CD13" s="1" t="s">
+      <c r="CG13" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="CG13" s="1" t="s">
+      <c r="CH13" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="CH13" s="12" t="s">
+      <c r="CJ13" t="s">
         <v>485</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="J14" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="V14" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AH14" t="s">
         <v>497</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>498</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AX14" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="AX14" s="12" t="s">
+      <c r="AY14" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="AY14" s="12" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BD14" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BE14" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="BF14" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="BV14" s="12" t="s">
+      <c r="BW14" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="BW14" s="12" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CB14" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="CB14" s="12" t="s">
+      <c r="CC14" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="CC14" s="13" t="s">
+      <c r="CD14" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>665</v>
-      </c>
       <c r="M15" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>648</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="V15" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AX15" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="AX15" s="12" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="BV15" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="BV15" s="12" t="s">
+      <c r="BX15" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="CA15" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CB15" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="CB15" s="12" t="s">
+      <c r="CD15" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="S16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="V16" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="BV16" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="BV16" s="12" t="s">
+      <c r="BW16" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="BW16" s="12" t="s">
+      <c r="BX16" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="BX16" s="1" t="s">
+      <c r="CA16" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CB16" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="CB16" s="12" t="s">
+      <c r="CC16" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="CC16" s="12" t="s">
+      <c r="CD16" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="17" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="U17" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="V17" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4760,154 +4761,154 @@
       <c r="AX17" s="17"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="BV17" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="BV17" s="12" t="s">
+      <c r="BX17" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CA17" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CB17" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="CB17" s="12" t="s">
+      <c r="CD17" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S18" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="V18" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="BV18" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="BV18" s="12" t="s">
+      <c r="BX18" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CA18" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="CB18" s="12" t="s">
+      <c r="CD18" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="BV19" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="BV19" s="12" t="s">
+      <c r="BX19" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CA19" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="CB19" s="12" t="s">
+      <c r="CD19" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>658</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>659</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="BV20" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="BV20" s="12" t="s">
+      <c r="BX20" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="CB20" s="13" t="s">
+      <c r="CD20" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>661</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>662</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="BV21" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="BV21" s="12" t="s">
+      <c r="BX21" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CA21" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="CB21" s="12" t="s">
+      <c r="CC21" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="CC21" s="12" t="s">
+      <c r="CD21" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
@@ -4916,22 +4917,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="BV22" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="BV22" s="12" t="s">
+      <c r="BX22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CA22" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="CB22" s="12" t="s">
+      <c r="CD22" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="23" spans="19:83" x14ac:dyDescent="0.2">
@@ -4940,25 +4941,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="BV23" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="BV23" s="12" t="s">
+      <c r="BX23" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CA23" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="CB23" s="12" t="s">
+      <c r="CC23" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="CC23" s="12" t="s">
+      <c r="CD23" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="24" spans="19:83" x14ac:dyDescent="0.2">
@@ -4967,22 +4968,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="BV24" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="BV24" s="12" t="s">
+      <c r="BX24" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CA24" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="CB24" s="12" t="s">
+      <c r="CD24" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="25" spans="19:83" x14ac:dyDescent="0.2">
@@ -4991,65 +4992,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="BV25" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="BV25" s="15" t="s">
+      <c r="BX25" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="CB25" s="12" t="s">
+      <c r="CD25" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="26" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="BV26" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="BV26" s="12" t="s">
+      <c r="BX26" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CA26" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CB26" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="CB26" s="12" t="s">
+      <c r="CC26" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="CC26" s="12" t="s">
+      <c r="CD26" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="27" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="BV27" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="BV27" s="12" t="s">
+      <c r="BX27" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="CA27" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="CA27" s="1" t="s">
+      <c r="CB27" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="CB27" s="12" t="s">
+      <c r="CD27" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>68</v>
@@ -5057,106 +5058,106 @@
     </row>
     <row r="28" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="BV28" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="BV28" s="12" t="s">
+      <c r="BX28" t="s">
         <v>614</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="CA28" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="CA28" s="1" t="s">
+      <c r="CB28" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="CB28" s="12" t="s">
+      <c r="CC28" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="CC28" s="12" t="s">
+      <c r="CD28" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="29" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="BV29" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="BV29" s="12" t="s">
+      <c r="BW29" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="BW29" s="12" t="s">
+      <c r="BX29" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="BX29" s="1" t="s">
+      <c r="CA29" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="CA29" s="1" t="s">
+      <c r="CB29" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="CB29" s="12" t="s">
-        <v>625</v>
-      </c>
       <c r="CD29" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA30" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="CB30" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="CB30" s="12" t="s">
-        <v>627</v>
-      </c>
       <c r="CD30" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="CB31" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="CB31" s="10" t="s">
+      <c r="CD31" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="CD31" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="32" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="CB32" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="CB32" s="12" t="s">
+      <c r="CD32" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="CD32" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="CB33" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="CB33" s="13" t="s">
+      <c r="CC33" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="CC33" s="12" t="s">
+      <c r="CD33" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="CD33" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="CB34" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="CB34" s="12" t="s">
+      <c r="CD34" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5196,7 @@
     <hyperlink ref="I6" r:id="rId31" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="I7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="I8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I9" r:id="rId34" tooltip="https://lottiefiles.com/favicons-new/apple-icon-144x144.png" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="I10" r:id="rId35" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="I12" r:id="rId36" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="N5" r:id="rId37" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4613D4F9-385C-4138-B206-C3B45CA6F976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE4B4D-70D6-487E-A859-E08F86AA8487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="675">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1671,9 +1671,6 @@
   </si>
   <si>
     <t>【3D模型免费下载】打造一流的3DMax模型库_3D溜溜网 3d66.com</t>
-  </si>
-  <si>
-    <t>Instagram（需魔法）</t>
   </si>
   <si>
     <t>https://www.instagram.com</t>
@@ -2090,6 +2087,38 @@
   </si>
   <si>
     <t>https://static.lottiefiles.com/favicons-new/favicon-96x96.png</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.akailibrary.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>源库素材</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG素材,MG动画,AE模板,AE资源,AE素材,AE工程,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.artstation.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instagram（需魔法）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A站（需魔法）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtStation 是一个在线 CG 网站，在上面有很多神级的大触</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一款在线设计工具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2559,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2601,10 +2630,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>648</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>649</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>3</v>
@@ -2958,13 +2987,13 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>652</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>653</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -3057,14 +3086,14 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="BA3" s="8" t="s">
         <v>68</v>
@@ -3928,6 +3957,15 @@
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
+      <c r="AQ8" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="AT8" s="20" t="s">
+        <v>669</v>
+      </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
         <v>316</v>
@@ -4014,7 +4052,7 @@
         <v>337</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>338</v>
@@ -4111,19 +4149,19 @@
     </row>
     <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>644</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>364</v>
@@ -4330,7 +4368,7 @@
     </row>
     <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>393</v>
@@ -4645,22 +4683,22 @@
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>664</v>
-      </c>
       <c r="M15" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>646</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>647</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>513</v>
@@ -4780,159 +4818,171 @@
       </c>
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="V18" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="BV18" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="BV18" s="12" t="s">
+      <c r="BX18" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CA18" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="CB18" s="12" t="s">
+      <c r="CD18" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>674</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="BV19" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="BV19" s="12" t="s">
+      <c r="BX19" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CA19" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="CB19" s="12" t="s">
+      <c r="CD19" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>657</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>658</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BV20" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="BV20" s="12" t="s">
+      <c r="BX20" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="CB20" s="13" t="s">
+      <c r="CD20" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>660</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>661</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV21" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="BV21" s="12" t="s">
+      <c r="BX21" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CA21" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="CB21" s="12" t="s">
+      <c r="CC21" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="CC21" s="12" t="s">
+      <c r="CD21" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="S22" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>673</v>
+      </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="BV22" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="BV22" s="12" t="s">
+      <c r="BX22" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CA22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="CB22" s="12" t="s">
+      <c r="CD22" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="23" spans="19:83" x14ac:dyDescent="0.2">
@@ -4941,25 +4991,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="BV23" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="BV23" s="12" t="s">
+      <c r="BX23" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CA23" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="CB23" s="12" t="s">
+      <c r="CC23" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="CC23" s="12" t="s">
+      <c r="CD23" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="24" spans="19:83" x14ac:dyDescent="0.2">
@@ -4968,22 +5018,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="BV24" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="BV24" s="12" t="s">
+      <c r="BX24" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CA24" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="CB24" s="12" t="s">
+      <c r="CD24" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="25" spans="19:83" x14ac:dyDescent="0.2">
@@ -4992,65 +5042,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="BV25" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="BV25" s="15" t="s">
+      <c r="BX25" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="CB25" s="12" t="s">
+      <c r="CD25" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="26" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="BV26" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="BV26" s="12" t="s">
+      <c r="BX26" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CA26" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CB26" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="CB26" s="12" t="s">
+      <c r="CC26" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="CC26" s="12" t="s">
+      <c r="CD26" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="27" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="BV27" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="BV27" s="12" t="s">
+      <c r="BX27" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="CA27" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="CA27" s="1" t="s">
+      <c r="CB27" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="CB27" s="12" t="s">
+      <c r="CD27" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>68</v>
@@ -5058,106 +5108,106 @@
     </row>
     <row r="28" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="BV28" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="BV28" s="12" t="s">
+      <c r="BX28" t="s">
         <v>613</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="CA28" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="CA28" s="1" t="s">
+      <c r="CB28" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="CB28" s="12" t="s">
+      <c r="CC28" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="CC28" s="12" t="s">
+      <c r="CD28" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="29" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="BV29" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="BV29" s="12" t="s">
+      <c r="BW29" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="BW29" s="12" t="s">
+      <c r="BX29" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="BX29" s="1" t="s">
+      <c r="CA29" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="CA29" s="1" t="s">
+      <c r="CB29" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="CB29" s="12" t="s">
-        <v>624</v>
-      </c>
       <c r="CD29" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA30" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="CB30" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="CB30" s="12" t="s">
-        <v>626</v>
-      </c>
       <c r="CD30" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="CB31" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="CB31" s="10" t="s">
+      <c r="CD31" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="CD31" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="32" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="CB32" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="CB32" s="12" t="s">
+      <c r="CD32" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="CD32" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="CB33" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="CB33" s="13" t="s">
+      <c r="CC33" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="CC33" s="12" t="s">
+      <c r="CD33" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="CD33" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="CB34" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="CB34" s="12" t="s">
+      <c r="CD34" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5434,8 +5484,10 @@
     <hyperlink ref="B15" r:id="rId269" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
     <hyperlink ref="I11" r:id="rId270" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="H11" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR8" r:id="rId272" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
+    <hyperlink ref="T22" r:id="rId273" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId272"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId274"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE4B4D-70D6-487E-A859-E08F86AA8487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC13AFF-B35A-4EA5-9D41-F337E0EA96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="678">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -2119,6 +2119,18 @@
   </si>
   <si>
     <t>一款在线设计工具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.citexs.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛特新思</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业、免费、开放的科研平台</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2588,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="CJ16" sqref="CJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4679,6 +4691,15 @@
       </c>
       <c r="CD14" s="1" t="s">
         <v>512</v>
+      </c>
+      <c r="CG14" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="CH14" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="CJ14" s="20" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
@@ -5486,8 +5507,9 @@
     <hyperlink ref="H11" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="AR8" r:id="rId272" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
     <hyperlink ref="T22" r:id="rId273" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
+    <hyperlink ref="CH14" r:id="rId274" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId274"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC13AFF-B35A-4EA5-9D41-F337E0EA96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23BA9F2-85C3-4AD9-BC4C-1B7592391801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="678">
-  <si>
-    <t>✨ 推荐网站</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="673">
   <si>
     <t>nice</t>
   </si>
@@ -1026,21 +1023,6 @@
   </si>
   <si>
     <t>免费高质量样机、插和UI工具</t>
-  </si>
-  <si>
-    <t>小陈GPT💕(可降重)</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml/favicon.ico</t>
-  </si>
-  <si>
-    <t>向她提问，几乎无所不能</t>
-  </si>
-  <si>
-    <t>gpt</t>
   </si>
   <si>
     <t>lottie</t>
@@ -2133,12 +2115,56 @@
     <t>专业、免费、开放的科研平台</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网站</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2223,6 +2249,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2255,7 +2310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2321,6 +2376,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2600,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="CJ16" sqref="CJ16"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2632,2187 +2690,2172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="BB1" s="3"/>
       <c r="BC1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BI1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="BN1" s="4"/>
       <c r="BO1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BU1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CG1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CM1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="CM1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="CN1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:95" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="X2" s="16"/>
       <c r="Y2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="AD2" s="16"/>
       <c r="AE2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="AJ2" s="16"/>
       <c r="AK2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="AP2" s="16"/>
       <c r="AQ2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="AV2" s="16"/>
       <c r="AW2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="BB2" s="16"/>
       <c r="BC2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BE2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BF2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BG2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="BH2" s="18"/>
       <c r="BI2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BK2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="BN2" s="18"/>
       <c r="BO2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BP2" s="6" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BQ2" s="6" t="s">
+      <c r="BR2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BS2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="BT2" s="16"/>
       <c r="BU2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BX2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BX2" s="6" t="s">
+      <c r="BY2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="BY2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="BZ2" s="16"/>
       <c r="CA2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CC2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CD2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CE2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="CF2" s="16"/>
       <c r="CG2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CI2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CI2" s="6" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CK2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="CL2" s="16"/>
       <c r="CM2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CN2" s="6" t="s">
+      <c r="CO2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CO2" s="6" t="s">
+      <c r="CP2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CP2" s="6" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="K3" s="8"/>
       <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AM3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AN3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AS3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AT3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="20" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="20" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB3" s="3"/>
       <c r="BC3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BE3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BF3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BI3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BK3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BL3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="BN3" s="4"/>
       <c r="BO3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BP3" s="12" t="s">
+      <c r="BQ3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="BQ3" s="12" t="s">
+      <c r="BR3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="BV3" s="12" t="s">
+      <c r="BX3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CB3" s="12" t="s">
+      <c r="CC3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CC3" s="12" t="s">
+      <c r="CD3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="CH3" s="12" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CN3" s="12" t="s">
+      <c r="CP3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="K4" s="8"/>
       <c r="M4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="S4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="V4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC4" s="9"/>
       <c r="AE4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="AG4" s="9"/>
       <c r="AH4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AN4" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="AO4" s="9"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR4" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="AS4" s="9"/>
       <c r="AT4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AU4" s="9"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AY4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="BA4" s="9"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD4" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BE4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BF4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BI4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="BJ4" s="12" t="s">
+      <c r="BK4" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BL4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BP4" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="BP4" s="12" t="s">
+      <c r="BR4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BU4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="BV4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="BV4" s="12" t="s">
+      <c r="BX4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="BY4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="CA4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="CA4" s="1" t="s">
+      <c r="CB4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="CB4" s="12" t="s">
+      <c r="CD4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CG4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="CG4" s="1" t="s">
+      <c r="CH4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="CH4" s="12" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="CJ4" s="1" t="s">
+      <c r="CM4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="CM4" s="1" t="s">
+      <c r="CN4" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="CN4" s="12" t="s">
+      <c r="CP4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K5" s="8"/>
       <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="O5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="S5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="V5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="AB5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AH5" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL5" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AN5" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR5" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AT5" t="s">
         <v>174</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>175</v>
       </c>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX5" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="AX5" s="12" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD5" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="BD5" s="12" t="s">
+      <c r="BE5" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="BE5" s="12" t="s">
+      <c r="BF5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BG5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BJ5" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="BJ5" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="BK5" s="12"/>
       <c r="BL5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BP5" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="BP5" s="12" t="s">
+      <c r="BR5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="BV5" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="BV5" s="12" t="s">
+      <c r="BX5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CB5" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="CB5" s="12" t="s">
+      <c r="CC5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CC5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CG5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="CH5" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="CH5" s="12" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="CM5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CN5" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="CM5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CN5" s="12" t="s">
-        <v>198</v>
-      </c>
       <c r="CP5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="K6" s="8"/>
       <c r="M6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="S6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="W6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AB6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AG6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="AG6" s="12" t="s">
+      <c r="AH6" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL6" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="AL6" s="12" t="s">
+      <c r="AN6" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AR6" s="12" t="s">
+      <c r="AT6" t="s">
         <v>222</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>223</v>
       </c>
       <c r="AV6" s="3"/>
       <c r="AW6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AX6" s="12" t="s">
+      <c r="AY6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AY6" s="12" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD6" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="BD6" s="12" t="s">
+      <c r="BE6" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="BE6" s="12" t="s">
+      <c r="BF6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BI6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BJ6" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="BJ6" s="12" t="s">
+      <c r="BK6" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="BK6" s="12" t="s">
+      <c r="BL6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BO6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BP6" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="BP6" s="13" t="s">
+      <c r="BR6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BR6" s="1" t="s">
+      <c r="BU6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BU6" s="1" t="s">
+      <c r="BV6" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="BV6" s="12" t="s">
+      <c r="BX6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BX6" s="1" t="s">
+      <c r="CA6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CA6" s="1" t="s">
+      <c r="CB6" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="CB6" s="12" t="s">
+      <c r="CC6" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="CC6" s="12" t="s">
+      <c r="CD6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CD6" s="1" t="s">
+      <c r="CG6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CG6" s="1" t="s">
+      <c r="CH6" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="CH6" s="12" t="s">
+      <c r="CJ6" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="K7" s="8"/>
       <c r="M7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="S7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W7" s="9"/>
       <c r="Y7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z7" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AB7" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AH7" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL7" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AN7" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR7" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AT7" t="s">
         <v>268</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>269</v>
       </c>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX7" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AY7" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="AY7" s="12" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD7" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BE7" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BF7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BG7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BI7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BK7" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="BL7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BO7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BL7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BP7" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="BP7" s="12" t="s">
+      <c r="BR7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="BR7" s="1" t="s">
+      <c r="BU7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="BU7" s="1" t="s">
+      <c r="BV7" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="BV7" s="12" t="s">
+      <c r="BX7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BX7" s="1" t="s">
+      <c r="CA7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="CA7" s="1" t="s">
+      <c r="CB7" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="CB7" s="13" t="s">
+      <c r="CD7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CD7" s="1" t="s">
+      <c r="CG7" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="CG7" s="1" t="s">
+      <c r="CH7" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="CJ7" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="P8" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="S8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T8" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="V8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="Z8" s="12" t="s">
+      <c r="AB8" t="s">
         <v>311</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AH8" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="20" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AT8" s="20" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX8" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="AX8" s="12" t="s">
+      <c r="AY8" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="AY8" s="12" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD8" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="BD8" s="12" t="s">
+      <c r="BE8" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="BE8" s="12" t="s">
+      <c r="BF8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BU8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BU8" s="1" t="s">
+      <c r="BV8" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="BV8" s="13" t="s">
+      <c r="BW8" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="BW8" s="12" t="s">
+      <c r="BX8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BX8" s="1" t="s">
+      <c r="CA8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CB8" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="CB8" s="12" t="s">
+      <c r="CD8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CD8" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="CG8" s="1" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="CH8" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="CI8" s="12" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="CK8" s="1" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="P9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="S9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH9" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AX9" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AY9" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BD9" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BE9" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BV9" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BX9" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="BD9" s="12" t="s">
+      <c r="CA9" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="BE9" s="12" t="s">
+      <c r="CB9" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="CD9" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BU9" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="BV9" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="BX9" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="CB9" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="CG9" s="1" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="CH9" s="12" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="S10" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="T10" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="U10" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="AE10" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="AF10" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AX10" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="BD10" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE10" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV10" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="BX10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="CA10" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BE10" s="12" t="s">
+      <c r="CB10" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="CD10" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BG10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BU10" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="BV10" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BX10" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="CA10" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="CB10" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="CD10" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="CG10" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="CH10" s="12" t="s">
-        <v>392</v>
+        <v>415</v>
+      </c>
+      <c r="CH10" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="S11" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="T11" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="AH11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="AI11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AX11" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BD11" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="BE11" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BU11" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BV11" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX11" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="BD11" s="12" t="s">
+      <c r="CA11" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="BE11" s="12" t="s">
+      <c r="CB11" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="CD11" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="BU11" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="BV11" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="BX11" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="CA11" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="CB11" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="CD11" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="CG11" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CH11" s="13" t="s">
-        <v>422</v>
+        <v>447</v>
+      </c>
+      <c r="CH11" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>293</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="S12" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="T12" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="U12" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="AE12" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="AF12" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AX12" s="12" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BD12" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="BE12" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BU12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BV12" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="BX12" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="BD12" s="12" t="s">
+      <c r="CA12" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="BE12" s="12" t="s">
+      <c r="CB12" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="CD12" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BU12" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BV12" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="BX12" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CA12" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="CB12" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="CG12" s="1" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="CH12" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="CJ12" s="1" t="s">
-        <v>455</v>
+        <v>478</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="S13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="V13" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="AH13" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AX13" s="15" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD13" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="BE13" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="BU13" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="BV13" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="CB13" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="BD13" s="12" t="s">
+      <c r="CC13" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="BE13" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="CD13" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="BU13" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="BV13" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="BX13" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="CA13" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="CB13" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="CC13" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CD13" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="CG13" s="1" t="s">
-        <v>483</v>
+      <c r="CG13" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="CH13" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>485</v>
+        <v>669</v>
+      </c>
+      <c r="CJ13" s="20" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="T14" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="AF14" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="AH14" t="s">
         <v>491</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AF14" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>497</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AX14" s="12" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AY14" s="12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BD14" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="BE14" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BU14" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="BV14" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="BW14" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="CB14" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="CC14" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="CD14" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="BV14" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="BW14" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="BX14" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="CA14" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="CB14" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="CC14" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="CG14" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="CH14" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="CJ14" s="20" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AX15" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="BV15" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="CB15" s="12" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="S16" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="BV16" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="BW16" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="BX16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB16" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="CC16" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="BV16" s="12" t="s">
+      <c r="CD16" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="BW16" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="BX16" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="CA16" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="CB16" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="CC16" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="17" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S17" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4820,190 +4863,190 @@
       <c r="AX17" s="17"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="BV17" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="CB17" s="12" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="BV18" s="12" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="CB18" s="12" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="BV19" s="12" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="CB19" s="12" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="BV20" s="12" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="CB20" s="13" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BV21" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="BX21" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CA21" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="CB21" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="CC21" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="CD21" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="BV21" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="BX21" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="CA21" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="CB21" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="CC21" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="BV22" s="12" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="CB22" s="12" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="19:83" x14ac:dyDescent="0.2">
@@ -5012,25 +5055,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="BV23" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="BX23" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="CA23" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="CB23" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="CC23" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="CD23" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="BV23" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="BX23" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="CA23" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="CB23" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="CC23" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="24" spans="19:83" x14ac:dyDescent="0.2">
@@ -5039,22 +5082,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="BV24" s="12" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="CB24" s="12" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="19:83" x14ac:dyDescent="0.2">
@@ -5063,172 +5106,172 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="BV25" s="15" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="CB25" s="12" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="BV26" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="BX26" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="CB26" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="CC26" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="CD26" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="BV26" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="BX26" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="CB26" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="CC26" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="BV27" s="12" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="CB27" s="12" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="BV28" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>607</v>
+      </c>
+      <c r="CA28" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="CB28" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="CC28" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="CD28" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="BV28" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="BX28" t="s">
-        <v>613</v>
-      </c>
-      <c r="CA28" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="CB28" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="CC28" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="29" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="BV29" s="12" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="BW29" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="BX29" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="CA29" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="CB29" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA30" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="CB30" s="12" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="CB31" s="10" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="CB32" s="12" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="CB33" s="13" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="CC33" s="12" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="CB34" s="12" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5407,109 +5450,107 @@
     <hyperlink ref="CH5" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
     <hyperlink ref="CH6" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="CH7" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="CH8" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="CH9" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="CH10" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="CH11" r:id="rId177" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="AM3" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="AM4" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="AS3" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="AY4" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="U10" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="U12" r:id="rId183" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="U17" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="AG6" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="AY6" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="AY7" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="AY8" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="AY9" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="BE14" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="BE12" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="BE13" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="BE10" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="BE3" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="BE4" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="BE5" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="BE6" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="BE7" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="BE8" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="BE9" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="BE11" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="BK4" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="BK3" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="BK6" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="BK7" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="BQ3" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="BW14" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="CC3" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="CC5" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="CC6" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="CC16" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="CI8" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="CC13" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC28" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="CC21" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC26" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC23" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="BW16" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="AF13" r:id="rId219" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="BV8" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="BW8" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="AX12" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="AX13" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="AX14" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="AX15" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="AY14" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="CC14" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="T18" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="CB7" r:id="rId229" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H13" r:id="rId230" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="I13" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B12" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="CB33" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC33" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B13" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="CB10" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="Z7" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="CB12" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="CB11" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H14" r:id="rId240" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB34" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="AR5" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="AT5" r:id="rId243" tooltip="https://c4dco.com/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="AR6" r:id="rId244" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="AT6" r:id="rId245" tooltip="http://cgka3d.com/" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="AR7" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="AT7" r:id="rId247" tooltip="https://c4dsky.com/" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="BV28" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="BX28" r:id="rId249" tooltip="https://www.67tool.com/" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="Z8" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="AB8" r:id="rId251" tooltip="https://aicolors.co/" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="CH12" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="CH13" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="CJ13" r:id="rId254" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="AF14" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="AH14" r:id="rId256" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B14" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="BV29" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="BW29" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B10" r:id="rId260" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
-    <hyperlink ref="C10" r:id="rId261" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
-    <hyperlink ref="N15" r:id="rId262" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
-    <hyperlink ref="B3" r:id="rId263" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
-    <hyperlink ref="T19" r:id="rId264" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
-    <hyperlink ref="S19" r:id="rId265" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
-    <hyperlink ref="T20" r:id="rId266" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
-    <hyperlink ref="S20" r:id="rId267" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
-    <hyperlink ref="T21" r:id="rId268" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
-    <hyperlink ref="B15" r:id="rId269" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
-    <hyperlink ref="I11" r:id="rId270" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H11" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR8" r:id="rId272" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
-    <hyperlink ref="T22" r:id="rId273" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
-    <hyperlink ref="CH14" r:id="rId274" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
+    <hyperlink ref="CH8" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="CH9" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="CH10" r:id="rId176" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="AM3" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AM4" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="AS3" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="AY4" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="U10" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="U12" r:id="rId182" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="U17" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="AG6" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="AY6" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AY7" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="AY8" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="AY9" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="BE14" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="BE12" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="BE13" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="BE10" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="BE3" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="BE4" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="BE5" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="BE6" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="BE7" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="BE8" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="BE9" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="BE11" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="BK4" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="BK3" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="BK6" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="BK7" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="BQ3" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="BW14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="CC3" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="CC5" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC6" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="CC16" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CC13" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC28" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC21" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC26" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC23" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="BW16" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="AF13" r:id="rId217" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="BV8" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="BW8" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="AX12" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="AX13" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="AX14" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="AX15" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="AY14" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="CC14" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="T18" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="CB7" r:id="rId227" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H13" r:id="rId228" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="I13" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B12" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="CB33" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC33" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B13" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="CB10" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="Z7" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="CB12" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB11" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H14" r:id="rId238" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="CB34" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="AR5" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="AT5" r:id="rId241" tooltip="https://c4dco.com/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="AR6" r:id="rId242" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="AT6" r:id="rId243" tooltip="http://cgka3d.com/" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="AR7" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="AT7" r:id="rId245" tooltip="https://c4dsky.com/" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="BV28" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="BX28" r:id="rId247" tooltip="https://www.67tool.com/" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="Z8" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="AB8" r:id="rId249" tooltip="https://aicolors.co/" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="CH11" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="CH12" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="CJ12" r:id="rId252" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="AF14" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="AH14" r:id="rId254" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B14" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="BV29" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="BW29" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B10" r:id="rId258" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
+    <hyperlink ref="C10" r:id="rId259" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
+    <hyperlink ref="N15" r:id="rId260" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="B3" r:id="rId261" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
+    <hyperlink ref="T19" r:id="rId262" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
+    <hyperlink ref="S19" r:id="rId263" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
+    <hyperlink ref="T20" r:id="rId264" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
+    <hyperlink ref="S20" r:id="rId265" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
+    <hyperlink ref="T21" r:id="rId266" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
+    <hyperlink ref="B15" r:id="rId267" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
+    <hyperlink ref="I11" r:id="rId268" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H11" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR8" r:id="rId270" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
+    <hyperlink ref="T22" r:id="rId271" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
+    <hyperlink ref="CH13" r:id="rId272" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23BA9F2-85C3-4AD9-BC4C-1B7592391801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69F034-A6EE-42EC-AFCA-9256D1A83F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="671">
   <si>
     <t>nice</t>
   </si>
@@ -1943,29 +1943,6 @@
   </si>
   <si>
     <t>quicker-强烈安利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小陈GPT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>💕</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://1gpt.pages.dev</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://1gpt.pages.dev/favicon.ico</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2057,14 +2034,6 @@
   </si>
   <si>
     <t>由安阳师范学院计算机与信息工程学院与中国社会科学院甲骨学殷商史研究中心合作建设，以方便网友为主，仅供学习。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜像地址,基于gpt-3.5</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2159,12 +2128,24 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>https://aust001.pythonanywhere.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT4网页导航</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内免费版本ChatGpt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2232,12 +2213,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
     <font>
@@ -2374,10 +2349,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2659,7 +2634,7 @@
   <dimension ref="A1:CQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2691,7 +2666,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2700,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>2</v>
@@ -3057,13 +3032,13 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>643</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>646</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>40</v>
@@ -4028,13 +4003,13 @@
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="20" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AT8" s="20" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
@@ -4116,7 +4091,7 @@
         <v>331</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>332</v>
@@ -4213,20 +4188,16 @@
     </row>
     <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>637</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>658</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="G10" s="1" t="s">
         <v>358</v>
       </c>
@@ -4432,7 +4403,7 @@
     </row>
     <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>387</v>
@@ -4637,13 +4608,13 @@
         <v>476</v>
       </c>
       <c r="CG13" s="20" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="CH13" s="12" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="CJ13" s="20" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
@@ -4747,22 +4718,22 @@
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>507</v>
@@ -4883,7 +4854,7 @@
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>540</v>
@@ -4916,13 +4887,13 @@
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
@@ -4949,13 +4920,13 @@
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
@@ -4982,13 +4953,13 @@
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
@@ -5018,13 +4989,13 @@
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
@@ -5535,22 +5506,21 @@
     <hyperlink ref="BV29" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
     <hyperlink ref="BW29" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
     <hyperlink ref="B10" r:id="rId258" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
-    <hyperlink ref="C10" r:id="rId259" xr:uid="{576DF978-8EC3-4250-B786-2C33794BE7EE}"/>
-    <hyperlink ref="N15" r:id="rId260" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
-    <hyperlink ref="B3" r:id="rId261" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
-    <hyperlink ref="T19" r:id="rId262" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
-    <hyperlink ref="S19" r:id="rId263" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
-    <hyperlink ref="T20" r:id="rId264" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
-    <hyperlink ref="S20" r:id="rId265" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
-    <hyperlink ref="T21" r:id="rId266" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
-    <hyperlink ref="B15" r:id="rId267" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
-    <hyperlink ref="I11" r:id="rId268" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H11" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR8" r:id="rId270" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
-    <hyperlink ref="T22" r:id="rId271" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
-    <hyperlink ref="CH13" r:id="rId272" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
+    <hyperlink ref="N15" r:id="rId259" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="B3" r:id="rId260" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
+    <hyperlink ref="T19" r:id="rId261" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
+    <hyperlink ref="S19" r:id="rId262" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
+    <hyperlink ref="T20" r:id="rId263" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
+    <hyperlink ref="S20" r:id="rId264" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
+    <hyperlink ref="T21" r:id="rId265" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
+    <hyperlink ref="B15" r:id="rId266" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
+    <hyperlink ref="I11" r:id="rId267" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H11" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR8" r:id="rId269" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
+    <hyperlink ref="T22" r:id="rId270" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
+    <hyperlink ref="CH13" r:id="rId271" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId272"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69F034-A6EE-42EC-AFCA-9256D1A83F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB66CBB-3922-4B51-9498-24F37BB1B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="674">
   <si>
     <t>nice</t>
   </si>
@@ -47,9 +47,6 @@
     <t>docs</t>
   </si>
   <si>
-    <t>📐 设计网站 &lt;span&gt;（部分需要科学上网）&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>designweb</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>http://www.cndesign.com</t>
-  </si>
-  <si>
-    <t>教程文章，字体学习（www.cndesign.com）是设计领域重要的媒体资讯平台</t>
   </si>
   <si>
     <t>中国传统色彩</t>
@@ -2140,12 +2134,91 @@
     <t>国内免费版本ChatGpt</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>教程文章，&lt;i  style="color:red;"&gt;字体学习&lt;/i&gt;是设计领域重要的媒体资讯平台</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 设计网站 &lt;span&gt;（部分需要 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i  style="color:#bc37e79e;"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科学上网 &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.impawards.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影海报下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国电影高清海报下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,6 +2325,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2633,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="BM17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="BY30" sqref="BY30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2745,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2675,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>2</v>
@@ -2686,2147 +2765,2148 @@
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="BB1" s="3"/>
       <c r="BC1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BI1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="BN1" s="4"/>
       <c r="BO1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BU1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CA1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CG1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CM1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="CM1" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="CN1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:95" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="X2" s="16"/>
       <c r="Y2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="AD2" s="16"/>
       <c r="AE2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="AJ2" s="16"/>
       <c r="AK2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="AP2" s="16"/>
       <c r="AQ2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="AV2" s="16"/>
       <c r="AW2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="BB2" s="16"/>
       <c r="BC2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BE2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BF2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BG2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="BH2" s="18"/>
       <c r="BI2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BK2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="BN2" s="18"/>
       <c r="BO2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BP2" s="6" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BQ2" s="6" t="s">
+      <c r="BR2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BS2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="BT2" s="16"/>
       <c r="BU2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BX2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BX2" s="6" t="s">
+      <c r="BY2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="BY2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="BZ2" s="16"/>
       <c r="CA2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CC2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CD2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CE2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="CF2" s="16"/>
       <c r="CG2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CH2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CI2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CI2" s="6" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CK2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="CL2" s="16"/>
       <c r="CM2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="6" t="s">
+      <c r="CO2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CO2" s="6" t="s">
+      <c r="CP2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CP2" s="6" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K3" s="8"/>
       <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AN3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AT3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BB3" s="3"/>
       <c r="BC3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BF3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BG3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BK3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BL3" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="BK3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="BN3" s="4"/>
       <c r="BO3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BP3" s="12" t="s">
+      <c r="BR3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BQ3" s="12" t="s">
+      <c r="BU3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BV3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BV3" s="12" t="s">
+      <c r="CA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CB3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CC3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CB3" s="12" t="s">
+      <c r="CD3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CC3" s="12" t="s">
+      <c r="CG3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CH3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CH3" s="12" t="s">
+      <c r="CM3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CN3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CN3" s="12" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="K4" s="8"/>
       <c r="M4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="S4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="Y4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Z4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC4" s="9"/>
       <c r="AE4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG4" s="9"/>
       <c r="AH4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AN4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="AO4" s="9"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AS4" s="9"/>
       <c r="AT4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AU4" s="9"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AY4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="BA4" s="9"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BF4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BG4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BJ4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BK4" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="BJ4" s="12" t="s">
+      <c r="BL4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BO4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BP4" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BP4" s="12" t="s">
+      <c r="BU4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BV4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="BX4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BV4" s="12" t="s">
+      <c r="BY4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="CA4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="CB4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="CA4" s="1" t="s">
+      <c r="CD4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="CB4" s="12" t="s">
+      <c r="CG4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CH4" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="CG4" s="1" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="CH4" s="12" t="s">
+      <c r="CM4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="CJ4" s="1" t="s">
+      <c r="CN4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="CM4" s="1" t="s">
+      <c r="CP4" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="CN4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" s="8"/>
       <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="O5" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="S5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="Y5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Z5" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="AE5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AF5" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="AL5" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT5" t="s">
         <v>172</v>
-      </c>
-      <c r="AR5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>174</v>
       </c>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="AX5" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE5" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="BD5" s="12" t="s">
+      <c r="BF5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BE5" s="12" t="s">
+      <c r="BG5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BJ5" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ5" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="BK5" s="12"/>
       <c r="BL5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BP5" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BP5" s="12" t="s">
+      <c r="BU5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BV5" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="BX5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BV5" s="12" t="s">
+      <c r="CA5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CB5" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CC5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CB5" s="12" t="s">
+      <c r="CG5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CC5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CH5" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CH5" s="12" t="s">
+      <c r="CM5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CN5" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="CJ5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CM5" s="1" t="s">
+      <c r="CP5" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="CN5" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="CP5" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="K6" s="8"/>
       <c r="M6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="S6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="W6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AE6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AF6" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AG6" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AH6" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="AG6" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AL6" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT6" t="s">
         <v>220</v>
-      </c>
-      <c r="AR6" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>222</v>
       </c>
       <c r="AV6" s="3"/>
       <c r="AW6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AX6" s="12" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="AY6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD6" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE6" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="BD6" s="12" t="s">
+      <c r="BF6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE6" s="12" t="s">
+      <c r="BI6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BJ6" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BK6" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="BJ6" s="12" t="s">
+      <c r="BL6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BK6" s="12" t="s">
+      <c r="BP6" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BR6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP6" s="13" t="s">
+      <c r="BU6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BR6" s="1" t="s">
+      <c r="BV6" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="BU6" s="1" t="s">
+      <c r="BX6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BV6" s="12" t="s">
+      <c r="CA6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BX6" s="1" t="s">
+      <c r="CB6" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="CA6" s="1" t="s">
+      <c r="CC6" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="CB6" s="12" t="s">
+      <c r="CD6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CC6" s="12" t="s">
+      <c r="CG6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CD6" s="1" t="s">
+      <c r="CH6" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="CG6" s="1" t="s">
+      <c r="CJ6" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="CH6" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="J7" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="K7" s="8"/>
       <c r="M7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="P7" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="S7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W7" s="9"/>
       <c r="Y7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AE7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AF7" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT7" t="s">
         <v>266</v>
-      </c>
-      <c r="AR7" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>268</v>
       </c>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY7" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="AY7" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD7" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="BE7" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BF7" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BG7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BI7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BK7" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BL7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BO7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="BP7" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="BL7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BR7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BP7" s="12" t="s">
+      <c r="BU7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BR7" s="1" t="s">
+      <c r="BV7" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="BU7" s="1" t="s">
+      <c r="BX7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="BV7" s="12" t="s">
+      <c r="CA7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BX7" s="1" t="s">
+      <c r="CB7" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="CA7" s="1" t="s">
+      <c r="CD7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="CB7" s="13" t="s">
+      <c r="CG7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="CD7" s="1" t="s">
+      <c r="CH7" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="CG7" s="1" t="s">
+      <c r="CJ7" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="CH7" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="J8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="M8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="P8" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="S8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="Y8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Z8" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AB8" t="s">
         <v>309</v>
       </c>
-      <c r="Z8" s="12" t="s">
+      <c r="AE8" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="20" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AR8" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="AT8" s="20" t="s">
         <v>656</v>
-      </c>
-      <c r="AT8" s="20" t="s">
-        <v>658</v>
       </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AY8" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="AX8" s="12" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="AY8" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD8" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="BE8" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="BD8" s="12" t="s">
+      <c r="BF8" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BE8" s="12" t="s">
+      <c r="BU8" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BV8" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="BU8" s="1" t="s">
+      <c r="BW8" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="BV8" s="13" t="s">
+      <c r="BX8" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="BW8" s="12" t="s">
+      <c r="CA8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="BX8" s="1" t="s">
+      <c r="CB8" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CD8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CB8" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="CG8" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="CH8" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>297</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="M9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="P9" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="S9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="U9" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="V9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="AE9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AF9" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY9" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="AY9" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD9" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BE9" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="BD9" s="12" t="s">
+      <c r="BF9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="BE9" s="12" t="s">
+      <c r="BU9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BV9" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="BU9" s="1" t="s">
+      <c r="BX9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BV9" s="12" t="s">
+      <c r="CA9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="BX9" s="1" t="s">
+      <c r="CB9" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="CA9" s="1" t="s">
+      <c r="CD9" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="CB9" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="CG9" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="CH9" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="20" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E10" s="20"/>
       <c r="G10" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="J10" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="M10" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="N10" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="S10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="U10" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="V10" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="AE10" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AF10" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="AX10" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="BD10" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="BE10" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="BF10" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BE10" s="12" t="s">
+      <c r="BG10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BV10" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="BG10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU10" s="1" t="s">
+      <c r="BX10" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BV10" s="12" t="s">
+      <c r="CA10" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CB10" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CD10" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="CB10" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="CD10" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="CG10" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="CH10" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="J11" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="M11" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="N11" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="S11" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="T11" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="AE11" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AF11" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AH11" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AF11" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="AI11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX11" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="AX11" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BD11" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="BE11" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="BD11" s="12" t="s">
+      <c r="BF11" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="BE11" s="12" t="s">
+      <c r="BU11" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BV11" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BX11" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="BV11" s="12" t="s">
+      <c r="CA11" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CB11" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CD11" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="CB11" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="CD11" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="CG11" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CH11" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="CH11" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="CJ11" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="J12" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="M12" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="N12" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="S12" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="U12" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="V12" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="AE12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AF12" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AX12" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="AX12" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BD12" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BE12" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="BD12" s="12" t="s">
+      <c r="BF12" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BE12" s="12" t="s">
+      <c r="BU12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BV12" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BX12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="BV12" s="12" t="s">
+      <c r="CA12" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CB12" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CD12" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="CB12" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="CG12" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="CH12" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="CJ12" t="s">
         <v>477</v>
-      </c>
-      <c r="CH12" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="J13" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="M13" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="S13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T13" s="12" t="s">
+      <c r="AE13" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AX13" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="AX13" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="BD13" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="BE13" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="BD13" s="12" t="s">
+      <c r="BU13" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BE13" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BV13" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BV13" s="12" t="s">
+      <c r="CB13" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CC13" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="CB13" s="12" t="s">
+      <c r="CD13" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CC13" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="CD13" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="CG13" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="CH13" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="CJ13" s="20" t="s">
         <v>664</v>
-      </c>
-      <c r="CJ13" s="20" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="M14" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="N14" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="S14" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="AE14" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AF14" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AH14" t="s">
         <v>489</v>
-      </c>
-      <c r="AF14" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>491</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX14" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="AY14" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="AX14" s="12" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="AY14" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="BD14" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="BE14" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BF14" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="BU14" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BV14" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BW14" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="BV14" s="12" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="BW14" s="12" t="s">
+      <c r="CB14" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CC14" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="CB14" s="12" t="s">
+      <c r="CD14" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="CC14" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>654</v>
-      </c>
       <c r="M15" s="20" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N15" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>637</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="AX15" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BV15" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="BX15" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="BV15" s="12" t="s">
+      <c r="CA15" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="CB15" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CD15" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="CB15" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
       <c r="S16" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="BV16" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="BW16" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="BV16" s="12" t="s">
+      <c r="BX16" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="BW16" s="12" t="s">
+      <c r="CA16" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="BX16" s="1" t="s">
+      <c r="CB16" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CC16" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="CB16" s="12" t="s">
+      <c r="CD16" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="CC16" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="17" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="U17" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="V17" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4834,190 +4914,190 @@
       <c r="AX17" s="17"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="BV17" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="BX17" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="BV17" s="12" t="s">
+      <c r="CA17" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CB17" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CD17" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="CB17" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="BV18" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="BX18" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="BV18" s="12" t="s">
+      <c r="CA18" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CD18" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="CB18" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="BV19" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="BX19" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="BV19" s="12" t="s">
+      <c r="CA19" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CD19" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="CB19" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T20" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>646</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>648</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="BV20" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="BX20" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="BV20" s="12" t="s">
+      <c r="CA20" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CD20" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="CB20" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T21" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>649</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>651</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="BV21" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="BX21" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="BV21" s="12" t="s">
+      <c r="CA21" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CC21" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="CB21" s="12" t="s">
+      <c r="CD21" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="CC21" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="BV22" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="BX22" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="BV22" s="12" t="s">
+      <c r="CA22" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CD22" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="CB22" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="23" spans="19:83" x14ac:dyDescent="0.2">
@@ -5026,25 +5106,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BV23" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="BX23" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="BV23" s="12" t="s">
+      <c r="CA23" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CC23" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="CB23" s="12" t="s">
+      <c r="CD23" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="CC23" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="24" spans="19:83" x14ac:dyDescent="0.2">
@@ -5053,22 +5133,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="BV24" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="BX24" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="BV24" s="12" t="s">
+      <c r="CA24" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CD24" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="CB24" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="25" spans="19:83" x14ac:dyDescent="0.2">
@@ -5077,172 +5157,181 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="BV25" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="BX25" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="BV25" s="15" t="s">
+      <c r="CA25" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CD25" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="CB25" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="26" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="BV26" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="BX26" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="BV26" s="12" t="s">
+      <c r="CA26" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CB26" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CC26" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="CB26" s="12" t="s">
+      <c r="CD26" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="CC26" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="27" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="BV27" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="BX27" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="BV27" s="12" t="s">
+      <c r="CA27" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="CB27" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="CA27" s="1" t="s">
+      <c r="CD27" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="CB27" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="CE27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="BV28" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="BX28" t="s">
         <v>605</v>
       </c>
-      <c r="BV28" s="12" t="s">
+      <c r="CA28" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="CB28" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="CA28" s="1" t="s">
+      <c r="CC28" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="CB28" s="12" t="s">
+      <c r="CD28" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="CC28" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="29" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="BV29" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="BW29" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="BV29" s="12" t="s">
+      <c r="BX29" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="BW29" s="12" t="s">
+      <c r="CA29" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="BX29" s="1" t="s">
+      <c r="CB29" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="CA29" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="CB29" s="12" t="s">
-        <v>617</v>
-      </c>
       <c r="CD29" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="BU30" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="BV30" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="BX30" s="20" t="s">
+        <v>673</v>
+      </c>
       <c r="CA30" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="CB30" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="CB31" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="CD31" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="CB31" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="CD31" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="32" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="CB32" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="CD32" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="CB32" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="CD32" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="CB33" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="CC33" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="CB33" s="13" t="s">
+      <c r="CD33" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="CC33" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="CD33" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="CB34" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="CD34" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="CB34" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5519,8 +5608,9 @@
     <hyperlink ref="AR8" r:id="rId269" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
     <hyperlink ref="T22" r:id="rId270" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
     <hyperlink ref="CH13" r:id="rId271" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
+    <hyperlink ref="BV30" r:id="rId272" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId272"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB66CBB-3922-4B51-9498-24F37BB1B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4C913-5CE4-483F-AC4C-A6E4C4359B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1380,9 +1380,6 @@
   </si>
   <si>
     <t>本站AI导航</t>
-  </si>
-  <si>
-    <t>https://ai.1nav.ml</t>
   </si>
   <si>
     <t>AI绘画爱好者制作，方便自己和朋友而存在的一个ai绘画导航网站</t>
@@ -2211,6 +2208,10 @@
   </si>
   <si>
     <t>全国电影高清海报下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aidh.4everland.app</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2712,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="BY30" sqref="BY30"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2745,7 +2746,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2754,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>636</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>637</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>2</v>
@@ -2766,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -3111,13 +3112,13 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>640</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>641</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -3154,7 +3155,7 @@
         <v>49</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>50</v>
@@ -3210,14 +3211,14 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BA3" s="8" t="s">
         <v>65</v>
@@ -4082,13 +4083,13 @@
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AT8" s="20" t="s">
         <v>655</v>
-      </c>
-      <c r="AR8" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT8" s="20" t="s">
-        <v>656</v>
       </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
@@ -4170,7 +4171,7 @@
         <v>329</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>330</v>
@@ -4267,14 +4268,14 @@
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E10" s="20"/>
       <c r="G10" s="1" t="s">
@@ -4482,7 +4483,7 @@
     </row>
     <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>385</v>
@@ -4579,13 +4580,13 @@
         <v>444</v>
       </c>
       <c r="CG12" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="CH12" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="CH12" s="12" t="s">
+      <c r="CJ12" t="s">
         <v>476</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
@@ -4602,98 +4603,98 @@
         <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="P13" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AH13" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AX13" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="AX13" s="15" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="BD13" s="12" t="s">
         <v>466</v>
-      </c>
-      <c r="BD13" s="12" t="s">
-        <v>467</v>
       </c>
       <c r="BE13" s="12" t="s">
         <v>375</v>
       </c>
       <c r="BF13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BU13" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BV13" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="BV13" s="12" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CB13" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="CB13" s="12" t="s">
+      <c r="CC13" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="CC13" s="12" t="s">
+      <c r="CD13" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CD13" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="CG13" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="CH13" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="CJ13" s="20" t="s">
         <v>663</v>
-      </c>
-      <c r="CH13" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="CJ13" s="20" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
@@ -4701,212 +4702,212 @@
         <v>448</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="J14" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="V14" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AH14" t="s">
         <v>488</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>489</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX14" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AX14" s="12" t="s">
+      <c r="AY14" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AY14" s="12" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BD14" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BE14" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="BF14" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="BV14" s="12" t="s">
+      <c r="BW14" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="BW14" s="12" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CB14" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="CB14" s="12" t="s">
+      <c r="CC14" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="CC14" s="13" t="s">
+      <c r="CD14" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>652</v>
-      </c>
       <c r="M15" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>634</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>635</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="V15" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AX15" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="AX15" s="12" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="BV15" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="BV15" s="12" t="s">
+      <c r="BX15" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="CA15" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CB15" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="CB15" s="12" t="s">
+      <c r="CD15" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="S16" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="V16" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="BV16" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="BV16" s="12" t="s">
+      <c r="BW16" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="BW16" s="12" t="s">
+      <c r="BX16" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="BX16" s="1" t="s">
+      <c r="CA16" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CB16" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="CB16" s="12" t="s">
+      <c r="CC16" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="CC16" s="12" t="s">
+      <c r="CD16" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="17" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="U17" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="V17" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4914,190 +4915,190 @@
       <c r="AX17" s="17"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="BV17" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="BV17" s="12" t="s">
+      <c r="BX17" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CA17" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CB17" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="CB17" s="12" t="s">
+      <c r="CD17" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="18" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T18" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="BV18" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="BV18" s="12" t="s">
+      <c r="BX18" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CA18" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="CB18" s="12" t="s">
+      <c r="CD18" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="19" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="BV19" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="BV19" s="12" t="s">
+      <c r="BX19" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CA19" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="CB19" s="12" t="s">
+      <c r="CD19" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="20" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>645</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>646</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="BV20" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="BV20" s="12" t="s">
+      <c r="BX20" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="CB20" s="13" t="s">
+      <c r="CD20" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="21" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>648</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>649</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV21" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="BV21" s="12" t="s">
+      <c r="BX21" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CA21" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="CB21" s="12" t="s">
+      <c r="CC21" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="CC21" s="12" t="s">
+      <c r="CD21" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="22" spans="19:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="V22" s="20" t="s">
         <v>659</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>660</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="BV22" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="BV22" s="12" t="s">
+      <c r="BX22" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CA22" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="CB22" s="12" t="s">
+      <c r="CD22" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="23" spans="19:83" x14ac:dyDescent="0.2">
@@ -5106,25 +5107,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BV23" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="BV23" s="12" t="s">
+      <c r="BX23" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CA23" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="CB23" s="12" t="s">
+      <c r="CC23" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="CC23" s="12" t="s">
+      <c r="CD23" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="24" spans="19:83" x14ac:dyDescent="0.2">
@@ -5133,22 +5134,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="BV24" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="BV24" s="12" t="s">
+      <c r="BX24" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CA24" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="CB24" s="12" t="s">
+      <c r="CD24" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="25" spans="19:83" x14ac:dyDescent="0.2">
@@ -5157,65 +5158,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="BV25" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="BV25" s="15" t="s">
+      <c r="BX25" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="CB25" s="12" t="s">
+      <c r="CD25" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="26" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="BV26" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="BV26" s="12" t="s">
+      <c r="BX26" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CA26" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CB26" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="CB26" s="12" t="s">
+      <c r="CC26" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="CC26" s="12" t="s">
+      <c r="CD26" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="27" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="BV27" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="BV27" s="12" t="s">
+      <c r="BX27" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="CA27" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="CA27" s="1" t="s">
+      <c r="CB27" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="CB27" s="12" t="s">
+      <c r="CD27" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>65</v>
@@ -5223,115 +5224,115 @@
     </row>
     <row r="28" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="BV28" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="BV28" s="12" t="s">
+      <c r="BX28" t="s">
         <v>604</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="CA28" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="CA28" s="1" t="s">
+      <c r="CB28" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="CB28" s="12" t="s">
+      <c r="CC28" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="CC28" s="12" t="s">
+      <c r="CD28" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="29" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="BV29" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="BV29" s="12" t="s">
+      <c r="BW29" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="BW29" s="12" t="s">
+      <c r="BX29" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="BX29" s="1" t="s">
+      <c r="CA29" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="CA29" s="1" t="s">
+      <c r="CB29" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="CB29" s="12" t="s">
-        <v>615</v>
-      </c>
       <c r="CD29" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="19:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="BV30" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="BX30" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="BV30" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="BX30" s="20" t="s">
-        <v>673</v>
-      </c>
       <c r="CA30" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="CB30" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="CB30" s="12" t="s">
-        <v>617</v>
-      </c>
       <c r="CD30" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="CB31" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="CB31" s="10" t="s">
+      <c r="CD31" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="CD31" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="32" spans="19:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="CB32" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="CB32" s="12" t="s">
+      <c r="CD32" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="CD32" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="CB33" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="CB33" s="13" t="s">
+      <c r="CC33" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="CC33" s="12" t="s">
+      <c r="CD33" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="CD33" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="CB34" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="CB34" s="12" t="s">
+      <c r="CD34" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4C913-5CE4-483F-AC4C-A6E4C4359B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F92B0F-92AA-44C2-B3F2-265E78C64311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="677">
   <si>
     <t>nice</t>
   </si>
@@ -2212,6 +2212,18 @@
   </si>
   <si>
     <t>https://aidh.4everland.app</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xht.aust001.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT4导航</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内免费版本ChatGpt—b站小海疼来啦</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2714,7 +2726,7 @@
   <dimension ref="A1:CQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4268,14 +4280,14 @@
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>674</v>
+      </c>
+      <c r="C10" s="13"/>
       <c r="D10" s="20" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E10" s="20"/>
       <c r="G10" s="1" t="s">
@@ -4377,14 +4389,15 @@
       </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>355</v>
+      <c r="A11" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="20" t="s">
+        <v>667</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>387</v>
@@ -4481,15 +4494,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>385</v>
+    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>65</v>
@@ -4589,15 +4602,15 @@
         <v>476</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>415</v>
+    <row r="13" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>638</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>70</v>
@@ -4699,13 +4712,13 @@
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>673</v>
+        <v>416</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>477</v>
@@ -4797,14 +4810,14 @@
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>650</v>
+      <c r="A15" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>651</v>
+        <v>673</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>633</v>
@@ -4857,7 +4870,15 @@
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="S16" s="1" t="s">
         <v>516</v>
       </c>
@@ -4896,7 +4917,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
       <c r="S17" s="1" t="s">
         <v>527</v>
       </c>
@@ -4933,7 +4955,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
         <v>657</v>
       </c>
@@ -4966,7 +4988,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="19" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
         <v>642</v>
       </c>
@@ -4999,7 +5021,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
         <v>644</v>
       </c>
@@ -5032,7 +5054,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
         <v>647</v>
       </c>
@@ -5068,7 +5090,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
         <v>658</v>
       </c>
@@ -5101,7 +5123,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="AJ23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AV23" s="3"/>
@@ -5128,7 +5150,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="AJ24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AV24" s="3"/>
@@ -5152,7 +5174,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="AJ25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AV25" s="3"/>
@@ -5176,7 +5198,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
         <v>589</v>
       </c>
@@ -5199,7 +5221,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
         <v>596</v>
       </c>
@@ -5222,7 +5244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
         <v>602</v>
       </c>
@@ -5245,7 +5267,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="29" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
         <v>609</v>
       </c>
@@ -5268,7 +5290,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="20" t="s">
         <v>671</v>
       </c>
@@ -5288,7 +5310,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
         <v>617</v>
       </c>
@@ -5299,7 +5321,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="32" spans="19:83" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
         <v>620</v>
       </c>
@@ -5567,10 +5589,10 @@
     <hyperlink ref="CB7" r:id="rId227" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="H13" r:id="rId228" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="I13" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B12" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B13" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
     <hyperlink ref="CB33" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
     <hyperlink ref="CC33" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B13" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B14" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
     <hyperlink ref="CB10" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="Z7" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
     <hyperlink ref="CB12" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
@@ -5592,10 +5614,10 @@
     <hyperlink ref="CJ12" r:id="rId252" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
     <hyperlink ref="AF14" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
     <hyperlink ref="AH14" r:id="rId254" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B14" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B15" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
     <hyperlink ref="BV29" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
     <hyperlink ref="BW29" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B10" r:id="rId258" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
+    <hyperlink ref="B11" r:id="rId258" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
     <hyperlink ref="N15" r:id="rId259" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
     <hyperlink ref="B3" r:id="rId260" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
     <hyperlink ref="T19" r:id="rId261" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
@@ -5603,15 +5625,16 @@
     <hyperlink ref="T20" r:id="rId263" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
     <hyperlink ref="S20" r:id="rId264" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
     <hyperlink ref="T21" r:id="rId265" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
-    <hyperlink ref="B15" r:id="rId266" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
+    <hyperlink ref="B16" r:id="rId266" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
     <hyperlink ref="I11" r:id="rId267" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="H11" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="AR8" r:id="rId269" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
     <hyperlink ref="T22" r:id="rId270" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
     <hyperlink ref="CH13" r:id="rId271" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
     <hyperlink ref="BV30" r:id="rId272" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
+    <hyperlink ref="B10" r:id="rId273" xr:uid="{BB972F06-88F1-41A8-B7FC-1B64E8CFC189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId274"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F92B0F-92AA-44C2-B3F2-265E78C64311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07655046-669F-401F-8B82-B7B8A392C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,9 +906,6 @@
   </si>
   <si>
     <t>这几个每天免费一次，用完一个换一个就行了</t>
-  </si>
-  <si>
-    <t>&lt;i style="color:#e67c86"&gt;夏DJ导航站介绍&lt;/i&gt;</t>
   </si>
   <si>
     <t>https://airtap.io/w/xiadj</t>
@@ -2219,11 +2216,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPT4导航</t>
+    <t>AIGC网页导航</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>国内免费版本ChatGpt—b站小海疼来啦</t>
+    <t>&lt;i style="color:#e67c86"&gt;夏DJ导航站介绍&lt;/i&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内免费版本ChatGpt—&lt;i  style="color:#e67c86"&gt;b站: 小海疼来啦&lt;/i&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2726,7 +2727,7 @@
   <dimension ref="A1:CQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2758,7 +2759,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2767,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>635</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>636</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>2</v>
@@ -2779,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -3124,13 +3125,13 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>639</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>640</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -3167,7 +3168,7 @@
         <v>49</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>50</v>
@@ -3223,14 +3224,14 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BA3" s="8" t="s">
         <v>65</v>
@@ -4041,152 +4042,152 @@
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="P8" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="S8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="T8" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="V8" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="Z8" s="12" t="s">
+      <c r="AB8" t="s">
         <v>308</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AH8" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AT8" s="20" t="s">
         <v>654</v>
-      </c>
-      <c r="AR8" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="AT8" s="20" t="s">
-        <v>655</v>
       </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX8" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="AX8" s="12" t="s">
+      <c r="AY8" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="AY8" s="12" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BD8" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="BD8" s="12" t="s">
+      <c r="BE8" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="BE8" s="12" t="s">
+      <c r="BF8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BU8" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BU8" s="1" t="s">
+      <c r="BV8" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="BV8" s="13" t="s">
+      <c r="BW8" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="BW8" s="12" t="s">
+      <c r="BX8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BX8" s="1" t="s">
+      <c r="CA8" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CB8" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="CB8" s="12" t="s">
+      <c r="CD8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CD8" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="CG8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CH8" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="CH8" s="12" t="s">
-        <v>353</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>82</v>
@@ -4202,77 +4203,77 @@
       </c>
       <c r="Q9" s="8"/>
       <c r="S9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="U9" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="V9" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AH9" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX9" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AY9" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="AY9" s="12" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD9" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="BD9" s="12" t="s">
+      <c r="BE9" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="BE9" s="12" t="s">
+      <c r="BF9" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BU9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="BU9" s="1" t="s">
+      <c r="BV9" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="BV9" s="12" t="s">
+      <c r="BX9" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="BX9" s="1" t="s">
+      <c r="CA9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="CA9" s="1" t="s">
+      <c r="CB9" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="CB9" s="12" t="s">
+      <c r="CD9" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="CD9" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="CG9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH9" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="CH9" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>290</v>
@@ -4280,10 +4281,10 @@
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="20" t="s">
@@ -4291,98 +4292,98 @@
       </c>
       <c r="E10" s="20"/>
       <c r="G10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="P10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="U10" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="V10" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AH10" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX10" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AX10" s="12" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BD10" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="BE10" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="BE10" s="12" t="s">
+      <c r="BF10" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="BU10" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="BV10" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="BV10" s="12" t="s">
+      <c r="BX10" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CA10" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CB10" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="CB10" s="13" t="s">
+      <c r="CD10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CD10" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="CG10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="CH10" s="13" t="s">
         <v>413</v>
-      </c>
-      <c r="CH10" s="13" t="s">
-        <v>414</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>290</v>
@@ -4390,53 +4391,53 @@
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="P11" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="V11" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AH11" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>65</v>
@@ -4445,53 +4446,53 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AX11" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="AX11" s="12" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BD11" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="BD11" s="12" t="s">
+      <c r="BE11" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="BE11" s="12" t="s">
+      <c r="BF11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BU11" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BV11" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="BV11" s="12" t="s">
+      <c r="BX11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CA11" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CB11" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="CB11" s="12" t="s">
+      <c r="CD11" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="CD11" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="CG11" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="CH11" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="CH11" s="12" t="s">
+      <c r="CJ11" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="CJ11" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.2">
@@ -4499,437 +4500,437 @@
         <v>248</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="P12" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="U12" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="V12" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AH12" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AX12" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="AX12" s="12" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BD12" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="BD12" s="12" t="s">
+      <c r="BE12" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="BE12" s="12" t="s">
+      <c r="BF12" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BU12" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BV12" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="BV12" s="12" t="s">
+      <c r="BX12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CA12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CB12" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="CB12" s="12" t="s">
+      <c r="CD12" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="CD12" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="CG12" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="CH12" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="CH12" s="12" t="s">
+      <c r="CJ12" t="s">
         <v>475</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="P13" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AH13" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AX13" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="AX13" s="15" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="BD13" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="BD13" s="12" t="s">
+      <c r="BE13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="BE13" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BU13" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BV13" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="BV13" s="12" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CB13" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="CB13" s="12" t="s">
+      <c r="CC13" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="CC13" s="12" t="s">
+      <c r="CD13" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="CD13" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="CG13" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="CH13" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="CJ13" s="20" t="s">
         <v>662</v>
-      </c>
-      <c r="CH13" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="CJ13" s="20" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="J14" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="V14" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AH14" t="s">
         <v>487</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>488</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AX14" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AX14" s="12" t="s">
+      <c r="AY14" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="AY14" s="12" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BD14" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BE14" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="BF14" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="BV14" s="12" t="s">
+      <c r="BW14" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="BW14" s="12" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CB14" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="CB14" s="12" t="s">
+      <c r="CC14" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="CC14" s="13" t="s">
+      <c r="CD14" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="M15" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>634</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="V15" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AX15" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="AX15" s="12" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="BV15" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="BV15" s="12" t="s">
+      <c r="BX15" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="CA15" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CB15" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="CB15" s="12" t="s">
+      <c r="CD15" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>650</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>651</v>
-      </c>
       <c r="S16" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="T16" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="V16" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BV16" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="BV16" s="12" t="s">
+      <c r="BW16" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="BW16" s="12" t="s">
+      <c r="BX16" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="BX16" s="1" t="s">
+      <c r="CA16" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CB16" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="CB16" s="12" t="s">
+      <c r="CC16" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="CC16" s="12" t="s">
+      <c r="CD16" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="S17" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="U17" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="V17" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4937,190 +4938,190 @@
       <c r="AX17" s="17"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="BV17" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="BV17" s="12" t="s">
+      <c r="BX17" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CA17" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CB17" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="CB17" s="12" t="s">
+      <c r="CD17" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T18" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="BV18" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="BV18" s="12" t="s">
+      <c r="BX18" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CA18" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="CB18" s="12" t="s">
+      <c r="CD18" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="BV19" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="BV19" s="12" t="s">
+      <c r="BX19" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CA19" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="CB19" s="12" t="s">
+      <c r="CD19" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>644</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>645</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BV20" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="BV20" s="12" t="s">
+      <c r="BX20" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="CB20" s="13" t="s">
+      <c r="CD20" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>647</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>648</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="BV21" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="BV21" s="12" t="s">
+      <c r="BX21" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CA21" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="CB21" s="12" t="s">
+      <c r="CC21" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="CC21" s="12" t="s">
+      <c r="CD21" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="V22" s="20" t="s">
         <v>658</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>659</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="BV22" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="BV22" s="12" t="s">
+      <c r="BX22" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CA22" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="CB22" s="12" t="s">
+      <c r="CD22" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
@@ -5129,25 +5130,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="BV23" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="BV23" s="12" t="s">
+      <c r="BX23" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CA23" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="CB23" s="12" t="s">
+      <c r="CC23" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="CC23" s="12" t="s">
+      <c r="CD23" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -5156,22 +5157,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="BV24" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="BV24" s="12" t="s">
+      <c r="BX24" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CA24" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="CB24" s="12" t="s">
+      <c r="CD24" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -5180,65 +5181,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BV25" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="BV25" s="15" t="s">
+      <c r="BX25" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="CB25" s="12" t="s">
+      <c r="CD25" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="BV26" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="BV26" s="12" t="s">
+      <c r="BX26" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="BX26" s="1" t="s">
+      <c r="CA26" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="CA26" s="1" t="s">
+      <c r="CB26" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="CB26" s="12" t="s">
+      <c r="CC26" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="CC26" s="12" t="s">
+      <c r="CD26" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="BV27" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="BV27" s="12" t="s">
+      <c r="BX27" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="BX27" s="1" t="s">
+      <c r="CA27" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="CA27" s="1" t="s">
+      <c r="CB27" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="CB27" s="12" t="s">
+      <c r="CD27" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>65</v>
@@ -5246,115 +5247,115 @@
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="BV28" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="BV28" s="12" t="s">
+      <c r="BX28" t="s">
         <v>603</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="CA28" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="CA28" s="1" t="s">
+      <c r="CB28" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="CB28" s="12" t="s">
+      <c r="CC28" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="CC28" s="12" t="s">
+      <c r="CD28" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="BV29" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="BV29" s="12" t="s">
+      <c r="BW29" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="BW29" s="12" t="s">
+      <c r="BX29" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="BX29" s="1" t="s">
+      <c r="CA29" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="CA29" s="1" t="s">
+      <c r="CB29" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="CB29" s="12" t="s">
-        <v>614</v>
-      </c>
       <c r="CD29" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="BV30" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="BX30" s="20" t="s">
         <v>671</v>
       </c>
-      <c r="BV30" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="BX30" s="20" t="s">
-        <v>672</v>
-      </c>
       <c r="CA30" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="CB30" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="CB30" s="12" t="s">
-        <v>616</v>
-      </c>
       <c r="CD30" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="CB31" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="CB31" s="10" t="s">
+      <c r="CD31" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="CD31" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="CB32" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="CB32" s="12" t="s">
+      <c r="CD32" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="CD32" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="CB33" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="CB33" s="13" t="s">
+      <c r="CC33" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="CC33" s="12" t="s">
+      <c r="CD33" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="CD33" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="CB34" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="CB34" s="12" t="s">
+      <c r="CD34" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07655046-669F-401F-8B82-B7B8A392C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3990AB-0307-4C75-938F-8700E72DADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1455" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1951,10 +1951,6 @@
   </si>
   <si>
     <t>onclick="test4()"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://fby.pages.dev</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2225,6 +2221,10 @@
   </si>
   <si>
     <t>国内免费版本ChatGpt—&lt;i  style="color:#e67c86"&gt;b站: 小海疼来啦&lt;/i&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fby.atwebpages.com</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2727,7 +2727,7 @@
   <dimension ref="A1:CQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2759,7 +2759,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>638</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>639</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -3168,7 +3168,7 @@
         <v>49</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>50</v>
@@ -4096,13 +4096,13 @@
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="AT8" s="20" t="s">
         <v>653</v>
-      </c>
-      <c r="AR8" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="AT8" s="20" t="s">
-        <v>654</v>
       </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
@@ -4163,7 +4163,7 @@
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>291</v>
@@ -4184,7 +4184,7 @@
         <v>328</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>329</v>
@@ -4281,14 +4281,14 @@
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E10" s="20"/>
       <c r="G10" s="1" t="s">
@@ -4391,14 +4391,14 @@
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>386</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="13" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>384</v>
@@ -4702,13 +4702,13 @@
         <v>472</v>
       </c>
       <c r="CG13" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="CH13" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="CJ13" s="20" t="s">
         <v>661</v>
-      </c>
-      <c r="CH13" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="CJ13" s="20" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>447</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>448</v>
@@ -4872,13 +4872,13 @@
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>649</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>650</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>515</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>536</v>
@@ -4991,13 +4991,13 @@
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
@@ -5024,13 +5024,13 @@
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="V20" s="20" t="s">
         <v>643</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>644</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
@@ -5057,13 +5057,13 @@
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>646</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>647</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
@@ -5093,13 +5093,13 @@
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="V22" s="20" t="s">
         <v>657</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>658</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
@@ -5293,13 +5293,13 @@
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="BV30" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="BX30" s="20" t="s">
         <v>670</v>
-      </c>
-      <c r="BV30" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="BX30" s="20" t="s">
-        <v>671</v>
       </c>
       <c r="CA30" s="1" t="s">
         <v>614</v>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3990AB-0307-4C75-938F-8700E72DADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80FAC06-6A2E-4894-A51E-1CCF33F8173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1455" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="1800" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="680">
   <si>
     <t>nice</t>
   </si>
@@ -2225,6 +2225,18 @@
   </si>
   <si>
     <t>http://fby.atwebpages.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sharezm.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>希尔桌面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一款在线的共享桌面</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2726,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4919,7 +4931,15 @@
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>679</v>
+      </c>
       <c r="S17" s="1" t="s">
         <v>526</v>
       </c>
@@ -5634,8 +5654,9 @@
     <hyperlink ref="CH13" r:id="rId271" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
     <hyperlink ref="BV30" r:id="rId272" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
     <hyperlink ref="B10" r:id="rId273" xr:uid="{BB972F06-88F1-41A8-B7FC-1B64E8CFC189}"/>
+    <hyperlink ref="B17" r:id="rId274" xr:uid="{E70CF620-8B0D-47D8-8858-6B0281F60D63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId274"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80FAC06-6A2E-4894-A51E-1CCF33F8173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF32974-DCB2-44F3-A703-50DC82C5F487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1800" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="684">
   <si>
     <t>nice</t>
   </si>
@@ -2237,6 +2237,22 @@
   </si>
   <si>
     <t>一款在线的共享桌面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费中文字体收集计划</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集自互联网公开信息，由doyoudo.com的展哥维护，如有信息错误或推荐收录，请联系B站、即刻：@展哥更新了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://flowus.cn/share/12828fe3-8806-4350-bfbe-4fc1d032e5db#b767fbea-6aa4-41ce-beea-afddf1e0cf5e</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230806/612647991352705024.svg</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2736,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ34"/>
+  <dimension ref="A1:CQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="BS14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="CC27" sqref="CC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5252,17 +5268,17 @@
       <c r="BX27" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="CA27" s="1" t="s">
-        <v>598</v>
+      <c r="CA27" s="20" t="s">
+        <v>680</v>
       </c>
       <c r="CB27" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="CE27" s="1" t="s">
-        <v>65</v>
+        <v>682</v>
+      </c>
+      <c r="CC27" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="CD27" s="20" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
@@ -5276,16 +5292,16 @@
         <v>603</v>
       </c>
       <c r="CA28" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="CB28" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="CC28" s="12" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
+      </c>
+      <c r="CE28" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
@@ -5302,10 +5318,13 @@
         <v>611</v>
       </c>
       <c r="CA29" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="CB29" s="12" t="s">
-        <v>613</v>
+        <v>605</v>
+      </c>
+      <c r="CC29" s="12" t="s">
+        <v>606</v>
       </c>
       <c r="CD29" s="1" t="s">
         <v>607</v>
@@ -5322,10 +5341,10 @@
         <v>670</v>
       </c>
       <c r="CA30" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="CB30" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="CD30" s="1" t="s">
         <v>607</v>
@@ -5333,48 +5352,59 @@
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="CB31" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
+      </c>
+      <c r="CB31" s="12" t="s">
+        <v>615</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="CB32" s="12" t="s">
-        <v>620</v>
+        <v>616</v>
+      </c>
+      <c r="CB32" s="10" t="s">
+        <v>617</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="CB33" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="CC33" s="12" t="s">
-        <v>624</v>
+        <v>619</v>
+      </c>
+      <c r="CB33" s="12" t="s">
+        <v>620</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="CB34" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="CC34" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="CD34" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="35" spans="79:82" x14ac:dyDescent="0.2">
+      <c r="CA35" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="CB34" s="12" t="s">
+      <c r="CB35" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="CD34" s="1" t="s">
+      <c r="CD35" s="1" t="s">
         <v>628</v>
       </c>
     </row>
@@ -5543,12 +5573,12 @@
     <hyperlink ref="CB24" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
     <hyperlink ref="CB25" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
     <hyperlink ref="CB26" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB27" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB28" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB29" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB30" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB31" r:id="rId167" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB32" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CB28" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB29" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB30" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB31" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB32" r:id="rId167" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB33" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="CH3" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
     <hyperlink ref="CH4" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
     <hyperlink ref="CH5" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
@@ -5592,7 +5622,7 @@
     <hyperlink ref="CC6" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
     <hyperlink ref="CC16" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
     <hyperlink ref="CC13" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC28" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC29" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
     <hyperlink ref="CC21" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
     <hyperlink ref="CC26" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
     <hyperlink ref="CC23" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
@@ -5611,15 +5641,15 @@
     <hyperlink ref="H13" r:id="rId228" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="I13" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
     <hyperlink ref="B13" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="CB33" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC33" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="CB34" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC34" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
     <hyperlink ref="B14" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
     <hyperlink ref="CB10" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="Z7" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
     <hyperlink ref="CB12" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
     <hyperlink ref="CB11" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
     <hyperlink ref="H14" r:id="rId238" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB34" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="CB35" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
     <hyperlink ref="AR5" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
     <hyperlink ref="AT5" r:id="rId241" tooltip="https://c4dco.com/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
     <hyperlink ref="AR6" r:id="rId242" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
@@ -5655,8 +5685,10 @@
     <hyperlink ref="BV30" r:id="rId272" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
     <hyperlink ref="B10" r:id="rId273" xr:uid="{BB972F06-88F1-41A8-B7FC-1B64E8CFC189}"/>
     <hyperlink ref="B17" r:id="rId274" xr:uid="{E70CF620-8B0D-47D8-8858-6B0281F60D63}"/>
+    <hyperlink ref="CB27" r:id="rId275" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
+    <hyperlink ref="CC27" r:id="rId276" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId277"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF32974-DCB2-44F3-A703-50DC82C5F487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CCF49-EF70-4628-957F-CF9596B2535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2755,7 +2755,7 @@
   <dimension ref="A1:CQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BS14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="CC27" sqref="CC27"/>
+      <selection activeCell="CC18" sqref="CC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CCF49-EF70-4628-957F-CF9596B2535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7325BA4-14D5-4829-B576-286EACE26AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="682">
   <si>
     <t>nice</t>
   </si>
@@ -143,12 +143,6 @@
     <t>http://www.addog.vip</t>
   </si>
   <si>
-    <t>https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png</t>
-  </si>
-  <si>
-    <t>👍广告人的网址导航</t>
-  </si>
-  <si>
     <t>tj</t>
   </si>
   <si>
@@ -302,18 +296,6 @@
     <t>👍毕业论文资源,文献综述,文献综述模板,毕业论文降重,论文降重,毕业论文任务书</t>
   </si>
   <si>
-    <t>免费主机</t>
-  </si>
-  <si>
-    <t>http://www.freehost.cc</t>
-  </si>
-  <si>
-    <t>免费、免备案的海外虚拟主机空间,是初期建站学习的最佳选择。</t>
-  </si>
-  <si>
-    <t>freehostcc</t>
-  </si>
-  <si>
     <t>影视森林</t>
   </si>
   <si>
@@ -551,9 +533,6 @@
     <t>https://c4dco.com</t>
   </si>
   <si>
-    <t>一酷C4D - 一酷让设计更酷一下，免费C4D资源网站下载！ (c4dco.com)</t>
-  </si>
-  <si>
     <t>万兴喵影</t>
   </si>
   <si>
@@ -695,9 +674,6 @@
     <t>http://cgka3d.com</t>
   </si>
   <si>
-    <t>CG咖 - 精选全网 Blender插件 | 3D模型 | 预设等优质CG资源 (cgka3d.com)</t>
-  </si>
-  <si>
     <t>【虚幻4】</t>
   </si>
   <si>
@@ -833,9 +809,6 @@
     <t>https://c4dsky.com</t>
   </si>
   <si>
-    <t>C4DSKY|书生 AE模板 FCPX插件 CG教程 CG插件 CG软件 CG素材 CG论坛 免费下载</t>
-  </si>
-  <si>
     <t>Adobe全家桶（不限速下载）</t>
   </si>
   <si>
@@ -959,9 +932,6 @@
     <t>https://aicolors.co</t>
   </si>
   <si>
-    <t>👍ai配色，UI手机app配色，pc软件配色</t>
-  </si>
-  <si>
     <t>浏览器扩展插件商店</t>
   </si>
   <si>
@@ -1460,9 +1430,6 @@
     <t>https://www.paperok.com</t>
   </si>
   <si>
-    <t>PaperOK论文查重 - 专注免费论文查重，论文查重免费，不限类型</t>
-  </si>
-  <si>
     <t>Spline (中文版前+cn.)</t>
   </si>
   <si>
@@ -1496,9 +1463,6 @@
     <t>https://www.newcger.com</t>
   </si>
   <si>
-    <t>新CG儿 - 数字视觉分享平台 | AE模板_视频素材_免费下载 (newcger.com)</t>
-  </si>
-  <si>
     <t>滚动截屏</t>
   </si>
   <si>
@@ -1842,9 +1806,6 @@
   </si>
   <si>
     <t>https://www.67tool.com</t>
-  </si>
-  <si>
-    <t>即时工具-致力打造即用即走型在线工具箱 (67tool.com)</t>
   </si>
   <si>
     <t>猫啃网(免费字体)</t>
@@ -2110,10 +2071,6 @@
       </rPr>
       <t>网站</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aust001.pythonanywhere.com</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2255,12 +2212,166 @@
     <t>https://cdn.h5ds.com/space/files/600972551685382144/20230806/612647991352705024.svg</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.kkdaxue.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🏫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>框框大学</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现各专业前辈们的学习建议</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat-shared2.zhile.io/shared.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配色，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配色，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软件配色</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新CG儿 - 数字视觉分享平台 | AE模板_视频素材_免费下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一酷C4D - 一酷让设计更酷一下，免费C4D资源网站下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CG咖 - 精选全网 Blender插件 | 3D模型 | 预设等优质CG资源 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4DSKY|书生 AE模板 FCPX插件 CG教程 CG插件 CG软件 CG素材 CG论坛 免费下载</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意星球 - 学院奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时工具-致力打造即用即走型在线工具箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaperOK论文查重 - 专注免费论文查重，论文查重免费，不限类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,6 +2485,26 @@
       <name val="Calibri"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2406,7 +2537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2474,6 +2605,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2754,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="CC18" sqref="CC18"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="CM13" sqref="CM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2787,7 +2924,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2796,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>2</v>
@@ -2808,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>4</v>
@@ -3153,416 +3290,409 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K3" s="8"/>
       <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="T3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="Z3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AN3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AT3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="20" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="20" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BB3" s="3"/>
       <c r="BC3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BF3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BG3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BK3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BL3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="BK3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="BN3" s="4"/>
       <c r="BO3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BP3" s="12" t="s">
+      <c r="BR3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BQ3" s="12" t="s">
+      <c r="BU3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BV3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BV3" s="12" t="s">
+      <c r="CA3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CB3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CC3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CB3" s="12" t="s">
+      <c r="CD3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CC3" s="12" t="s">
+      <c r="CG3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CH3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="CM3" s="1" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="CN3" s="12" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="CP3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="G4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K4" s="8"/>
       <c r="M4" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="S4" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AC4" s="9"/>
       <c r="AE4" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AG4" s="9"/>
       <c r="AH4" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AO4" s="9"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AS4" s="9"/>
       <c r="AT4" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AU4" s="9"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BA4" s="9"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BK4" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BL4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BP4" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BJ4" s="12" t="s">
+      <c r="BU4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BV4" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BX4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BY4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BP4" s="12" t="s">
+      <c r="CA4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="CB4" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="CD4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BV4" s="12" t="s">
+      <c r="CG4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="CH4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="CA4" s="1" t="s">
+      <c r="CM4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CB4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CN4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="CP4" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN4" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K5" s="8"/>
       <c r="M5" s="1" t="s">
@@ -3572,1401 +3702,1392 @@
         <v>35</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="S5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="AF5" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AL5" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AR5" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>676</v>
       </c>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AX5" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="BD5" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="BE5" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="BJ5" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="BK5" s="12"/>
       <c r="BL5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="CB5" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="BP5" s="12" t="s">
+      <c r="CC5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="CG5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="CH5" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="BV5" s="12" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB5" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CH5" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN5" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="CP5" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K6" s="8"/>
       <c r="M6" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="S6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG6" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AR6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="AT6" s="24" t="s">
+        <v>677</v>
       </c>
       <c r="AV6" s="3"/>
       <c r="AW6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AX6" s="12" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AY6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BI6" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="BJ6" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BK6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP6" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="BD6" s="12" t="s">
+      <c r="BR6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE6" s="12" t="s">
+      <c r="BU6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BV6" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BX6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BJ6" s="12" t="s">
+      <c r="CA6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BK6" s="12" t="s">
+      <c r="CB6" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BO6" s="1" t="s">
+      <c r="CC6" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="BP6" s="13" t="s">
+      <c r="CD6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BR6" s="1" t="s">
+      <c r="CG6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BU6" s="1" t="s">
+      <c r="CH6" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="BV6" s="12" t="s">
+      <c r="CJ6" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CB6" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="CC6" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CH6" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K7" s="8"/>
       <c r="M7" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="S7" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="W7" s="9"/>
       <c r="Y7" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AF7" s="12" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AL7" s="12" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AR7" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>266</v>
+        <v>257</v>
+      </c>
+      <c r="AT7" s="24" t="s">
+        <v>678</v>
       </c>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AX7" s="12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AY7" s="12" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="BK7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BP7" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BR7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BU7" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BV7" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BX7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="CA7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="CB7" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="CD7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BL7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BO7" s="1" t="s">
+      <c r="CG7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BP7" s="12" t="s">
+      <c r="CH7" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="BR7" s="1" t="s">
+      <c r="CJ7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BU7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BV7" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CB7" s="13" t="s">
+    </row>
+    <row r="8" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="CD7" s="1" t="s">
+      <c r="H8" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="CG7" s="1" t="s">
+      <c r="I8" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="J8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CJ7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="N8" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="S8" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>308</v>
+        <v>298</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>674</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="20" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AT8" s="20" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AX8" s="12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AY8" s="12" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BD8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE8" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BV8" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="BW8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="CB8" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="CD8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BD8" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE8" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="BV8" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="BW8" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CA8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CB8" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="CG8" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="CH8" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="P9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="S9" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AX9" s="12" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AY9" s="12" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="BD9" s="12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="BE9" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="BV9" s="12" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="CB9" s="12" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="CH9" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="20" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="E10" s="20"/>
       <c r="G10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="AE10" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="AF10" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="AX10" s="12" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="BD10" s="12" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="BE10" s="12" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="BV10" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="CB10" s="13" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="CH10" s="13" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="20" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE11" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="AH11" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="AI11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="AX11" s="12" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="BD11" s="12" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="BE11" s="12" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="BV11" s="12" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="CB11" s="12" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="CH11" s="12" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="AE12" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="AF12" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="AX12" s="12" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="BD12" s="12" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="BE12" s="12" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="BV12" s="12" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="CB12" s="12" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="CG12" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="CH12" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>475</v>
+        <v>464</v>
+      </c>
+      <c r="CJ12" s="24" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:95" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF13" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="AH13" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AX13" s="15" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="BE13" s="12" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="BV13" s="12" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="CB13" s="12" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="CC13" s="12" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="CG13" s="20" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="CH13" s="12" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="CJ13" s="20" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AF14" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>487</v>
+        <v>475</v>
+      </c>
+      <c r="AH14" s="24" t="s">
+        <v>675</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="AX14" s="12" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="AY14" s="12" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="BD14" s="12" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="BE14" s="12" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="BV14" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="BW14" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="CB14" s="12" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="CC14" s="13" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="AX15" s="12" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="BV15" s="12" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="CB15" s="12" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="BV16" s="12" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="BW16" s="12" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="CB16" s="12" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="CC16" s="12" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4974,190 +5095,190 @@
       <c r="AX17" s="17"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="BV17" s="12" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="CB17" s="12" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="20" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="BV18" s="12" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="CB18" s="12" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S19" s="21" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="19" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BV19" s="12" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="CB19" s="12" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="21" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="BV20" s="12" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="CB20" s="13" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="20" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="BV21" s="12" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="CB21" s="12" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="CC21" s="12" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="20" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="BV22" s="12" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="CB22" s="12" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
@@ -5166,25 +5287,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="BV23" s="12" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="CB23" s="12" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="CC23" s="12" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -5193,22 +5314,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="BV24" s="12" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="CB24" s="12" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -5217,478 +5338,469 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="BV25" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="CB25" s="12" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="BV26" s="12" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="CB26" s="12" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="CC26" s="12" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="BV27" s="12" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="CA27" s="20" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="CB27" s="12" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="CC27" s="12" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="CD27" s="20" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="BV28" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="BX28" t="s">
-        <v>603</v>
+        <v>590</v>
+      </c>
+      <c r="BX28" s="24" t="s">
+        <v>680</v>
       </c>
       <c r="CA28" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="CB28" s="12" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="CE28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="1" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="BV29" s="12" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="BW29" s="12" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="BX29" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="CA29" s="1" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="CB29" s="12" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="CC29" s="12" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="20" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="BV30" s="12" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="BX30" s="20" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="CA30" s="1" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="CB30" s="12" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="1" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="CB31" s="12" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="1" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="CB32" s="10" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA33" s="1" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="CB33" s="12" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA34" s="1" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="CB34" s="13" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="CC34" s="12" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="79:82" x14ac:dyDescent="0.2">
       <c r="CA35" s="1" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="CB35" s="12" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="CD35" s="1" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" tooltip="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="https://ymck.me" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" tooltip="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N3" r:id="rId5" tooltip="http://hao.58pic.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O3" r:id="rId6" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N4" r:id="rId7" tooltip="http://nav.sbkko.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O4" r:id="rId8" tooltip="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="T6" r:id="rId9" tooltip="http://www.uigreat.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T7" r:id="rId10" tooltip="http://www.ui100day.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Z3" r:id="rId11" tooltip="http://color.uisdc.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Z4" r:id="rId12" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H3" r:id="rId13" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I3" r:id="rId14" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B8" r:id="rId17" tooltip="https://www.uy5.net/?aff=7168" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H12" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I6" r:id="rId31" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I10" r:id="rId35" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I12" r:id="rId36" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N5" r:id="rId37" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N6" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N7" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N8" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N9" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N12" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N13" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="N14" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="T8" r:id="rId47" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="O5" r:id="rId48" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O6" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O8" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="O7" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T3" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="T4" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="T5" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T9" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="T10" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="T11" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="T12" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="T13" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="T14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T16" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="T17" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="U9" r:id="rId64" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="T15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Z5" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="Z6" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AF3" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AF4" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AF5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AF6" r:id="rId71" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AF7" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AF8" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AF9" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AF10" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AF11" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AF12" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AL3" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AL4" r:id="rId79" location="/" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="AL5" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AL6" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AL7" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR3" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AX3" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AX4" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AX5" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AX6" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AX7" r:id="rId89" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AX8" r:id="rId90" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="AX9" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AX10" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AX11" r:id="rId93" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="BD3" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="BD4" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="BD5" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="BD6" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="BD7" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="BD8" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="BD9" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="BD10" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="BD11" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="BD12" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="BD13" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="BD14" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="BJ3" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="BJ4" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="BJ5" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="BJ6" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="BJ7" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="BP3" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="BP4" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="BP5" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="BP6" r:id="rId114" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="BP7" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="BV3" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="BV4" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="BV5" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="BV6" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="BV7" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="BV9" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="BV10" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="BV11" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="BV12" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="BV13" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="BV14" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="BV15" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="BV16" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="BV17" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="BV18" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="BV19" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="BV20" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="BV21" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="BV22" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="BV23" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="BV24" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="BV25" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="BV26" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="BV27" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="CN3" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="CN4" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="CN5" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="CB3" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="CB4" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="CB5" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="CB6" r:id="rId146" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="CB8" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="CB9" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="CB13" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="CB14" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="CB15" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="CB16" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="CB17" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="CB18" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="CB19" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="CB21" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="CB20" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="CB22" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="CB23" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="CB24" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="CB25" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="CB26" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB28" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB29" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB30" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB31" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB32" r:id="rId167" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB33" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="CH3" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="CH4" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="CH5" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="CH6" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="CH7" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="CH8" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="CH9" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="CH10" r:id="rId176" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="AM3" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="AM4" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="AS3" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="AY4" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="U10" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="U12" r:id="rId182" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="U17" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="AG6" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="AY6" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="AY7" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="AY8" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="AY9" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="BE14" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="BE12" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="BE13" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="BE10" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="BE3" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="BE4" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="BE5" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="BE6" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="BE7" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="BE8" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="BE9" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="BE11" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="BK4" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="BK3" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="BK6" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="BK7" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="BQ3" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="BW14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="CC3" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="CC5" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="CC6" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="CC16" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="CC13" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC29" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="CC21" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC26" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC23" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="BW16" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="AF13" r:id="rId217" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="BV8" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="BW8" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="AX12" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="AX13" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="AX14" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="AX15" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="AY14" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="CC14" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="T18" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="CB7" r:id="rId227" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H13" r:id="rId228" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="I13" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B13" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="CB34" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC34" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B14" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="CB10" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="Z7" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="CB12" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="CB11" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H14" r:id="rId238" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB35" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="AR5" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="AT5" r:id="rId241" tooltip="https://c4dco.com/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="AR6" r:id="rId242" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="AT6" r:id="rId243" tooltip="http://cgka3d.com/" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="AR7" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="AT7" r:id="rId245" tooltip="https://c4dsky.com/" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="BV28" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="BX28" r:id="rId247" tooltip="https://www.67tool.com/" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="Z8" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="AB8" r:id="rId249" tooltip="https://aicolors.co/" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="CH11" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="CH12" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="CJ12" r:id="rId252" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="AF14" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="AH14" r:id="rId254" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B15" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="BV29" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="BW29" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B11" r:id="rId258" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
-    <hyperlink ref="N15" r:id="rId259" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
-    <hyperlink ref="B3" r:id="rId260" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
-    <hyperlink ref="T19" r:id="rId261" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
-    <hyperlink ref="S19" r:id="rId262" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
-    <hyperlink ref="T20" r:id="rId263" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
-    <hyperlink ref="S20" r:id="rId264" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
-    <hyperlink ref="T21" r:id="rId265" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
-    <hyperlink ref="B16" r:id="rId266" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
-    <hyperlink ref="I11" r:id="rId267" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H11" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR8" r:id="rId269" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
-    <hyperlink ref="T22" r:id="rId270" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
-    <hyperlink ref="CH13" r:id="rId271" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
-    <hyperlink ref="BV30" r:id="rId272" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
-    <hyperlink ref="B10" r:id="rId273" xr:uid="{BB972F06-88F1-41A8-B7FC-1B64E8CFC189}"/>
-    <hyperlink ref="B17" r:id="rId274" xr:uid="{E70CF620-8B0D-47D8-8858-6B0281F60D63}"/>
-    <hyperlink ref="CB27" r:id="rId275" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
-    <hyperlink ref="CC27" r:id="rId276" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
+    <hyperlink ref="B5" r:id="rId1" tooltip="https://ymck.me" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId2" tooltip="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N3" r:id="rId3" tooltip="http://hao.58pic.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O3" r:id="rId4" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N4" r:id="rId5" tooltip="http://nav.sbkko.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O4" r:id="rId6" tooltip="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="T6" r:id="rId7" tooltip="http://www.uigreat.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T7" r:id="rId8" tooltip="http://www.ui100day.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Z3" r:id="rId9" tooltip="http://color.uisdc.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Z4" r:id="rId10" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H3" r:id="rId11" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I3" r:id="rId12" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B8" r:id="rId15" tooltip="https://www.uy5.net/?aff=7168" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I6" r:id="rId29" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I10" r:id="rId33" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I12" r:id="rId34" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N5" r:id="rId35" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N6" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N7" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N8" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N11" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N12" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N13" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="T8" r:id="rId45" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O5" r:id="rId46" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O6" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O9" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O8" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T3" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T4" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="T5" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T9" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="T10" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T11" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="T12" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T13" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="T14" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T16" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="T17" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="U9" r:id="rId62" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="T15" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Z5" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Z6" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AF3" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AF4" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AF5" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AF6" r:id="rId69" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AF7" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AF8" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AF9" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AF10" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AF11" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AF12" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AL3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AL4" r:id="rId77" location="/" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AL5" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AL6" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AL7" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR3" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AX3" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AX4" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AX5" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AX6" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AX7" r:id="rId87" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AX8" r:id="rId88" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AX9" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AX10" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AX11" r:id="rId91" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="BD3" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="BD4" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="BD5" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="BD6" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="BD7" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="BD8" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BD9" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="BD10" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="BD11" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="BD12" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="BD13" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="BD14" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BJ3" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="BJ4" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="BJ5" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="BJ6" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="BJ7" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="BP3" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="BP4" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="BP5" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="BP6" r:id="rId112" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="BP7" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="BV3" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="BV4" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="BV5" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="BV6" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="BV7" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="BV9" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="BV10" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BV11" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="BV12" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BV13" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="BV14" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="BV15" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="BV16" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BV17" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="BV18" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="BV19" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="BV20" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="BV21" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="BV22" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="BV23" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="BV24" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="BV25" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="BV26" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="BV27" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="CN3" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="CN4" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="CB3" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="CB4" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="CB5" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="CB6" r:id="rId143" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="CB8" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CB9" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CB13" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="CB14" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="CB15" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="CB16" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CB17" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CB18" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CB19" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="CB21" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="CB20" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="CB22" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB23" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB24" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB25" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB26" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB28" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB29" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB30" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB31" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB32" r:id="rId164" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB33" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CH3" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="CH4" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="CH5" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="CH6" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="CH7" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="CH8" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="CH9" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="CH10" r:id="rId173" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="AM3" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AM4" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="AS3" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="AY4" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="U10" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="U12" r:id="rId179" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="U17" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="AG6" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="AY6" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AY7" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="AY8" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="AY9" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="BE14" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="BE12" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="BE13" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="BE10" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="BE3" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="BE4" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="BE5" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="BE6" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="BE7" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="BE8" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="BE9" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="BE11" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="BK4" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="BK3" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="BK6" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="BK7" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="BQ3" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="BW14" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="CC3" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="CC5" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC6" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="CC16" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CC13" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC29" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC21" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC26" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC23" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="BW16" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="AF13" r:id="rId214" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="BV8" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="BW8" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="AX12" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="AX13" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="AX14" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="AX15" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="AY14" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="CC14" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="T18" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="CB7" r:id="rId224" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H13" r:id="rId225" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="I13" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B13" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="CB34" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC34" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B14" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="CB10" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="Z7" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="CB12" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB11" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H14" r:id="rId235" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="CB35" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="AR5" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="AR6" r:id="rId238" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="AR7" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="BV28" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="Z8" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="CH11" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="CH12" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="AF14" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B15" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="BV29" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="BW29" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B11" r:id="rId248" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
+    <hyperlink ref="N15" r:id="rId249" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="B3" r:id="rId250" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
+    <hyperlink ref="T19" r:id="rId251" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
+    <hyperlink ref="S19" r:id="rId252" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
+    <hyperlink ref="T20" r:id="rId253" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
+    <hyperlink ref="S20" r:id="rId254" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
+    <hyperlink ref="T21" r:id="rId255" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
+    <hyperlink ref="B16" r:id="rId256" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
+    <hyperlink ref="I11" r:id="rId257" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H11" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR8" r:id="rId259" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
+    <hyperlink ref="T22" r:id="rId260" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
+    <hyperlink ref="CH13" r:id="rId261" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
+    <hyperlink ref="BV30" r:id="rId262" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
+    <hyperlink ref="B10" r:id="rId263" xr:uid="{BB972F06-88F1-41A8-B7FC-1B64E8CFC189}"/>
+    <hyperlink ref="B17" r:id="rId264" xr:uid="{E70CF620-8B0D-47D8-8858-6B0281F60D63}"/>
+    <hyperlink ref="CB27" r:id="rId265" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
+    <hyperlink ref="CC27" r:id="rId266" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
+    <hyperlink ref="B4" r:id="rId267" xr:uid="{80B3429E-04FE-42FE-A360-12C29A1F0B55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId277"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId268"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2F5A01-D1F0-45FE-9301-C6BF518865DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF6AC2-0870-47CB-B4ED-2A167A5DF30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2145" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="701">
   <si>
     <t>nice</t>
   </si>
@@ -536,9 +536,6 @@
     <t>（付费）校内IP范围内免费 万方数据、论文、文献</t>
   </si>
   <si>
-    <t>https://dh.4everland.app</t>
-  </si>
-  <si>
     <t>Pixso</t>
   </si>
   <si>
@@ -777,9 +774,6 @@
   </si>
   <si>
     <t>https://airtap.io/w/xiadj</t>
-  </si>
-  <si>
-    <t>/favicon.ico</t>
   </si>
   <si>
     <t>Muzli Search</t>
@@ -2389,6 +2383,26 @@
   </si>
   <si>
     <t>一定存在只有你才能做到的事。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qcmoe.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCMoe网址导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术与科技的双重碰撞，也是设计系大学生制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/favicon.ico</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2889,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="BD17" sqref="BD17"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="CR4" sqref="CR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2922,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2931,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -2943,7 +2957,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -2986,7 +3000,7 @@
       </c>
       <c r="BB1" s="4"/>
       <c r="BC1" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3288,16 +3302,19 @@
     </row>
     <row r="3" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>35</v>
@@ -3312,10 +3329,10 @@
         <v>38</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>39</v>
@@ -3336,10 +3353,10 @@
         <v>44</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>45</v>
@@ -3370,13 +3387,13 @@
         <v>51</v>
       </c>
       <c r="AL3" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AM3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AO3" s="14"/>
       <c r="AP3" s="4"/>
@@ -3395,17 +3412,17 @@
       <c r="AU3" s="14"/>
       <c r="AV3" s="4"/>
       <c r="AW3" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AX3" s="12" t="s">
         <v>57</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="BA3" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="BB3" s="4"/>
       <c r="BC3" s="3" t="s">
@@ -3418,10 +3435,10 @@
         <v>60</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>61</v>
@@ -3479,30 +3496,37 @@
         <v>78</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CN3" s="11" t="s">
-        <v>125</v>
+        <v>697</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>126</v>
+        <v>699</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>697</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" s="14"/>
+        <v>699</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>652</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>80</v>
       </c>
@@ -3568,7 +3592,7 @@
         <v>143</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="3" t="s">
@@ -3607,10 +3631,10 @@
         <v>106</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>107</v>
@@ -3667,7 +3691,7 @@
         <v>124</v>
       </c>
       <c r="CN4" s="11" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="CP4" s="3" t="s">
         <v>126</v>
@@ -3675,16 +3699,14 @@
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>630</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="E5" s="14"/>
       <c r="G5" s="3" t="s">
@@ -3740,13 +3762,13 @@
       </c>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL5" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AN5" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="3" t="s">
@@ -3756,7 +3778,7 @@
         <v>145</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AV5" s="4"/>
       <c r="AW5" s="3" t="s">
@@ -3779,10 +3801,10 @@
         <v>151</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>152</v>
@@ -3833,103 +3855,104 @@
       <c r="CJ5" s="3" t="s">
         <v>166</v>
       </c>
+      <c r="CN5" s="11"/>
     </row>
     <row r="6" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>128</v>
+      <c r="A6" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>628</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>628</v>
+        <v>79</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Z6" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF6" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AH6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AH6" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="AI6" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AL6" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AN6" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR6" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AR6" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="AT6" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AV6" s="4"/>
       <c r="AW6" s="3" t="s">
@@ -3946,406 +3969,409 @@
       </c>
       <c r="BB6" s="4"/>
       <c r="BC6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD6" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BE6" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BF6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="BI6" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BP6" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BR6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BV6" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="BV6" s="11" t="s">
+      <c r="BX6" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="BX6" s="3" t="s">
+      <c r="CA6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="CA6" s="3" t="s">
+      <c r="CB6" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="CB6" s="11" t="s">
+      <c r="CC6" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="CG6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="CC6" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="CG6" s="3" t="s">
+      <c r="CH6" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="CH6" s="11" t="s">
+      <c r="CJ6" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="CJ6" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>74</v>
+      <c r="A7" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z7" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AB7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AH7" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AL7" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AN7" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AN7" s="3" t="s">
-        <v>680</v>
-      </c>
       <c r="AO7" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="AR7" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="AT7" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AV7" s="4"/>
       <c r="AW7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="AX7" s="11" t="s">
+      <c r="AY7" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AY7" s="11" t="s">
+      <c r="AZ7" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="BB7" s="4"/>
       <c r="BC7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD7" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BE7" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BF7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BK7" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BP7" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="BR7" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BV7" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="BV7" s="11" t="s">
+      <c r="BX7" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="BX7" s="3" t="s">
+      <c r="CA7" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="CB7" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="CA7" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="CB7" s="18" t="s">
+      <c r="CD7" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="CG7" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="CD7" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CH7" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="CH7" s="11" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>203</v>
+        <v>627</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>631</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>654</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="G8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="M8" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="N8" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="Y8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Z8" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AF8" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AR8" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AT8" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX8" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY8" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="AX8" s="11" t="s">
+      <c r="AZ8" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="AY8" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="BB8" s="4"/>
       <c r="BC8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD8" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE8" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BU8" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BF8" s="3" t="s">
+      <c r="BV8" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BU8" s="3" t="s">
+      <c r="BW8" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="BX8" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BW8" s="11" t="s">
+      <c r="CA8" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BX8" s="3" t="s">
+      <c r="CB8" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="CA8" s="3" t="s">
+      <c r="CD8" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CB8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="CD8" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="CG8" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CH8" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" s="18"/>
+        <v>610</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>629</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>667</v>
+        <v>622</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>72</v>
@@ -4360,770 +4386,780 @@
         <v>75</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="U9" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="AE9" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AF9" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AL9" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AN9" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="AP9" s="4"/>
       <c r="AV9" s="4"/>
       <c r="AW9" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX9" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY9" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="AX9" s="11" t="s">
+      <c r="AZ9" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AY9" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="BA9" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="BB9" s="4"/>
       <c r="BC9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="BD9" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="BE9" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BU9" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BX9" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="CA9" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="BX9" s="3" t="s">
+      <c r="CB9" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="CA9" s="3" t="s">
+      <c r="CD9" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="CB9" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="CD9" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>592</v>
+      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="M10" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="P10" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="U10" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="AE10" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AF10" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="AF10" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AL10" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AN10" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="AP10" s="4"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX10" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="BB10" s="4"/>
       <c r="BC10" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BD10" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="BE10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="BU10" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="BF10" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="BU10" s="3" t="s">
+      <c r="BV10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX10" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="CA10" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="CB10" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="BX10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="CA10" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>330</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="CG10" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CH10" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CJ10" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="CH10" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:95" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>657</v>
+        <v>586</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="J11" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="M11" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="S11" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="AE11" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AF11" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="AE11" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>343</v>
-      </c>
       <c r="AH11" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AJ11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AX11" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="BB11" s="4"/>
       <c r="BC11" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="BE11" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="BE11" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="BV11" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="BX11" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="CA11" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="BX11" s="3" t="s">
+      <c r="CB11" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="CA11" s="3" t="s">
+      <c r="CD11" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="CB11" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="CD11" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="CG11" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CH11" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>331</v>
+        <v>207</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>332</v>
+        <v>305</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="J12" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="M12" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="N12" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="S12" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="U12" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="T12" s="11" t="s">
+      <c r="V12" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="AF12" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="AJ12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AZ12" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="BB12" s="4"/>
       <c r="BC12" s="24" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="BD12" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="BF12" s="3" t="s">
-        <v>693</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="BV12" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="BX12" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="CA12" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="BX12" s="3" t="s">
+      <c r="CB12" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="CA12" s="3" t="s">
+      <c r="CD12" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="CB12" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="CD12" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="CG12" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="CH12" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="CJ12" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="CJ12" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>357</v>
+        <v>640</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>623</v>
+        <v>330</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="K13" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="N13" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>80</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE13" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AF13" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="AJ13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX13" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="AX13" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="AZ13" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="BB13" s="4"/>
       <c r="BC13" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="BD13" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="BE13" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF13" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="BE13" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="BF13" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="BU13" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="BV13" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="CA13" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="BV13" s="11" t="s">
+      <c r="CB13" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="BX13" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="CA13" s="3" t="s">
+      <c r="CC13" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="CB13" s="11" t="s">
+      <c r="CD13" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="CC13" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>593</v>
+        <v>356</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="T14" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="AE14" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="AF14" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>418</v>
-      </c>
       <c r="AH14" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX14" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="AY14" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="AX14" s="11" t="s">
+      <c r="AZ14" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="AY14" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="BB14" s="4"/>
       <c r="BC14" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BD14" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE14" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF14" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="BE14" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="BV14" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="BW14" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="BX14" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="CA14" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BW14" s="11" t="s">
+      <c r="CB14" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="BX14" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="CA14" s="3" t="s">
+      <c r="CC14" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="CB14" s="11" t="s">
+      <c r="CD14" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="CC14" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>574</v>
+        <v>384</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>657</v>
-      </c>
       <c r="AE15" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AF15" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH15" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="AH15" s="3" t="s">
-        <v>670</v>
-      </c>
       <c r="AI15" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AJ15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="AX15" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="BB15" s="4"/>
       <c r="BC15" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="BD15" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF15" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="BE15" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="BG15" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="BU15" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="BV15" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="BX15" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="BV15" s="11" t="s">
+      <c r="BY15" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="CA15" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="BX15" s="3" t="s">
+      <c r="CB15" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="BY15" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="CA15" s="3" t="s">
+      <c r="CD15" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="CB15" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="AJ16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="BB16" s="4"/>
       <c r="BU16" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="BV16" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="BW16" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="BX16" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="BW16" s="11" t="s">
+      <c r="CA16" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="BX16" s="3" t="s">
+      <c r="CB16" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="CA16" s="3" t="s">
+      <c r="CC16" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="CB16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="CC16" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>650</v>
+      </c>
       <c r="S17" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="U17" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="V17" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="AJ17" s="4"/>
       <c r="AP17" s="4"/>
@@ -5131,209 +5167,209 @@
       <c r="AX17" s="19"/>
       <c r="BB17" s="4"/>
       <c r="BU17" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="BV17" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="BX17" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="CA17" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="BX17" s="3" t="s">
+      <c r="CB17" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="CA17" s="3" t="s">
+      <c r="CD17" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="CB17" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="CD17" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AJ18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AV18" s="4"/>
       <c r="BB18" s="4"/>
       <c r="BU18" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="BV18" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="BX18" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="CA18" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="BX18" s="3" t="s">
+      <c r="CB18" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="CA18" s="3" t="s">
+      <c r="CD18" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="CB18" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AJ19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AV19" s="4"/>
       <c r="BB19" s="4"/>
       <c r="BU19" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="BV19" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="BX19" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="CA19" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="BX19" s="3" t="s">
+      <c r="CB19" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="CA19" s="3" t="s">
+      <c r="CD19" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="CB19" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="T20" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="AJ20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AV20" s="4"/>
       <c r="BB20" s="4"/>
       <c r="BU20" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="BV20" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="BX20" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BV20" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="BX20" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="CA20" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="CB20" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="CD20" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="CD20" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T21" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="AJ21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AV21" s="4"/>
       <c r="BB21" s="4"/>
       <c r="BU21" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="BV21" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="BX21" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="BV21" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="BX21" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="BY21" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="CA21" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="CB21" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="CD21" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="CB21" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="CD21" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="CE21" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AV22" s="4"/>
       <c r="BB22" s="4"/>
       <c r="BU22" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="BV22" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="BX22" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="BV22" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="BX22" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="CA22" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="CB22" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="CC22" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="CB22" s="11" t="s">
+      <c r="CD22" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="CC22" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
@@ -5342,22 +5378,22 @@
       <c r="AV23" s="4"/>
       <c r="BB23" s="4"/>
       <c r="BU23" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="BV23" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="BX23" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="BV23" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="BX23" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="CA23" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="CB23" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="CD23" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="CB23" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -5366,25 +5402,25 @@
       <c r="AV24" s="4"/>
       <c r="BB24" s="4"/>
       <c r="BU24" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BV24" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="BX24" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="BV24" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="BX24" s="3" t="s">
-        <v>507</v>
-      </c>
       <c r="CA24" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="CB24" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="CC24" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="CB24" s="11" t="s">
+      <c r="CD24" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="CC24" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -5393,486 +5429,488 @@
       <c r="AV25" s="4"/>
       <c r="BB25" s="4"/>
       <c r="BU25" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="BV25" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="BX25" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="BV25" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="BX25" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="CA25" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="CB25" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="CD25" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="CB25" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="BV26" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="BX26" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="BV26" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="BX26" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="CA26" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="CB26" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="CD26" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="CB26" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="CD26" s="3" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="BV27" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="BX27" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="BV27" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="BX27" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="CA27" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="CB27" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC27" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="CB27" s="11" t="s">
+      <c r="CD27" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="CC27" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="CD27" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BV28" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="CA28" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="CB28" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="CB28" s="11" t="s">
-        <v>601</v>
-      </c>
       <c r="CC28" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="CD28" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="CE28" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BV29" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="BW29" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="BV29" s="11" t="s">
+      <c r="BX29" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="BW29" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="BX29" s="3" t="s">
-        <v>539</v>
-      </c>
       <c r="CA29" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="CB29" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD29" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="CB29" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="CD29" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="BV30" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX30" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="BX30" s="3" t="s">
-        <v>592</v>
-      </c>
       <c r="CA30" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="CB30" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="CC30" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="CB30" s="11" t="s">
+      <c r="CD30" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="CC30" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="CD30" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="CB31" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="CD31" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="CB32" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="CD32" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="CB33" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="CD33" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="CB33" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="CB34" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="CD34" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="CB34" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="CD34" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="35" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA35" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="CB35" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="CC35" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="CB35" s="18" t="s">
+      <c r="CD35" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="CC35" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="CD35" s="3" t="s">
-        <v>553</v>
-      </c>
       <c r="CE35" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="CB36" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="CD36" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="CB36" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="CD36" s="3" t="s">
-        <v>556</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N3" r:id="rId3" tooltip="http://hao.58pic.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O3" r:id="rId4" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N4" r:id="rId5" tooltip="http://nav.sbkko.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O4" r:id="rId6" tooltip="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="T6" r:id="rId7" tooltip="http://www.uigreat.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T7" r:id="rId8" tooltip="http://www.ui100day.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Z3" r:id="rId9" tooltip="http://color.uisdc.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Z4" r:id="rId10" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H3" r:id="rId11" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I3" r:id="rId12" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B8" r:id="rId15" tooltip="https://www.uy5.net/?aff=7168" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I6" r:id="rId29" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I10" r:id="rId33" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I12" r:id="rId34" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N5" r:id="rId35" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N6" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N7" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N8" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N11" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N12" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N13" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="T8" r:id="rId44" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="O5" r:id="rId45" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O6" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="O7" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T3" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="T4" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="T5" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T9" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="T10" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="T11" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="T12" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="T13" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="T14" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T16" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="T17" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="U9" r:id="rId61" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="T15" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Z5" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="Z6" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AF3" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AF4" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AF5" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AF6" r:id="rId68" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AF7" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AF8" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AF9" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AF10" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AF11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AF12" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AL3" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AL4" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AL5" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR3" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AX3" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AX4" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AX5" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AX6" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AX7" r:id="rId84" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AX8" r:id="rId85" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="AX9" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AX10" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AX11" r:id="rId88" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="BD3" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="BD4" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="BD5" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="BD6" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="BD7" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="BD8" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="BD9" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="BD15" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="BD13" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="BD14" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="BD10" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="BD11" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="BJ3" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="BJ4" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="BJ5" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="BJ6" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="BJ7" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="BP3" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="BP4" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="BP5" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="BP6" r:id="rId109" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="BP7" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="BV3" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="BV4" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="BV5" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="BV6" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="BV7" r:id="rId115" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="BV9" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="BV10" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="BV11" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="BV12" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="BV13" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="BV14" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="BV15" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="BV16" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="BV17" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="BV18" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="BV19" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="BV20" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="BV21" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="BV22" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="BV23" r:id="rId130" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="BV24" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="BV25" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="BV26" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="BV27" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="CN3" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="CN4" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="CB3" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="CB4" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="CB5" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="CB6" r:id="rId140" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="CB8" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="CB9" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="CB13" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="CB14" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="CB15" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="CB16" r:id="rId146" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="CB17" r:id="rId147" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="CB18" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="CB19" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="CB22" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="CB21" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="CB23" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="CB24" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="CB25" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="CB26" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="CB27" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB29" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB30" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB31" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB32" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB33" r:id="rId161" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB34" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="CH3" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="CH4" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="CH5" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="CH6" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="CH7" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="CH8" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="CH9" r:id="rId169" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="AM3" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="AS3" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="AY4" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="U10" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="U12" r:id="rId174" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="U17" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="AG6" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="AY6" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="AY7" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="AY8" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="AY9" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="BE11" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="BE14" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="BE10" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="BE15" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="BE3" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="BE4" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="BE5" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="BE6" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="BE7" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="BE8" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="BE9" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="BE13" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="BK4" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="BK3" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="BK6" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="BK7" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="BQ3" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="BW14" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="CC3" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="CC5" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="CC6" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="CC16" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="CC13" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC30" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="CC22" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC27" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC24" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="BW16" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="AF13" r:id="rId209" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="BV8" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="BW8" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="AX12" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="AX13" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="AX14" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="AX15" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="AY14" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="CC14" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="T18" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="CB7" r:id="rId219" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H13" r:id="rId220" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="I13" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B12" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="CB35" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC35" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B13" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="CB10" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="Z7" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="CB12" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="CB11" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H14" r:id="rId230" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB36" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="AR5" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="AR6" r:id="rId233" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="AR7" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="BV28" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="Z8" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="CH10" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="CH11" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="AF14" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B14" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="BV29" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="BW29" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B10" r:id="rId243" xr:uid="{DDC5B372-9A90-4AEC-91CC-040232B7964A}"/>
-    <hyperlink ref="N14" r:id="rId244" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
-    <hyperlink ref="B3" r:id="rId245" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
-    <hyperlink ref="T19" r:id="rId246" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
-    <hyperlink ref="S19" r:id="rId247" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
-    <hyperlink ref="T20" r:id="rId248" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
-    <hyperlink ref="S20" r:id="rId249" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
-    <hyperlink ref="T21" r:id="rId250" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
-    <hyperlink ref="B15" r:id="rId251" xr:uid="{032F0265-DF75-40CC-B5EC-C6509D7E4A85}"/>
-    <hyperlink ref="I11" r:id="rId252" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H11" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR8" r:id="rId254" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
-    <hyperlink ref="T22" r:id="rId255" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
-    <hyperlink ref="CH12" r:id="rId256" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
-    <hyperlink ref="BV30" r:id="rId257" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
-    <hyperlink ref="B9" r:id="rId258" xr:uid="{BB972F06-88F1-41A8-B7FC-1B64E8CFC189}"/>
-    <hyperlink ref="B16" r:id="rId259" xr:uid="{E70CF620-8B0D-47D8-8858-6B0281F60D63}"/>
-    <hyperlink ref="CB28" r:id="rId260" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
-    <hyperlink ref="CC28" r:id="rId261" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
-    <hyperlink ref="B4" r:id="rId262" xr:uid="{80B3429E-04FE-42FE-A360-12C29A1F0B55}"/>
-    <hyperlink ref="CB20" r:id="rId263" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
-    <hyperlink ref="AF15" r:id="rId264" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
-    <hyperlink ref="AL6" r:id="rId265" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
-    <hyperlink ref="AL7" r:id="rId266" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
-    <hyperlink ref="AL8" r:id="rId267" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
-    <hyperlink ref="AL9" r:id="rId268" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
-    <hyperlink ref="AL10" r:id="rId269" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
-    <hyperlink ref="BD12" r:id="rId270" xr:uid="{E1783660-5F31-4EBF-B7CE-8CAE9235806D}"/>
+    <hyperlink ref="N3" r:id="rId1" tooltip="http://hao.58pic.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O3" r:id="rId2" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N4" r:id="rId3" tooltip="http://nav.sbkko.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O4" r:id="rId4" tooltip="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="T6" r:id="rId5" tooltip="http://www.uigreat.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T7" r:id="rId6" tooltip="http://www.ui100day.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Z3" r:id="rId7" tooltip="http://color.uisdc.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Z4" r:id="rId8" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H3" r:id="rId9" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I3" r:id="rId10" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I6" r:id="rId22" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I10" r:id="rId26" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I12" r:id="rId27" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N5" r:id="rId28" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N6" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N11" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N13" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="T8" r:id="rId37" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O5" r:id="rId38" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O6" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O8" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T3" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T4" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="T5" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T9" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="T10" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T11" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="T12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T13" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="T14" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T16" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="T17" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="U9" r:id="rId54" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="T15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Z5" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Z6" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AF3" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AF4" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AF5" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AF6" r:id="rId61" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AF7" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AF8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AF9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AF10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AF11" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AF12" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AL3" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AL4" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AL5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR3" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AX3" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AX4" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AX5" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AX6" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AX7" r:id="rId77" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AX8" r:id="rId78" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AX9" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AX10" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AX11" r:id="rId81" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="BD3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="BD4" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="BD5" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="BD6" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="BD7" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="BD8" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BD9" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="BD15" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="BD13" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="BD14" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="BD10" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="BD11" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BJ3" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="BJ4" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="BJ5" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="BJ6" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="BJ7" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="BP3" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="BP4" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="BP5" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="BP6" r:id="rId102" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="BP7" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="BV3" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="BV4" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="BV5" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="BV6" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="BV7" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="BV9" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="BV10" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BV11" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="BV12" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BV13" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="BV14" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="BV15" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="BV16" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BV17" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="BV18" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="BV19" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="BV20" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="BV21" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="BV22" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="BV23" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="BV24" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="BV25" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="BV26" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="BV27" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="CN3" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="CB3" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="CB4" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="CB5" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="CB6" r:id="rId132" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="CB8" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CB9" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CB13" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="CB14" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="CB15" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="CB16" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CB17" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CB18" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CB19" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="CB22" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="CB21" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="CB23" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB24" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB25" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB26" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB27" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB29" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB30" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB31" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB32" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB33" r:id="rId153" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB34" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CH3" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="CH4" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="CH5" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="CH6" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="CH7" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="CH8" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="CH9" r:id="rId161" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="AM3" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AS3" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="AY4" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="U10" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="U12" r:id="rId166" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="U17" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="AG6" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="AY6" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AY7" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="AY8" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="AY9" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="BE11" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="BE14" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="BE10" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="BE15" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="BE3" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="BE4" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="BE5" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="BE6" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="BE7" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="BE8" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="BE9" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="BE13" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="BK4" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="BK3" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="BK6" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="BK7" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="BQ3" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="BW14" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="CC3" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="CC5" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC6" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="CC16" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CC13" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC30" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC22" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC27" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC24" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="BW16" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="AF13" r:id="rId201" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="BV8" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="BW8" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="AX12" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="AX13" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="AX14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="AX15" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="AY14" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="CC14" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="T18" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="CB7" r:id="rId211" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H13" r:id="rId212" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="I13" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="CB35" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC35" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="CB10" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="Z7" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="CB12" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB11" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H14" r:id="rId220" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="CB36" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="AR5" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="AR6" r:id="rId223" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="AR7" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="BV28" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="Z8" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="CH10" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="CH11" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="AF14" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="BV29" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="BW29" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="N14" r:id="rId232" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="B3" r:id="rId233" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
+    <hyperlink ref="T19" r:id="rId234" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
+    <hyperlink ref="S19" r:id="rId235" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
+    <hyperlink ref="T20" r:id="rId236" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
+    <hyperlink ref="S20" r:id="rId237" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
+    <hyperlink ref="T21" r:id="rId238" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
+    <hyperlink ref="I11" r:id="rId239" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H11" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR8" r:id="rId241" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
+    <hyperlink ref="T22" r:id="rId242" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
+    <hyperlink ref="CH12" r:id="rId243" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
+    <hyperlink ref="BV30" r:id="rId244" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
+    <hyperlink ref="CB28" r:id="rId245" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
+    <hyperlink ref="CC28" r:id="rId246" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
+    <hyperlink ref="CB20" r:id="rId247" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
+    <hyperlink ref="AF15" r:id="rId248" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
+    <hyperlink ref="AL6" r:id="rId249" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
+    <hyperlink ref="AL7" r:id="rId250" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
+    <hyperlink ref="AL8" r:id="rId251" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
+    <hyperlink ref="AL9" r:id="rId252" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
+    <hyperlink ref="AL10" r:id="rId253" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
+    <hyperlink ref="BD12" r:id="rId254" xr:uid="{E1783660-5F31-4EBF-B7CE-8CAE9235806D}"/>
+    <hyperlink ref="CN4" r:id="rId255" xr:uid="{2449811A-66FF-4E8A-AA92-42F92E4D7AD4}"/>
+    <hyperlink ref="CO3" r:id="rId256" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
+    <hyperlink ref="B4" r:id="rId257" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
+    <hyperlink ref="C4" r:id="rId258" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
+    <hyperlink ref="B6" r:id="rId259" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
+    <hyperlink ref="C6" r:id="rId260" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" display="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="C7" r:id="rId261" display="https://dribbble.com" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
+    <hyperlink ref="B8" r:id="rId262" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
+    <hyperlink ref="B9" r:id="rId263" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
+    <hyperlink ref="C9" r:id="rId264" display="https://search.muz.li" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
+    <hyperlink ref="C8" r:id="rId265" display="https://lanfucai.com" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
+    <hyperlink ref="B13" r:id="rId266" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
+    <hyperlink ref="B14" r:id="rId267" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
+    <hyperlink ref="B15" r:id="rId268" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
+    <hyperlink ref="B11" r:id="rId269" display="https://www.artstation.com" xr:uid="{C5B0C8F3-4FE9-418F-BCEC-5B9134FDA6C1}"/>
+    <hyperlink ref="B16" r:id="rId270" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
+    <hyperlink ref="B10" r:id="rId271" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
+    <hyperlink ref="B17" r:id="rId272" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId271"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF6AC2-0870-47CB-B4ED-2A167A5DF30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF54123A-A1B9-49E6-9B06-9A652D6A2002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2145" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="706">
   <si>
     <t>nice</t>
   </si>
@@ -263,9 +263,6 @@
     <t>👍教程Ⅰ软件Ⅰ黑科技Ⅰ心得Ⅰ素材，全网最大优质免费资源分享社区</t>
   </si>
   <si>
-    <t>毕业论文资源导航-每日更新</t>
-  </si>
-  <si>
     <t>http://by.360xueke.com</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t>http://www.cnki.net</t>
   </si>
   <si>
-    <t>（付费）校内IP范围内免费</t>
-  </si>
-  <si>
     <t>夏DJ导航站</t>
   </si>
   <si>
@@ -533,9 +527,6 @@
     <t>http://www.wanfangdata.com.cn</t>
   </si>
   <si>
-    <t>（付费）校内IP范围内免费 万方数据、论文、文献</t>
-  </si>
-  <si>
     <t>Pixso</t>
   </si>
   <si>
@@ -626,9 +617,6 @@
     <t>免费PDF在线转换工具</t>
   </si>
   <si>
-    <t>克隆窝素材解析</t>
-  </si>
-  <si>
     <t>https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799</t>
   </si>
   <si>
@@ -636,9 +624,6 @@
   </si>
   <si>
     <t>http://www.cqvip.com</t>
-  </si>
-  <si>
-    <t>（付费）校内IP范围内免费 提供各类学术论文等文献下载</t>
   </si>
   <si>
     <t>https://www.uy5.net/?aff=7168</t>
@@ -2124,10 +2109,6 @@
   </si>
   <si>
     <t>夏DJ导航站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏dj导航网址发布页。夏DJ导航由小张用&lt;i style="color:red;"&gt;❤&lt;/i&gt;制作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2405,12 +2386,78 @@
     <t>/favicon.ico</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>https://blenderco.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blender布的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blender布的提供全面的Blender教程、特效、效果、下载、插件、工程、模型、脚本、渲染、动画、海报、作品欣赏、图片、贴图和灯光预设。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业论文资源导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(付费）校内IP范围内免费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(付费）校内IP范围内免费 万方数据、论文、文献</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(付费）校内IP范围内免费 提供各类学术论文等文献下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失联网站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆窝素材解析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags 火 sqsl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>夏dj导航网址发布页&lt;/br&gt;夏DJ导航由小张用&lt;i style="color:red;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>&lt;/i&gt;制作</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2517,8 +2564,14 @@
       <name val="Calibri"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2528,6 +2581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2549,7 +2608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2624,6 +2683,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2901,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ36"/>
+  <dimension ref="A1:CQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="CR4" sqref="CR4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2919,7 +2981,15 @@
     <col min="24" max="24" width="9" style="4"/>
     <col min="25" max="29" width="9" style="3"/>
     <col min="30" max="30" width="9" style="4"/>
-    <col min="31" max="59" width="9" style="3"/>
+    <col min="31" max="35" width="9" style="3"/>
+    <col min="36" max="36" width="9" style="4"/>
+    <col min="37" max="41" width="9" style="3"/>
+    <col min="42" max="42" width="9" style="4"/>
+    <col min="43" max="47" width="9" style="3"/>
+    <col min="48" max="48" width="9" style="4"/>
+    <col min="49" max="53" width="9" style="3"/>
+    <col min="54" max="54" width="9" style="4"/>
+    <col min="55" max="59" width="9" style="3"/>
     <col min="60" max="60" width="9" style="6"/>
     <col min="61" max="65" width="9" style="3"/>
     <col min="66" max="66" width="9" style="4"/>
@@ -2936,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2945,10 +3015,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -2957,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -2969,38 +3039,34 @@
         <v>6</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB1" s="4"/>
       <c r="BC1" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3302,19 +3368,19 @@
     </row>
     <row r="3" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>661</v>
+        <v>705</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>35</v>
@@ -3329,10 +3395,10 @@
         <v>38</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>39</v>
@@ -3353,10 +3419,10 @@
         <v>44</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>45</v>
@@ -3372,59 +3438,55 @@
         <v>42</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="AI3" s="14"/>
+      <c r="AK3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="14"/>
+      <c r="AQ3" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AU3" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="AW3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL3" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AX3" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="BA3" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="BB3" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="BA3" s="14"/>
       <c r="BC3" s="3" t="s">
         <v>58</v>
       </c>
@@ -3435,10 +3497,10 @@
         <v>60</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>61</v>
@@ -3487,237 +3549,236 @@
         <v>75</v>
       </c>
       <c r="CG3" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="CH3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="CH3" s="11" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CJ3" s="3" t="s">
-        <v>78</v>
+      <c r="CK3" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="S4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AE4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO4" s="12"/>
+      <c r="AQ4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU4" s="12"/>
+      <c r="AW4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BA4" s="12"/>
+      <c r="BC4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="3" t="s">
+      <c r="BD4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BF4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="BI4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BF4" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BJ4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BK4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BL4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BP4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BR4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BV4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BV4" s="11" t="s">
+      <c r="BX4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CB4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CB4" s="11" t="s">
+      <c r="CD4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CH4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CJ4" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="CJ4" s="3" t="s">
+      <c r="CN4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CP4" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="CN4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="CP4" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E5" s="14"/>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="3" t="s">
@@ -3727,50 +3788,48 @@
         <v>34</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="Y5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="Z5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Z5" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="AE5" s="3" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="AF5" s="11" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ5" s="4"/>
+        <v>217</v>
+      </c>
       <c r="AK5" s="3" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="AL5" s="11" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP5" s="4"/>
+        <v>599</v>
+      </c>
       <c r="AQ5" s="3" t="s">
         <v>144</v>
       </c>
@@ -3778,433 +3837,423 @@
         <v>145</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="AV5" s="4"/>
+        <v>146</v>
+      </c>
       <c r="AW5" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AX5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="BD5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="3" t="s">
+      <c r="BE5" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BF5" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="BI5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP5" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BR5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BU5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BV5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="CA5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="CB5" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="CA5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="CB5" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="CC5" s="11" t="s">
         <v>74</v>
       </c>
       <c r="CD5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CH5" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="CG5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CH5" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="CJ5" s="3" t="s">
-        <v>166</v>
+        <v>700</v>
       </c>
       <c r="CN5" s="11"/>
     </row>
     <row r="6" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>623</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="W6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AF6" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH6" s="3" t="s">
+      <c r="BA6" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="BC6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AI6" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="3" t="s">
+      <c r="BD6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="BE6" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AT6" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="3" t="s">
+      <c r="BF6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="BE6" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP6" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BR6" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BV6" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="CA6" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="CB6" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="BV6" s="11" t="s">
+      <c r="CC6" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="CG6" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="BX6" s="3" t="s">
+      <c r="CH6" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="CA6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="CB6" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="CC6" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="CG6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH6" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>201</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Z7" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR7" s="11" t="s">
+      <c r="BC7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AT7" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="3" t="s">
+      <c r="BD7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="AX7" s="11" t="s">
+      <c r="BE7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="AY7" s="11" t="s">
+      <c r="BF7" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AZ7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BK7" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BP7" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BR7" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BU7" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BV7" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BX7" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="CA7" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="CB7" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="CD7" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CG7" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="CH7" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="BV7" s="11" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="BX7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="CA7" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="CB7" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="CD7" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="CG7" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="CH7" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>73</v>
@@ -4213,165 +4262,161 @@
         <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="O8" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="P8" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS8" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="AX8" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="AZ8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH8" s="3" t="s">
+      <c r="BC8" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="3" t="s">
+      <c r="BD8" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AX8" s="11" t="s">
+      <c r="BE8" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="AY8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AZ8" s="3" t="s">
+      <c r="BU8" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="3" t="s">
+      <c r="BV8" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BW8" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BX8" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BF8" s="3" t="s">
+      <c r="CA8" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BU8" s="3" t="s">
+      <c r="CB8" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="CD8" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BW8" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX8" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="CA8" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="CB8" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="CD8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="CG8" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CH8" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>72</v>
@@ -4386,1148 +4431,1092 @@
         <v>75</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX9" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="AZ9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH9" s="3" t="s">
+      <c r="BC9" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="AP9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="3" t="s">
+      <c r="BD9" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="AX9" s="11" t="s">
+      <c r="BE9" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="AY9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="AZ9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="BA9" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BX9" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="CA9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="CB9" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="CD9" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="BV9" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="BX9" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="CA9" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="CB9" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="CD9" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="P10" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="T10" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="U10" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="AE10" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF10" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH10" s="3" t="s">
+      <c r="BC10" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="BD10" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="BE10" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="AP10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AX10" s="11" t="s">
+      <c r="BF10" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="BU10" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AZ10" s="3" t="s">
+      <c r="BV10" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="BD10" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="BE10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA10" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="CB10" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="BF10" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="BU10" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="BV10" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="BX10" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="CA10" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>328</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="CG10" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="CH10" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="CJ10" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:95" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="S11" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="T11" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH11" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="AJ11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AX11" s="11" t="s">
+      <c r="AZ11" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="BD11" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE11" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="BU11" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="AZ11" s="3" t="s">
+      <c r="BV11" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="BD11" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="BE11" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="BU11" s="3" t="s">
+      <c r="BX11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="CA11" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="CB11" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="CD11" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="BV11" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="BX11" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="CA11" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="CB11" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="CD11" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="CG11" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="CH11" s="11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="P12" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="S12" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="U12" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="V12" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW12" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="AX12" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AX12" s="11" t="s">
+      <c r="BC12" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="BU12" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="AZ12" s="3" t="s">
+      <c r="BV12" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="24" t="s">
-        <v>690</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="BG12" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="BU12" s="3" t="s">
+      <c r="BX12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="CA12" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="CB12" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="CD12" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="BV12" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="BX12" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="CA12" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CB12" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="CD12" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="CG12" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="CH12" s="11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="CJ12" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="P13" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="S13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="AX13" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="3" t="s">
+      <c r="BC13" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="BD13" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="BE13" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU13" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AX13" s="16" t="s">
+      <c r="BV13" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="AZ13" s="3" t="s">
+      <c r="BX13" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="CA13" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="BD13" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="BE13" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF13" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="BU13" s="3" t="s">
+      <c r="CB13" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="CC13" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="CD13" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="BV13" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="BX13" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="CA13" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="CB13" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="CC13" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="AX14" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="AJ14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="AY14" s="11" t="s">
+      <c r="AZ14" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="BD14" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE14" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="BU14" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="AZ14" s="3" t="s">
+      <c r="BV14" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="BD14" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="BE14" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="BU14" s="3" t="s">
+      <c r="BW14" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="BX14" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="CA14" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="CB14" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="CC14" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="CD14" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="BW14" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="BX14" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="CA14" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="CB14" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="CC14" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="S15" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AW15" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="BV15" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="AJ15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="3" t="s">
+      <c r="BX15" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="AX15" s="11" t="s">
+      <c r="BY15" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="CA15" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="AZ15" s="3" t="s">
+      <c r="CB15" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="CD15" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="BV15" s="11" t="s">
+    </row>
+    <row r="16" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="BX15" s="3" t="s">
+      <c r="T16" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="BY15" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="CA15" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="CB15" s="11" t="s">
+      <c r="AQ16" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="BU16" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="CD15" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="S16" s="3" t="s">
+      <c r="BW16" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="BX16" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="CA16" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="AJ16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BU16" s="3" t="s">
+      <c r="CB16" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="CC16" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="BW16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="BX16" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="CA16" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="CB16" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="CC16" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="S17" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AX17" s="19"/>
+      <c r="BU17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="BV17" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="BX17" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="CA17" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="CB17" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="AJ17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AX17" s="19"/>
-      <c r="BB17" s="4"/>
-      <c r="BU17" s="3" t="s">
+      <c r="CD17" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="BV17" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="BX17" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="CA17" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="CB17" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="CD17" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="BU18" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="BV18" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="BX18" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="CA18" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="CB18" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AJ18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BU18" s="3" t="s">
+      <c r="CD18" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="BV18" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="BX18" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="CA18" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="CB18" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="AJ19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="BB19" s="4"/>
+        <v>576</v>
+      </c>
       <c r="BU19" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="BV19" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="BX19" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="CA19" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="CB19" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="CD19" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="BV19" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="BX19" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="CA19" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="CB19" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="AJ20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="BB20" s="4"/>
+        <v>562</v>
+      </c>
       <c r="BU20" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="BV20" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="CB20" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="AJ21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="BB21" s="4"/>
+        <v>565</v>
+      </c>
       <c r="BU21" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="BV21" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA21" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="CB21" s="18" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="CD21" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="CE21" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="AJ22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="BB22" s="4"/>
+        <v>575</v>
+      </c>
       <c r="BU22" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="BV22" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="BX22" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="CA22" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="CB22" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="CC22" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="CD22" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="AJ23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="BB23" s="4"/>
       <c r="BU23" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="BV23" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX23" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="CA23" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="CB23" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="CC23" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="BV23" s="11" t="s">
+      <c r="CD23" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="BX23" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="CA23" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="CB23" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="AJ24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="BB24" s="4"/>
       <c r="BU24" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="BV24" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="BX24" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="CA24" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="CB24" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="CD24" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="BV24" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="BX24" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="CA24" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="CB24" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="CC24" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="AJ25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="BB25" s="4"/>
       <c r="BU25" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BV25" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="BX25" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="CA25" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="CB25" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="CD25" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="BV25" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="BX25" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="CA25" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="CB25" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="BV26" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="BX26" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="CA26" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="CB26" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="CC26" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="CD26" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="BX26" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="CA26" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="CB26" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="CD26" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="BV27" s="11" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="BX27" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="CA27" s="3" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="CB27" s="11" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="CC27" s="11" t="s">
-        <v>520</v>
+        <v>595</v>
       </c>
       <c r="CD27" s="3" t="s">
-        <v>521</v>
+        <v>593</v>
+      </c>
+      <c r="CE27" s="3" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="BV28" s="11" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="CA28" s="3" t="s">
-        <v>597</v>
+        <v>520</v>
       </c>
       <c r="CB28" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="CC28" s="11" t="s">
-        <v>600</v>
+        <v>521</v>
       </c>
       <c r="CD28" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="CE28" s="3" t="s">
-        <v>655</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="BV29" s="11" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="BW29" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="BX29" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="CA29" s="3" t="s">
         <v>525</v>
@@ -5535,42 +5524,42 @@
       <c r="CB29" s="11" t="s">
         <v>526</v>
       </c>
+      <c r="CC29" s="11" t="s">
+        <v>527</v>
+      </c>
       <c r="CD29" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="BV30" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="CA30" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="CB30" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="CC30" s="11" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="CD30" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="CB31" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="CB31" s="11" t="s">
+      <c r="CD31" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="CD31" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
@@ -5581,57 +5570,66 @@
         <v>541</v>
       </c>
       <c r="CD32" s="3" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="CB33" s="15" t="s">
         <v>543</v>
       </c>
+      <c r="CB33" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="CC33" s="11" t="s">
+        <v>545</v>
+      </c>
       <c r="CD33" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
+      </c>
+      <c r="CE33" s="3" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="CB34" s="11" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CD34" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="35" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA35" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="CB35" s="18" t="s">
         <v>549</v>
-      </c>
-      <c r="CC35" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="CD35" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="CE35" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA36" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="CB36" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="CD36" s="3" t="s">
-        <v>554</v>
+      <c r="CA36" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="CB36" s="25"/>
+      <c r="CC36" s="25"/>
+      <c r="CD36" s="25"/>
+      <c r="CE36" s="25"/>
+    </row>
+    <row r="37" spans="79:83" x14ac:dyDescent="0.2">
+      <c r="CA37" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="CB37" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="CD37" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="79:83" x14ac:dyDescent="0.2">
+      <c r="CA38" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="CB38" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="CD38" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5694,30 +5692,30 @@
     <hyperlink ref="T15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="Z5" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="Z6" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AF3" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AF4" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AF5" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AF6" r:id="rId61" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AF7" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AF8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AF9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AF10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AF11" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AF12" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AL3" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AL4" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AL5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR3" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AX3" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AX4" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AX5" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AX6" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AX7" r:id="rId77" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AX8" r:id="rId78" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="AX9" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AX10" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AX11" r:id="rId81" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="AX3" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AX4" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AX5" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AX6" r:id="rId61" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AX7" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AX8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AX9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AX10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AX11" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AX12" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AF3" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AF4" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AF5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AL3" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AL4" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR3" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR4" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR5" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR6" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR7" r:id="rId77" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR8" r:id="rId78" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AR9" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AR10" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR11" r:id="rId81" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="BD3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="BD4" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="BD5" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
@@ -5780,17 +5778,17 @@
     <hyperlink ref="CB19" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
     <hyperlink ref="CB22" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
     <hyperlink ref="CB21" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="CB23" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="CB24" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="CB25" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="CB26" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="CB27" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB29" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB30" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB31" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB32" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB33" r:id="rId153" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB34" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CB37" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB23" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB24" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB25" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB26" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB28" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB29" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB38" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB30" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB31" r:id="rId153" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB32" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="CH3" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
     <hyperlink ref="CH4" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
     <hyperlink ref="CH5" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
@@ -5798,17 +5796,17 @@
     <hyperlink ref="CH7" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
     <hyperlink ref="CH8" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
     <hyperlink ref="CH9" r:id="rId161" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="AM3" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="AS3" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="AY4" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="AG3" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AM3" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="AS4" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
     <hyperlink ref="U10" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="U12" r:id="rId166" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
     <hyperlink ref="U17" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="AG6" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="AY6" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="AY7" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="AY8" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="AY9" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="AY6" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="AS6" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AS7" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="AS8" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="AS9" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
     <hyperlink ref="BE11" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
     <hyperlink ref="BE14" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="BE10" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
@@ -5832,40 +5830,40 @@
     <hyperlink ref="CC6" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
     <hyperlink ref="CC16" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
     <hyperlink ref="CC13" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC30" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC29" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
     <hyperlink ref="CC22" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC27" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC24" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="CC26" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC23" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
     <hyperlink ref="BW16" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="AF13" r:id="rId201" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="AX13" r:id="rId201" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="BV8" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
     <hyperlink ref="BW8" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="AX12" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="AX13" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="AX14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="AX15" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="AY14" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="AR12" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="AR13" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="AR14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="AR15" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="AS14" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
     <hyperlink ref="CC14" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
     <hyperlink ref="T18" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
     <hyperlink ref="CB7" r:id="rId211" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="H13" r:id="rId212" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="I13" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="CB35" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC35" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="CB33" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC33" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
     <hyperlink ref="CB10" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="Z7" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
     <hyperlink ref="CB12" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
     <hyperlink ref="CB11" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
     <hyperlink ref="H14" r:id="rId220" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB36" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="AR5" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="AR6" r:id="rId223" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="AR7" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="CB34" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="AL5" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="AL6" r:id="rId223" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="AL7" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
     <hyperlink ref="BV28" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
     <hyperlink ref="Z8" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
     <hyperlink ref="CH10" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
     <hyperlink ref="CH11" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="AF14" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="AX14" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
     <hyperlink ref="BV29" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
     <hyperlink ref="BW29" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
     <hyperlink ref="N14" r:id="rId232" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
@@ -5877,26 +5875,26 @@
     <hyperlink ref="T21" r:id="rId238" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
     <hyperlink ref="I11" r:id="rId239" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="H11" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR8" r:id="rId241" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
+    <hyperlink ref="AL8" r:id="rId241" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
     <hyperlink ref="T22" r:id="rId242" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
     <hyperlink ref="CH12" r:id="rId243" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
     <hyperlink ref="BV30" r:id="rId244" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
-    <hyperlink ref="CB28" r:id="rId245" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
-    <hyperlink ref="CC28" r:id="rId246" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
+    <hyperlink ref="CB27" r:id="rId245" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
+    <hyperlink ref="CC27" r:id="rId246" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
     <hyperlink ref="CB20" r:id="rId247" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
-    <hyperlink ref="AF15" r:id="rId248" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
-    <hyperlink ref="AL6" r:id="rId249" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
-    <hyperlink ref="AL7" r:id="rId250" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
-    <hyperlink ref="AL8" r:id="rId251" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
-    <hyperlink ref="AL9" r:id="rId252" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
-    <hyperlink ref="AL10" r:id="rId253" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
+    <hyperlink ref="AX15" r:id="rId248" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
+    <hyperlink ref="AF6" r:id="rId249" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
+    <hyperlink ref="AF7" r:id="rId250" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
+    <hyperlink ref="AF8" r:id="rId251" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
+    <hyperlink ref="AF9" r:id="rId252" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
+    <hyperlink ref="AF10" r:id="rId253" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
     <hyperlink ref="BD12" r:id="rId254" xr:uid="{E1783660-5F31-4EBF-B7CE-8CAE9235806D}"/>
     <hyperlink ref="CN4" r:id="rId255" xr:uid="{2449811A-66FF-4E8A-AA92-42F92E4D7AD4}"/>
     <hyperlink ref="CO3" r:id="rId256" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
     <hyperlink ref="B4" r:id="rId257" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
     <hyperlink ref="C4" r:id="rId258" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
     <hyperlink ref="B6" r:id="rId259" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
-    <hyperlink ref="C6" r:id="rId260" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" display="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="C6" r:id="rId260" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
     <hyperlink ref="C7" r:id="rId261" display="https://dribbble.com" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
     <hyperlink ref="B8" r:id="rId262" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
     <hyperlink ref="B9" r:id="rId263" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
@@ -5909,8 +5907,9 @@
     <hyperlink ref="B16" r:id="rId270" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
     <hyperlink ref="B10" r:id="rId271" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
     <hyperlink ref="B17" r:id="rId272" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
+    <hyperlink ref="AR16" r:id="rId273" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId274"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF54123A-A1B9-49E6-9B06-9A652D6A2002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112133F-C980-445D-A0FF-C1F626B7423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2145" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="706">
   <si>
     <t>nice</t>
   </si>
@@ -146,18 +146,12 @@
     <t>https://screenlane.com</t>
   </si>
   <si>
-    <t>https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png</t>
-  </si>
-  <si>
     <t>获得灵感, 跟上最新的web和移动应用程序UI设计趋势</t>
   </si>
   <si>
     <t>http://hao.58pic.com</t>
   </si>
   <si>
-    <t>https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png</t>
-  </si>
-  <si>
     <t>千图设计导航 · 可以自定义的设计导</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>https://dribbble.com</t>
   </si>
   <si>
-    <t>https://cdn.dribbble.com/assets/favicon-b38525134603b9513174ec887944bde1a869eb6cd414f4d640ee48ab2a15a26b.ico</t>
-  </si>
-  <si>
     <t>在Dribbble上查找顶级设计师和创意专家。我们是设计师获得灵感、反馈、社区和工作的地方。您最好的资源来发现和联系世界各地的设计师。</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>http://nav.sbkko.com</t>
   </si>
   <si>
-    <t>https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png</t>
-  </si>
-  <si>
     <t>精选各类博客,书籍,影视,免费素材,免费图片,设计工具,图片搜索等各类强大的网站。</t>
   </si>
   <si>
@@ -425,9 +413,6 @@
     <t>每日更新， UI设计师社区网站，展示和分享用户界面设计的灵感和创意</t>
   </si>
   <si>
-    <t>https://3o.hk/images/2023/04/17/o472x.png</t>
-  </si>
-  <si>
     <t>站酷</t>
   </si>
   <si>
@@ -533,9 +518,6 @@
     <t>https://pixso.cn/community/home</t>
   </si>
   <si>
-    <t>https://3o.hk/images/2023/04/17/12x.png</t>
-  </si>
-  <si>
     <t>Pixso官方提供海量优质设计素材，设计系统，图标Icon，组件库，插画，线框图，助力设计师和产品经理快速套用设计模板，提升设计效率</t>
   </si>
   <si>
@@ -815,9 +797,6 @@
     <t>http://pan.baidu.com/s/1eYDWh0J9E_Z9FaO2H-A96g#list/path=%2F&amp;vmode=list</t>
   </si>
   <si>
-    <t>https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png</t>
-  </si>
-  <si>
     <t>打开是百度网盘链接，有会员的可以用，没用的话还是前面那个吧😂</t>
   </si>
   <si>
@@ -1097,9 +1076,6 @@
     <t>https://space.bilibili.com/485723138</t>
   </si>
   <si>
-    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
-  </si>
-  <si>
     <t>老师推荐的B站分享配色的up主</t>
   </si>
   <si>
@@ -1115,9 +1091,6 @@
     <t>http://www.motiongreat.com</t>
   </si>
   <si>
-    <t>https://3o.hk/images/2023/04/18/image.png</t>
-  </si>
-  <si>
     <t>Infinity新标签页</t>
   </si>
   <si>
@@ -1383,9 +1356,6 @@
   </si>
   <si>
     <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
-  </si>
-  <si>
-    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
   </si>
   <si>
     <t>一个分享好看的像素画的网站</t>
@@ -2450,6 +2420,46 @@
       </rPr>
       <t>&lt;/i&gt;制作</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.yopngs.com/2023/08/15/960bdb56-7fb7-4f6f-87ad-1bfb6506e2a4.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.yopngs.com/2023/08/15/1802decd-b67a-41f6-812c-bceb2bef5f9e.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/tmp2DFfdfed8b6a56b7edb.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/tmpE977d93cdc66b18ac1c8.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/72fa4cf5-53e2-4e2d-a87f-6b07535ce1eb708c8ecfe4ad2b19.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230815/615722555340984320.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/qq826e432cef35f140.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/adddd93ab4efbd45940c6.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/842b696c-19e6-4eb9-9d3b-7febc94aa3977c7d15d4bee28992.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/84fa3cf1-fbd9-4483-aee4-cf15a0475aa8e5417ad5a717bb4d.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2965,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3006,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3015,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3027,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3066,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3368,19 +3378,19 @@
     </row>
     <row r="3" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>35</v>
@@ -3388,397 +3398,395 @@
       <c r="H3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="Z3" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="AA3" s="13"/>
       <c r="AB3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AN3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BA3" s="14"/>
       <c r="BC3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BF3" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="BG3" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="BI3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="BG3" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BK3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BL3" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="BK3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="BN3" s="6"/>
       <c r="BO3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BR3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BU3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BV3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="CA3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CB3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CC3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="CB3" s="11" t="s">
+      <c r="CD3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="CC3" s="11" t="s">
+      <c r="CG3" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="CH3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CG3" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="CH3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="CK3" s="3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>699</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="S4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AE4" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AL4" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AO4" s="12"/>
       <c r="AQ4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AS4" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AW4" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AX4" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AY4" s="12"/>
       <c r="AZ4" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BA4" s="12"/>
       <c r="BC4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BK4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BL4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BF4" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BP4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BR4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BV4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BX4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BV4" s="11" t="s">
+      <c r="CB4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="CD4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CH4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="CB4" s="11" t="s">
+      <c r="CJ4" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CN4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CP4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="CH4" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="CM4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CN4" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="CP4" s="3" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E5" s="14"/>
       <c r="G5" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="3" t="s">
@@ -3787,1823 +3795,1823 @@
       <c r="N5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>130</v>
+      <c r="O5" s="23" t="s">
+        <v>703</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="AX5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AZ5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Z5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK5" s="3" t="s">
+      <c r="BC5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="BD5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AN5" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="BE5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="BF5" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="BI5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE5" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="CA5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="CB5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="CC5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="CG5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="CH5" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="CA5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="CB5" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="CC5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="CG5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH5" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="CJ5" s="3" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="CN5" s="11"/>
     </row>
     <row r="6" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>704</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL6" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP6" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BV6" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="CB6" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CC6" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="AE6" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD6" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE6" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK6" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="BL6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BO6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BP6" s="18" t="s">
+      <c r="CD6" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="CG6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="CH6" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="BU6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BV6" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BX6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA6" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="CB6" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="CC6" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="CG6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="CH6" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="AH7" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX7" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD7" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE7" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BG7" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AI7" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="AS7" s="11" t="s">
+      <c r="BI7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BK7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BP7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BR7" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BV7" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BX7" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="CA7" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="CB7" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="CD7" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="CG7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="CH7" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="BV7" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX7" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="CA7" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="CB7" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="CD7" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="CG7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="CH7" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="P8" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX8" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="AZ8" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
+      <c r="BC8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD8" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE8" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="BU8" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AS8" s="11" t="s">
+      <c r="BV8" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="AT8" s="3" t="s">
+      <c r="BW8" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BX8" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="CA8" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="CB8" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="BF8" s="3" t="s">
+      <c r="CD8" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BU8" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="BV8" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="BW8" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="BX8" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="CA8" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="CB8" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="CD8" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="CG8" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="CH8" s="11" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="AX9" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="AZ9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
+      <c r="BC9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD9" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BE9" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF9" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AR9" s="11" t="s">
+      <c r="BU9" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AS9" s="11" t="s">
+      <c r="BV9" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="AT9" s="3" t="s">
+      <c r="BX9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="CA9" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="CB9" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="CD9" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="BF9" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BU9" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="BV9" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="BX9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="CA9" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="CB9" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="CD9" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="V10" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
+      <c r="BC10" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="BD10" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="BU10" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="AR10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="AT10" s="3" t="s">
+      <c r="CA10" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="CB10" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="AW10" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="BC10" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="BD10" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="BE10" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="BU10" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="BV10" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX10" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="CA10" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>323</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="CG10" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="CH10" s="11" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="CJ10" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:95" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="T11" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="V11" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
+      <c r="AZ11" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="BD11" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="BE11" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BU11" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="BV11" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="AR11" s="11" t="s">
+      <c r="BX11" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AT11" s="3" t="s">
+      <c r="CA11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AW11" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="AZ11" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="BD11" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="BE11" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="BU11" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="BV11" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="BX11" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CA11" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="CB11" s="11" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="CG11" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="CH11" s="11" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW12" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="AX12" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
+      <c r="BC12" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="BU12" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BV12" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="BX12" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="CA12" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="AR12" s="11" t="s">
+      <c r="CB12" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AT12" s="3" t="s">
+      <c r="CD12" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="AW12" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="AZ12" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="BC12" s="24" t="s">
-        <v>684</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="BG12" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="BU12" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="BV12" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="BX12" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="CA12" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="CB12" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="CD12" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="CG12" s="3" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="CH12" s="11" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="CJ12" s="3" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="AX13" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="V13" s="3" t="s">
+      <c r="BC13" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="BD13" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="BE13" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BU13" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="AQ13" s="3" t="s">
+      <c r="BV13" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="CA13" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="CB13" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="CC13" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="AR13" s="16" t="s">
+      <c r="CD13" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="AW13" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="AZ13" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="BC13" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="BD13" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="BE13" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="BF13" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="BU13" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="BV13" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="BX13" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="CA13" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="CB13" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="CC13" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="AS14" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="AT14" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
+      <c r="AW14" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX14" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="BD14" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="BE14" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="BU14" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BV14" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="BW14" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="AR14" s="11" t="s">
+      <c r="BX14" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CA14" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AS14" s="11" t="s">
+      <c r="CB14" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="AT14" s="3" t="s">
+      <c r="CC14" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="AW14" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="BC14" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="BD14" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="BE14" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="BU14" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="BV14" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="BW14" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="BX14" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="CA14" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="CB14" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="CC14" s="18" t="s">
-        <v>424</v>
-      </c>
       <c r="CD14" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="S15" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW15" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="BU15" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="BV15" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="BX15" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="BY15" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="CA15" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="CB15" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="CD15" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AT15" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="AW15" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="BU15" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="BV15" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="BX15" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="BY15" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="CA15" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="CB15" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="BU16" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="BV16" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="BW16" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="BX16" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="CA16" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="CB16" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="CC16" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="V16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="AQ16" s="3" t="s">
+      <c r="T17" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="AR16" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="BU16" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="BV16" s="11" t="s">
+      <c r="V17" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="BW16" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="BX16" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="CA16" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="CB16" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="CC16" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="BV17" s="11" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="CA17" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="CB17" s="11" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="BV18" s="11" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="BX18" s="3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="CB18" s="11" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="BU19" s="21" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="BV19" s="11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="CA19" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="CB19" s="11" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="CD19" s="3" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="BU20" s="3" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="BV20" s="11" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="CB20" s="11" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="BU21" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="BV21" s="11" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="CA21" s="3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="CB21" s="18" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="CD21" s="3" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="CE21" s="3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="3" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="BU22" s="3" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="BV22" s="11" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="BX22" s="3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="CA22" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="CB22" s="11" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="CC22" s="11" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="CD22" s="3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU23" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="BV23" s="11" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="BX23" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="CA23" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="CB23" s="11" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="CC23" s="11" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="CD23" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="BV24" s="11" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="BX24" s="3" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="CA24" s="3" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="CB24" s="11" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="CD24" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="BV25" s="16" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="BX25" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="CA25" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="CB25" s="11" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="CD25" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="BV26" s="11" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="BX26" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="CA26" s="3" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="CB26" s="11" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="CC26" s="11" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="CD26" s="3" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="BV27" s="11" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="BX27" s="3" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="CA27" s="3" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="CB27" s="11" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="CC27" s="11" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="CD27" s="3" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="CE27" s="3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="BV28" s="11" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="CA28" s="3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="CB28" s="11" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="CD28" s="3" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="BV29" s="11" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="BW29" s="11" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="BX29" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="CA29" s="3" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="CB29" s="11" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="CC29" s="11" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="CD29" s="3" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="BV30" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="CA30" s="3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="CB30" s="11" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="CD30" s="3" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="3" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="CB31" s="15" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="CD31" s="3" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="CB32" s="11" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="CD32" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="CB33" s="18" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="CC33" s="11" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="CD33" s="3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="CE33" s="3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="CB34" s="11" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="CD34" s="3" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="25" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="CB36" s="25"/>
       <c r="CC36" s="25"/>
@@ -5612,39 +5620,39 @@
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="CB37" s="11" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="CD37" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="CB38" s="11" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="CD38" s="3" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N3" r:id="rId1" tooltip="http://hao.58pic.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O3" r:id="rId2" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="N4" r:id="rId3" tooltip="http://nav.sbkko.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O4" r:id="rId4" tooltip="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="T6" r:id="rId5" tooltip="http://www.uigreat.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="T7" r:id="rId6" tooltip="http://www.ui100day.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="Z3" r:id="rId7" tooltip="http://color.uisdc.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="Z4" r:id="rId8" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="H3" r:id="rId9" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I3" r:id="rId10" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="H4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
@@ -5655,261 +5663,260 @@
     <hyperlink ref="H9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="H10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="H12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I6" r:id="rId22" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I10" r:id="rId26" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I12" r:id="rId27" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N5" r:id="rId28" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N6" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N11" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N13" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="T8" r:id="rId37" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="O5" r:id="rId38" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O6" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O8" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="O7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T3" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="T4" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="T5" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T9" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="T10" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="T11" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="T12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="T13" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="T14" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T16" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="T17" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="U9" r:id="rId54" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="T15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Z5" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="Z6" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AX3" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AX4" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AX5" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AX6" r:id="rId61" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AX7" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AX8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AX9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AX10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AX11" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AX12" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AF3" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AF4" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AF5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AL3" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AL4" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR3" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR4" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR5" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR6" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR7" r:id="rId77" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR8" r:id="rId78" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="AR9" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR10" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR11" r:id="rId81" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="BD3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="BD4" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="BD5" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="BD6" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="BD7" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="BD8" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="BD9" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="BD15" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="BD13" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="BD14" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="BD10" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="BD11" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="BJ3" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="BJ4" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="BJ5" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="BJ6" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="BJ7" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="BP3" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="BP4" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="BP5" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="BP6" r:id="rId102" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="BP7" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="BV3" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="BV4" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="BV5" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="BV6" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="BV7" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="BV9" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="BV10" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="BV11" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="BV12" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="BV13" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="BV14" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="BV15" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="BV16" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="BV17" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="BV18" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="BV19" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="BV20" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="BV21" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="BV22" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="BV23" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="BV24" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="BV25" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="BV26" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="BV27" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="CN3" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="CB3" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="CB4" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="CB5" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="CB6" r:id="rId132" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="CB8" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="CB9" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="CB13" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="CB14" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="CB15" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="CB16" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="CB17" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="CB18" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="CB19" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="CB22" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="CB21" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="CB37" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="CB23" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="CB24" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="CB25" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="CB26" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB28" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB29" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB38" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB30" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB31" r:id="rId153" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB32" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="CH3" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="CH4" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="CH5" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="CH6" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="CH7" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="CH8" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="CH9" r:id="rId161" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="AG3" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="AM3" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="AS4" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="U10" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="U12" r:id="rId166" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="U17" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="AY6" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="AS6" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="AS7" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="AS8" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="AS9" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="BE11" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="BE14" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="BE10" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="BE15" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="BE3" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="BE4" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="BE5" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="BE6" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="BE7" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="BE8" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="BE9" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="BE13" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="BK4" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="BK3" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="BK6" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="BK7" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="BQ3" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="BW14" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="CC3" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="CC5" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="CC6" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="CC16" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="CC13" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC29" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="CC22" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC26" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC23" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="BW16" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="AX13" r:id="rId201" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="BV8" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="BW8" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="AR12" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="AR13" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="AR14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="AR15" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="AS14" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="CC14" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="T18" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="CB7" r:id="rId211" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H13" r:id="rId212" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="I13" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="CB33" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC33" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="CB10" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="Z7" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="CB12" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="CB11" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H14" r:id="rId220" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB34" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="AL5" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="AL6" r:id="rId223" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="AL7" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="BV28" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="Z8" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="CH10" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="CH11" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="AX14" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="BV29" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="BW29" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="N14" r:id="rId232" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
-    <hyperlink ref="B3" r:id="rId233" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
-    <hyperlink ref="T19" r:id="rId234" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
-    <hyperlink ref="S19" r:id="rId235" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
-    <hyperlink ref="T20" r:id="rId236" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
-    <hyperlink ref="S20" r:id="rId237" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
-    <hyperlink ref="T21" r:id="rId238" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
-    <hyperlink ref="I11" r:id="rId239" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H11" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AL8" r:id="rId241" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
-    <hyperlink ref="T22" r:id="rId242" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
-    <hyperlink ref="CH12" r:id="rId243" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
-    <hyperlink ref="BV30" r:id="rId244" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
-    <hyperlink ref="CB27" r:id="rId245" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
-    <hyperlink ref="CC27" r:id="rId246" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
-    <hyperlink ref="CB20" r:id="rId247" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
-    <hyperlink ref="AX15" r:id="rId248" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
-    <hyperlink ref="AF6" r:id="rId249" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
-    <hyperlink ref="AF7" r:id="rId250" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
-    <hyperlink ref="AF8" r:id="rId251" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
-    <hyperlink ref="AF9" r:id="rId252" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
-    <hyperlink ref="AF10" r:id="rId253" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
-    <hyperlink ref="BD12" r:id="rId254" xr:uid="{E1783660-5F31-4EBF-B7CE-8CAE9235806D}"/>
-    <hyperlink ref="CN4" r:id="rId255" xr:uid="{2449811A-66FF-4E8A-AA92-42F92E4D7AD4}"/>
-    <hyperlink ref="CO3" r:id="rId256" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
-    <hyperlink ref="B4" r:id="rId257" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
-    <hyperlink ref="C4" r:id="rId258" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
-    <hyperlink ref="B6" r:id="rId259" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
-    <hyperlink ref="C6" r:id="rId260" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
-    <hyperlink ref="C7" r:id="rId261" display="https://dribbble.com" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
-    <hyperlink ref="B8" r:id="rId262" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
-    <hyperlink ref="B9" r:id="rId263" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
-    <hyperlink ref="C9" r:id="rId264" display="https://search.muz.li" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
-    <hyperlink ref="C8" r:id="rId265" display="https://lanfucai.com" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
-    <hyperlink ref="B13" r:id="rId266" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
-    <hyperlink ref="B14" r:id="rId267" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
-    <hyperlink ref="B15" r:id="rId268" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
-    <hyperlink ref="B11" r:id="rId269" display="https://www.artstation.com" xr:uid="{C5B0C8F3-4FE9-418F-BCEC-5B9134FDA6C1}"/>
-    <hyperlink ref="B16" r:id="rId270" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
-    <hyperlink ref="B10" r:id="rId271" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
-    <hyperlink ref="B17" r:id="rId272" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
-    <hyperlink ref="AR16" r:id="rId273" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
+    <hyperlink ref="I7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I8" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I10" r:id="rId24" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N5" r:id="rId26" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N6" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N10" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="T8" r:id="rId35" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O5" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O6" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O9" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O8" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O7" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T3" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T4" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="T5" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T9" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="T10" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T11" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="T12" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T13" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="T14" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T16" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="T17" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="U9" r:id="rId52" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="T15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Z5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Z6" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AX3" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AX4" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AX5" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AX6" r:id="rId59" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AX7" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AX8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AX9" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AX10" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AX11" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AX12" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AF3" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AF4" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AF5" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AL3" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AL4" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR3" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR4" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR5" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR6" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR7" r:id="rId75" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR8" r:id="rId76" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AR9" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AR10" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR11" r:id="rId79" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="BD3" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="BD4" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="BD5" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="BD6" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="BD7" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="BD8" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BD9" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="BD15" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="BD13" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="BD14" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="BD10" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="BD11" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BJ3" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="BJ4" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="BJ5" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="BJ6" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="BJ7" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="BP3" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="BP4" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="BP5" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="BP6" r:id="rId100" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="BP7" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="BV3" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="BV4" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="BV5" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="BV6" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="BV7" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="BV9" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="BV10" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BV11" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="BV12" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BV13" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="BV14" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="BV15" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="BV16" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BV17" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="BV18" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="BV19" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="BV20" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="BV21" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="BV22" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="BV23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="BV24" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="BV25" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="BV26" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="BV27" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="CN3" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="CB3" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="CB4" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="CB5" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="CB6" r:id="rId130" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="CB8" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CB9" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CB13" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="CB14" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="CB15" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="CB16" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CB17" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CB18" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CB19" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="CB22" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="CB21" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="CB37" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB23" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB24" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB25" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB26" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB28" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB29" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB38" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB30" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB31" r:id="rId151" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB32" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CH3" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="CH4" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="CH5" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="CH6" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="CH7" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="CH8" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="CH9" r:id="rId159" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="AG3" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AM3" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="AS4" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="U10" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="U12" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="U17" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="AY6" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="AS6" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AS7" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="AS8" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="AS9" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="BE11" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="BE14" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="BE10" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="BE15" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="BE3" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="BE4" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="BE5" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="BE6" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="BE7" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="BE8" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="BE9" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="BE13" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="BK4" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="BK3" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="BK6" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="BK7" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="BQ3" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="BW14" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="CC3" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="CC5" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC6" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="CC16" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CC13" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC29" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC22" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC26" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC23" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="BW16" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="AX13" r:id="rId199" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="BV8" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="BW8" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="AR12" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="AR13" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="AR14" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="AR15" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="AS14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="CC14" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="T18" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="CB7" r:id="rId209" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H13" r:id="rId210" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="I13" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="CB33" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC33" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="CB10" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="Z7" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="CB12" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB11" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H14" r:id="rId218" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="CB34" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="AL5" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="AL6" r:id="rId221" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="AL7" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="BV28" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="Z8" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="CH10" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="CH11" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="AX14" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="BV29" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="BW29" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="N14" r:id="rId230" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="B3" r:id="rId231" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
+    <hyperlink ref="T19" r:id="rId232" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
+    <hyperlink ref="S19" r:id="rId233" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
+    <hyperlink ref="T20" r:id="rId234" xr:uid="{D93CA828-7918-4D66-A084-4EDC53DEA2B3}"/>
+    <hyperlink ref="S20" r:id="rId235" display="https://www.gaoding.com/" xr:uid="{CD4BCC79-C6E0-44FB-A66D-5813DC2DDDDA}"/>
+    <hyperlink ref="T21" r:id="rId236" xr:uid="{47F5B9F2-66F7-4C51-9803-E31116BB6F6C}"/>
+    <hyperlink ref="I11" r:id="rId237" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H11" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AL8" r:id="rId239" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
+    <hyperlink ref="T22" r:id="rId240" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
+    <hyperlink ref="CH12" r:id="rId241" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
+    <hyperlink ref="BV30" r:id="rId242" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
+    <hyperlink ref="CB27" r:id="rId243" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
+    <hyperlink ref="CC27" r:id="rId244" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
+    <hyperlink ref="CB20" r:id="rId245" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
+    <hyperlink ref="AX15" r:id="rId246" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
+    <hyperlink ref="AF6" r:id="rId247" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
+    <hyperlink ref="AF7" r:id="rId248" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
+    <hyperlink ref="AF8" r:id="rId249" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
+    <hyperlink ref="AF9" r:id="rId250" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
+    <hyperlink ref="AF10" r:id="rId251" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
+    <hyperlink ref="BD12" r:id="rId252" xr:uid="{E1783660-5F31-4EBF-B7CE-8CAE9235806D}"/>
+    <hyperlink ref="CN4" r:id="rId253" xr:uid="{2449811A-66FF-4E8A-AA92-42F92E4D7AD4}"/>
+    <hyperlink ref="CO3" r:id="rId254" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
+    <hyperlink ref="B4" r:id="rId255" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
+    <hyperlink ref="C4" r:id="rId256" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
+    <hyperlink ref="B6" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
+    <hyperlink ref="C6" r:id="rId258" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="C7" r:id="rId259" display="https://dribbble.com" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
+    <hyperlink ref="B8" r:id="rId260" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
+    <hyperlink ref="B9" r:id="rId261" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
+    <hyperlink ref="C9" r:id="rId262" display="https://search.muz.li" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
+    <hyperlink ref="C8" r:id="rId263" display="https://lanfucai.com" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
+    <hyperlink ref="B13" r:id="rId264" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
+    <hyperlink ref="B14" r:id="rId265" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
+    <hyperlink ref="B15" r:id="rId266" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
+    <hyperlink ref="B11" r:id="rId267" display="https://www.artstation.com" xr:uid="{C5B0C8F3-4FE9-418F-BCEC-5B9134FDA6C1}"/>
+    <hyperlink ref="B16" r:id="rId268" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
+    <hyperlink ref="B10" r:id="rId269" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
+    <hyperlink ref="B17" r:id="rId270" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
+    <hyperlink ref="AR16" r:id="rId271" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
+    <hyperlink ref="I6" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId274"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112133F-C980-445D-A0FF-C1F626B7423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97FAAB-EECC-429A-98C5-387BD70513E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="706">
   <si>
     <t>nice</t>
   </si>
@@ -2975,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4014,6 +4014,9 @@
       <c r="AT6" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AU6" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="AW6" s="3" t="s">
         <v>169</v>
       </c>
@@ -4272,7 +4275,9 @@
       <c r="D8" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>640</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>236</v>
       </c>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97FAAB-EECC-429A-98C5-387BD70513E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FAFE36-13E2-477F-A1D2-02164F62C458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2145" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="712">
   <si>
     <t>nice</t>
   </si>
@@ -395,9 +395,6 @@
     <t>http://www.xiadj.cf</t>
   </si>
   <si>
-    <t>夏DJ导航站的其他域名</t>
-  </si>
-  <si>
     <t>https://17yongai.com</t>
   </si>
   <si>
@@ -1284,9 +1281,6 @@
   </si>
   <si>
     <t>免费设计素材模板下载图库共享网站</t>
-  </si>
-  <si>
-    <t>Pinterest (花瓣它爹)</t>
   </si>
   <si>
     <t>http://www.pinterest.com</t>
@@ -1675,10 +1669,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>腾讯14年做的设计导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>teacher</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1976,10 +1966,6 @@
   </si>
   <si>
     <t>✨ 置顶网站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>📐 设计网站 &lt;span&gt;（部分需要 &lt;i  style="color:#bc37e79e;"&gt; 科学上网 &lt;/i&gt;）&lt;/span&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2462,12 +2448,92 @@
     <t>https://pic.zhaotu.me/2023/08/15/84fa3cf1-fbd9-4483-aee4-cf15a0475aa8e5417ad5a717bb4d.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Pinterest </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 设计网站 &lt;span&gt;（部分需要 &lt;i  style="color:#bc37e79e;"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>上网 &lt;/i&gt;）&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯在我14岁时做的设计导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>links</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zl88.github.io</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站长博客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调存在，无人问津，专注无用，深度浅薄。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thirdqq.qlogo.cn/g?b=sdk&amp;k=yqjbmdENrko19T7mjIc3vg&amp;s=100&amp;t=1655292317</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术与科技的双重碰撞，也是设计系大学生制作 也是倾丞博客站长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏DJ导航站的其他域名，建议收藏，以备本站失联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2580,6 +2646,27 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2618,7 +2705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2695,6 +2782,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2975,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="CP7" sqref="CP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3016,7 +3106,7 @@
   <sheetData>
     <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3025,10 +3115,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3036,8 +3126,8 @@
       <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>620</v>
+      <c r="S1" s="26" t="s">
+        <v>703</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3076,7 +3166,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3116,7 +3206,7 @@
         <v>27</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>18</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3378,19 +3468,19 @@
     </row>
     <row r="3" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>35</v>
@@ -3399,22 +3489,22 @@
         <v>36</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>39</v>
@@ -3429,10 +3519,10 @@
         <v>42</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>43</v>
@@ -3451,13 +3541,13 @@
         <v>49</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
@@ -3474,17 +3564,17 @@
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AR3" s="12" t="s">
         <v>55</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>46</v>
@@ -3507,10 +3597,10 @@
         <v>58</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>59</v>
@@ -3559,7 +3649,7 @@
         <v>73</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="CH3" s="11" t="s">
         <v>74</v>
@@ -3568,39 +3658,39 @@
         <v>75</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>77</v>
@@ -3620,7 +3710,7 @@
         <v>81</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>82</v>
@@ -3647,13 +3737,13 @@
       </c>
       <c r="AC4" s="12"/>
       <c r="AE4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AF4" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="AH4" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>92</v>
@@ -3700,10 +3790,10 @@
         <v>101</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>102</v>
@@ -3754,7 +3844,7 @@
         <v>117</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="CM4" s="3" t="s">
         <v>118</v>
@@ -3763,30 +3853,34 @@
         <v>119</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>120</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>636</v>
+      </c>
       <c r="G5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="3" t="s">
@@ -3796,211 +3890,220 @@
         <v>34</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="V5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AB5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AX5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AW5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BD5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BE5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BF5" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="BI5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BF5" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BP5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BR5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BV5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BX5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="CA5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CB5" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="CB5" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="CC5" s="11" t="s">
         <v>72</v>
       </c>
       <c r="CD5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CH5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="CH5" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="CJ5" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="CN5" s="11"/>
+        <v>686</v>
+      </c>
+      <c r="CM5" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="CP5" s="3" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="6" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>618</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>613</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>602</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W6" s="14" t="s">
         <v>40</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="AK6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AL6" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="AN6" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>70</v>
@@ -4015,421 +4118,418 @@
         <v>73</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AW6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX6" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="AY6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="AZ6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AZ6" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="BA6" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="BC6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD6" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BE6" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BF6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BI6" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BP6" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BR6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BV6" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="BV6" s="11" t="s">
+      <c r="BX6" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="BX6" s="3" t="s">
+      <c r="CA6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="CB6" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="CA6" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="CB6" s="11" t="s">
+      <c r="CC6" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="CG6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="CC6" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="CG6" s="3" t="s">
+      <c r="CH6" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="CH6" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>122</v>
+      <c r="A7" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>610</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>611</v>
+        <v>76</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z7" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AB7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AX7" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BD7" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BE7" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BF7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BK7" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BP7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="BR7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BV7" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="BV7" s="11" t="s">
+      <c r="BX7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="BX7" s="3" t="s">
+      <c r="CA7" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="CB7" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="CA7" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="CB7" s="18" t="s">
+      <c r="CD7" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="CG7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="CD7" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CH7" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="CH7" s="11" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>72</v>
+      <c r="A8" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="T8" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="V8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AX8" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="BC8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BD8" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BE8" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="BF8" s="3" t="s">
+      <c r="BU8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BU8" s="3" t="s">
+      <c r="BV8" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="BW8" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="BW8" s="11" t="s">
+      <c r="BX8" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="BX8" s="3" t="s">
+      <c r="CA8" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="CA8" s="3" t="s">
+      <c r="CB8" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="CB8" s="11" t="s">
+      <c r="CD8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="CD8" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="CG8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="CH8" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="CH8" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="CJ8" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>70</v>
@@ -4438,1185 +4538,1185 @@
         <v>71</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="T9" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="U9" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS9" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AX9" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BE9" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="BX9" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BX9" s="3" t="s">
+      <c r="CA9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="CA9" s="3" t="s">
+      <c r="CB9" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="CB9" s="11" t="s">
+      <c r="CD9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="CD9" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AW10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="BC10" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="BD10" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="BF10" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="BE10" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="BU10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="BX10" s="3" t="s">
+      <c r="CA10" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="CB10" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="CA10" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>316</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="CG10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="CH10" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="CH10" s="11" t="s">
+      <c r="CJ10" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:95" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M11" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="V11" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="AX11" s="11" t="s">
-        <v>329</v>
-      </c>
       <c r="AZ11" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="BE11" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="BE11" s="11" t="s">
+      <c r="BF11" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BV11" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="BX11" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="BX11" s="3" t="s">
+      <c r="CA11" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="CA11" s="3" t="s">
+      <c r="CB11" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="CB11" s="11" t="s">
+      <c r="CD11" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="CD11" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="CG11" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="CH11" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="CH11" s="11" t="s">
-        <v>395</v>
-      </c>
       <c r="CJ11" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="P12" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AW12" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="AW12" s="3" t="s">
+      <c r="AX12" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AZ12" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="BC12" s="24" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="BF12" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="BV12" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="BX12" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="BX12" s="3" t="s">
+      <c r="CA12" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="CA12" s="3" t="s">
+      <c r="CB12" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="CB12" s="11" t="s">
+      <c r="CD12" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="CD12" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="CG12" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="CH12" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="CJ12" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="G13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>375</v>
+        <v>541</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>376</v>
+        <v>540</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AW13" s="3" t="s">
+      <c r="AX13" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="AZ13" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="BD13" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="BE13" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="BE13" s="11" t="s">
+      <c r="BF13" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BF13" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="BU13" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="BV13" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="BV13" s="11" t="s">
+      <c r="BX13" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA13" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="BX13" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="CA13" s="3" t="s">
+      <c r="CB13" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="CB13" s="11" t="s">
+      <c r="CC13" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="CC13" s="11" t="s">
+      <c r="CD13" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>344</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX14" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="BC14" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="BC14" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="BD14" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="BE14" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="BE14" s="11" t="s">
+      <c r="BF14" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="BF14" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BV14" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="BW14" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="BW14" s="11" t="s">
+      <c r="BX14" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CA14" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="BX14" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="CA14" s="3" t="s">
+      <c r="CB14" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="CB14" s="11" t="s">
+      <c r="CC14" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="CC14" s="18" t="s">
+      <c r="CD14" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="S15" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="AR15" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="AT15" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AW15" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="AR15" s="11" t="s">
+      <c r="AX15" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="BV15" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AW15" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="BX15" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="BV15" s="11" t="s">
+      <c r="BY15" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="CA15" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="BX15" s="3" t="s">
+      <c r="CB15" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="BY15" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="CA15" s="3" t="s">
+      <c r="CD15" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="CB15" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="AQ16" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="BU16" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="BW16" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="BX16" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="BW16" s="11" t="s">
+      <c r="CA16" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="BX16" s="3" t="s">
+      <c r="CB16" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="CA16" s="3" t="s">
+      <c r="CC16" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="CB16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="CC16" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="S17" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="BV17" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="BX17" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="CA17" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="BX17" s="3" t="s">
+      <c r="CB17" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="CA17" s="3" t="s">
+      <c r="CD17" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="CB17" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="CD17" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="BU18" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="BV18" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BU18" s="3" t="s">
+      <c r="BX18" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="CA18" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="BX18" s="3" t="s">
+      <c r="CB18" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="CA18" s="3" t="s">
+      <c r="CD18" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="CB18" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="BU19" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="BV19" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="BX19" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="CA19" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="BX19" s="3" t="s">
+      <c r="CB19" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="CA19" s="3" t="s">
+      <c r="CD19" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="CB19" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="BU20" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="BV20" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="BX20" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="BV20" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="BX20" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="CA20" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="CB20" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="BU21" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="BV21" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="BX21" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="BV21" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="BX21" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="BY21" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="CA21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="CB21" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="CD21" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="CB21" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="CD21" s="3" t="s">
-        <v>467</v>
-      </c>
       <c r="CE21" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S22" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="T22" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="BU22" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="BV22" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX22" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="BV22" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="BX22" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="CA22" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="CB22" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="CC22" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="CB22" s="11" t="s">
+      <c r="CD22" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="CC22" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU23" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="BV23" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="BX23" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="BV23" s="11" t="s">
+      <c r="CA23" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="BX23" s="3" t="s">
+      <c r="CB23" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="CA23" s="3" t="s">
+      <c r="CC23" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="CB23" s="11" t="s">
+      <c r="CD23" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="CC23" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="BV24" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="BX24" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="BV24" s="11" t="s">
+      <c r="CA24" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="BX24" s="3" t="s">
+      <c r="CB24" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="CA24" s="3" t="s">
+      <c r="CD24" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="CB24" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="BV25" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="BX25" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="CA25" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="BX25" s="3" t="s">
+      <c r="CB25" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="CA25" s="3" t="s">
+      <c r="CD25" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="CB25" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="BV26" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="BX26" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="CA26" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="BX26" s="3" t="s">
+      <c r="CB26" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="CA26" s="3" t="s">
+      <c r="CC26" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="CB26" s="11" t="s">
+      <c r="CD26" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="CC26" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="CD26" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="BV27" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="BX27" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="BV27" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="BX27" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="CA27" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="CB27" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="CC27" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="CB27" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="CC27" s="11" t="s">
-        <v>585</v>
-      </c>
       <c r="CD27" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="CE27" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="BV28" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="CA28" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="CB28" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="CD28" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="CB28" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="BV29" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="BW29" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="BV29" s="11" t="s">
+      <c r="BX29" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="BW29" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="BX29" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="CA29" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="CB29" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="CC29" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="CB29" s="11" t="s">
+      <c r="CD29" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="CC29" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="CD29" s="3" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="BV30" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="CA30" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="CB30" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="CD30" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA31" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="CB31" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD31" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="CB31" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="CD31" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="CB32" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="CD32" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="CB32" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="CD32" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="CB33" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="CC33" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="CB33" s="18" t="s">
+      <c r="CD33" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="CC33" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="CE33" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="CB34" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="CD34" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="CB34" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="CD34" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="25" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="CB36" s="25"/>
       <c r="CC36" s="25"/>
@@ -5625,24 +5725,24 @@
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="CB37" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="CD37" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="CB37" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="CD37" s="3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="CB38" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="CD38" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -5680,8 +5780,8 @@
     <hyperlink ref="N9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="N10" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="N11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="T8" r:id="rId35" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="O5" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="O6" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
@@ -5877,7 +5977,7 @@
     <hyperlink ref="AX14" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
     <hyperlink ref="BV29" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
     <hyperlink ref="BW29" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="N14" r:id="rId230" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
+    <hyperlink ref="N13" r:id="rId230" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
     <hyperlink ref="B3" r:id="rId231" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
     <hyperlink ref="T19" r:id="rId232" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
     <hyperlink ref="S19" r:id="rId233" display="https://www.canva.cn/" xr:uid="{C6B8A843-2423-453B-9335-8FE92AEA2FB2}"/>
@@ -5904,13 +6004,13 @@
     <hyperlink ref="CO3" r:id="rId254" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
     <hyperlink ref="B4" r:id="rId255" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
     <hyperlink ref="C4" r:id="rId256" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
-    <hyperlink ref="B6" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
-    <hyperlink ref="C6" r:id="rId258" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
-    <hyperlink ref="C7" r:id="rId259" display="https://dribbble.com" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
-    <hyperlink ref="B8" r:id="rId260" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
+    <hyperlink ref="B7" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
+    <hyperlink ref="C7" r:id="rId258" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="C8" r:id="rId259" display="https://dribbble.com" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
+    <hyperlink ref="B5" r:id="rId260" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
     <hyperlink ref="B9" r:id="rId261" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
     <hyperlink ref="C9" r:id="rId262" display="https://search.muz.li" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
-    <hyperlink ref="C8" r:id="rId263" display="https://lanfucai.com" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
+    <hyperlink ref="C5" r:id="rId263" display="https://lanfucai.com" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
     <hyperlink ref="B13" r:id="rId264" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
     <hyperlink ref="B14" r:id="rId265" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
     <hyperlink ref="B15" r:id="rId266" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
@@ -5920,8 +6020,10 @@
     <hyperlink ref="B17" r:id="rId270" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
     <hyperlink ref="AR16" r:id="rId271" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
     <hyperlink ref="I6" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="CN5" r:id="rId273" xr:uid="{8A4A0ACC-C8E4-49FE-A789-307BD2524C2B}"/>
+    <hyperlink ref="CO5" r:id="rId274" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FAFE36-13E2-477F-A1D2-02164F62C458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F7CBE-43B6-4859-8717-0703D09143E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2145" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="721">
   <si>
     <t>nice</t>
   </si>
@@ -2379,10 +2379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tags 火 sqsl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>夏dj导航网址发布页&lt;/br&gt;夏DJ导航由小张用&lt;i style="color:red;"&gt;</t>
     </r>
@@ -2526,6 +2522,47 @@
   </si>
   <si>
     <t>夏DJ导航站的其他域名，建议收藏，以备本站失联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tags 火 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqsl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freehost.cc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费主机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://free.hnzzz.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南站长站免费空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码打不开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">免费 无广告 不止于快！
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费虚拟主机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2668,7 +2705,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2684,6 +2721,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,7 +2748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2786,6 +2829,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3063,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ38"/>
+  <dimension ref="A1:CR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="CP7" sqref="CP7"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="BQ8" sqref="BQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3101,10 +3150,12 @@
     <col min="84" max="84" width="9" style="4"/>
     <col min="85" max="89" width="9" style="3"/>
     <col min="90" max="90" width="9" style="4"/>
-    <col min="91" max="16384" width="9" style="3"/>
+    <col min="91" max="95" width="9" style="3"/>
+    <col min="96" max="96" width="9" style="27"/>
+    <col min="97" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>616</v>
       </c>
@@ -3127,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3206,10 +3257,10 @@
         <v>27</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
-    <row r="2" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
@@ -3465,8 +3516,9 @@
       <c r="CQ2" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="CR2" s="28"/>
     </row>
-    <row r="3" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>544</v>
       </c>
@@ -3477,7 +3529,7 @@
         <v>680</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>640</v>
@@ -3489,7 +3541,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>37</v>
@@ -3504,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>39</v>
@@ -3670,13 +3722,13 @@
         <v>678</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>677</v>
       </c>
@@ -3710,7 +3762,7 @@
         <v>81</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>82</v>
@@ -3853,10 +3905,10 @@
         <v>119</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>609</v>
       </c>
@@ -3890,7 +3942,7 @@
         <v>34</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>33</v>
@@ -3915,13 +3967,13 @@
         <v>130</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>209</v>
+        <v>654</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>210</v>
+        <v>655</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>136</v>
@@ -4015,19 +4067,19 @@
         <v>686</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="CP5" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="CN5" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>708</v>
-      </c>
     </row>
-    <row r="6" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>618</v>
       </c>
@@ -4046,7 +4098,7 @@
         <v>159</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>160</v>
@@ -4088,13 +4140,16 @@
         <v>601</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>172</v>
@@ -4199,7 +4254,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>615</v>
       </c>
@@ -4260,16 +4315,13 @@
         <v>204</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>211</v>
@@ -4364,8 +4416,23 @@
       <c r="CJ7" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="CM7" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="CP7" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="CR7" s="27" t="s">
+        <v>720</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>644</v>
       </c>
@@ -4422,13 +4489,13 @@
         <v>620</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>557</v>
@@ -4446,7 +4513,7 @@
         <v>252</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AT8" s="3" t="s">
         <v>253</v>
@@ -4472,6 +4539,7 @@
       <c r="BF8" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
         <v>258</v>
       </c>
@@ -4502,8 +4570,20 @@
       <c r="CJ8" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="CM8" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="CP8" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="CR8" s="27" t="s">
+        <v>717</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>592</v>
       </c>
@@ -4538,7 +4618,7 @@
         <v>71</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>73</v>
@@ -4559,13 +4639,13 @@
         <v>271</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="AQ9" s="3" t="s">
         <v>275</v>
@@ -4631,7 +4711,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>575</v>
       </c>
@@ -4678,15 +4758,6 @@
       <c r="V10" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>667</v>
-      </c>
       <c r="AQ10" s="3" t="s">
         <v>306</v>
       </c>
@@ -4745,7 +4816,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:95" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>567</v>
       </c>
@@ -4847,13 +4918,16 @@
         <v>591</v>
       </c>
     </row>
-    <row r="12" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>680</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>292</v>
       </c>
@@ -4867,7 +4941,7 @@
         <v>345</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>346</v>
@@ -4888,11 +4962,20 @@
         <v>350</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>607</v>
       </c>
+      <c r="AE12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="AQ12" s="3" t="s">
         <v>354</v>
       </c>
@@ -4951,7 +5034,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>621</v>
       </c>
@@ -4983,7 +5066,7 @@
         <v>540</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>77</v>
@@ -5046,7 +5129,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>342</v>
       </c>
@@ -5132,7 +5215,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>369</v>
       </c>
@@ -5143,7 +5226,7 @@
         <v>605</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T15" s="18" t="s">
         <v>416</v>
@@ -5212,7 +5295,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>554</v>
       </c>
@@ -5294,7 +5377,7 @@
         <v>438</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>439</v>
@@ -5815,7 +5898,7 @@
     <hyperlink ref="AX12" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="AF3" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="AF4" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AF5" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AF12" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="AL3" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="AL4" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="AR3" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
@@ -5994,11 +6077,11 @@
     <hyperlink ref="CC27" r:id="rId244" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
     <hyperlink ref="CB20" r:id="rId245" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
     <hyperlink ref="AX15" r:id="rId246" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
-    <hyperlink ref="AF6" r:id="rId247" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
-    <hyperlink ref="AF7" r:id="rId248" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
-    <hyperlink ref="AF8" r:id="rId249" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
-    <hyperlink ref="AF9" r:id="rId250" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
-    <hyperlink ref="AF10" r:id="rId251" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
+    <hyperlink ref="AF5" r:id="rId247" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
+    <hyperlink ref="AF6" r:id="rId248" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
+    <hyperlink ref="AF7" r:id="rId249" xr:uid="{ECED4247-BA1C-4F4F-98A3-C20FFE4F203C}"/>
+    <hyperlink ref="AF8" r:id="rId250" xr:uid="{19C1CFCC-3080-4DF2-AE0B-8DAF9E454E37}"/>
+    <hyperlink ref="AF9" r:id="rId251" xr:uid="{E77EC318-6ED1-43D4-867F-6F6A08312D86}"/>
     <hyperlink ref="BD12" r:id="rId252" xr:uid="{E1783660-5F31-4EBF-B7CE-8CAE9235806D}"/>
     <hyperlink ref="CN4" r:id="rId253" xr:uid="{2449811A-66FF-4E8A-AA92-42F92E4D7AD4}"/>
     <hyperlink ref="CO3" r:id="rId254" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
@@ -6022,8 +6105,10 @@
     <hyperlink ref="I6" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="CN5" r:id="rId273" xr:uid="{8A4A0ACC-C8E4-49FE-A789-307BD2524C2B}"/>
     <hyperlink ref="CO5" r:id="rId274" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
+    <hyperlink ref="CN7" r:id="rId275" xr:uid="{028D6BFE-3A19-4B38-954C-A8266860A286}"/>
+    <hyperlink ref="CN8" r:id="rId276" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId275"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId277"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F7CBE-43B6-4859-8717-0703D09143E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D86B6E-FB1F-4DF8-8744-22E087234C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2145" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="2490" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="724">
   <si>
     <t>nice</t>
   </si>
@@ -98,9 +98,6 @@
     <t>soutu</t>
   </si>
   <si>
-    <t>🧰 常用工具~查询</t>
-  </si>
-  <si>
     <t>tools</t>
   </si>
   <si>
@@ -398,9 +395,6 @@
     <t>https://17yongai.com</t>
   </si>
   <si>
-    <t>https://17yongai.com/wp-content/uploads/2023/02/logo.png</t>
-  </si>
-  <si>
     <t>Collect UI</t>
   </si>
   <si>
@@ -1328,9 +1322,6 @@
     <t>http://tool.lanrentuku.com/guifan/ui.html</t>
   </si>
   <si>
-    <t>https://3o.hk/images/2023/04/17/28.png</t>
-  </si>
-  <si>
     <t>iPhone/iPad/Android UI尺寸规范</t>
   </si>
   <si>
@@ -1485,9 +1476,6 @@
   </si>
   <si>
     <t>http://www.sheji567.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o78.png</t>
   </si>
   <si>
     <t>素材,图库,图片,图片下载,设计素材,PSD,矢量,AI,CDR,EPS,设计,免费素材网,素材天下,PS素材</t>
@@ -1938,10 +1926,6 @@
   </si>
   <si>
     <t>资源汇社区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230813/615113114059608064.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2331,10 +2315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>艺术与科技的双重碰撞，也是设计系大学生制作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2406,10 +2386,6 @@
   </si>
   <si>
     <t>https://cdn.yopngs.com/2023/08/15/960bdb56-7fb7-4f6f-87ad-1bfb6506e2a4.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.yopngs.com/2023/08/15/1802decd-b67a-41f6-812c-bceb2bef5f9e.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2563,6 +2539,85 @@
   </si>
   <si>
     <t>寄了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dummyimage.com/1x1/e8f6f8/fff.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🧰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在线工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>~查询</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tools.fun/xmind.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tools.fun/assets/image/6f33286edb.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线xmind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xmind在线思维导图制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/17/tmp103Ef842268797ce4d4f.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/17/tmp9C5F031035118aaa34a7.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o78.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thirdqq.qlogo.cn/g?b=sdk&amp;k=5xRdd9uNmWVckXArSWok5g&amp;kti=ZLVsYAAAAAA&amp;s=100&amp;t=1611901576</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3114,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="BQ8" sqref="BQ8"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="CO3" sqref="CO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3157,7 +3212,7 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3166,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3178,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3217,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3235,2597 +3290,2630 @@
       <c r="BP1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CM1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="CM1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="CN1" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="AV2" s="8"/>
       <c r="AW2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="BB2" s="8"/>
       <c r="BC2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="BH2" s="9"/>
       <c r="BI2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BK2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BL2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BM2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="BN2" s="9"/>
       <c r="BO2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BR2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BS2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="BT2" s="8"/>
       <c r="BU2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BY2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="BZ2" s="8"/>
       <c r="CA2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CD2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CE2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="CF2" s="8"/>
       <c r="CG2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CI2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CJ2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="CJ2" s="7" t="s">
+      <c r="CK2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="CL2" s="8"/>
       <c r="CM2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CN2" s="7" t="s">
+      <c r="CO2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="CO2" s="7" t="s">
+      <c r="CP2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="CQ2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="CR2" s="28"/>
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>680</v>
+        <v>572</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="S3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="V3" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="AA3" s="13"/>
       <c r="AB3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="AG3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="AH3" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AW3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX3" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="AX3" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BA3" s="14"/>
       <c r="BC3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="BG3" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="BI3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="BG3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BK3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BL3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="BN3" s="6"/>
       <c r="BO3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BQ3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BR3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BV3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BX3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CB3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="CB3" s="11" t="s">
+      <c r="CC3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="CC3" s="11" t="s">
+      <c r="CD3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="CH3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="CG3" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="CH3" s="11" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="CJ3" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="CK3" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="S4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AE4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL4" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO4" s="12"/>
       <c r="AQ4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AS4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AT4" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AW4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX4" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="AY4" s="12"/>
       <c r="AZ4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BA4" s="12"/>
       <c r="BC4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BF4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="BI4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BF4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BJ4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BK4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BL4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BP4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BR4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BV4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="BV4" s="11" t="s">
+      <c r="BX4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CB4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="CB4" s="11" t="s">
+      <c r="CD4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CH4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CJ4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="CJ4" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CN4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CN4" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="CP4" s="3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>714</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="O5" s="23" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="Y5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="Z5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AX5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AZ5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="BD5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AW5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BE5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BF5" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="BI5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BR5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BU5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BV5" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BV5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="BX5" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="CA5" s="3" t="s">
-        <v>153</v>
+        <v>683</v>
       </c>
       <c r="CB5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC5" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="CG5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="CC5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CH5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="CG5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="CH5" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="CJ5" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="CM5" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="CO5" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="CP5" s="3" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>579</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>714</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>699</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AY6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="BC6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="BD6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AN6" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BE6" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BF6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="BF6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BP6" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BR6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BU6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BV6" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="BV6" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="BX6" s="3" t="s">
+      <c r="CA6" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="CB6" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="CG6" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="CA6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="CB6" s="11" t="s">
+      <c r="CH6" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="CC6" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="CG6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="CH6" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>610</v>
+        <v>714</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="P7" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AE7" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AX7" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="AS7" s="11" t="s">
+      <c r="AZ7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="BD7" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BE7" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BF7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BK7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BP7" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BR7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="BU7" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BV7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BX7" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="BV7" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="BX7" s="3" t="s">
+      <c r="CA7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="CB7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="CD7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="CG7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="CA7" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="CB7" s="18" t="s">
+      <c r="CH7" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="CD7" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="CH7" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="CM7" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="CN7" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="CP7" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="CR7" s="27" t="s">
         <v>713</v>
-      </c>
-      <c r="CP7" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="CR7" s="27" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>714</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="M8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="N8" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="Y8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Z8" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AX8" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AZ8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="BD8" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BE8" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="BE8" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV8" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW8" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="BX8" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="BW8" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="BX8" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="CA8" s="3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="CB8" s="11" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="CG8" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="CH8" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="CM8" s="3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="CN8" s="1" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="CP8" s="24" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="CR8" s="27" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>611</v>
+        <v>188</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>714</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="M9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="T9" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="U9" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AX9" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AZ9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AT9" s="3" t="s">
+      <c r="BD9" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AU9" s="3" t="s">
+      <c r="BE9" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="BU9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="BV9" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="BX9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA9" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="CB9" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="CD9" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="CG9" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="CH9" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="CJ9" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AW9" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="BD9" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="BE9" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="BF9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BU9" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="BV9" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="BX9" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CA9" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="CB9" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="CD9" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="CG9" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="CH9" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="CJ9" s="3" t="s">
-        <v>233</v>
+      <c r="Q10" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX10" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="BD10" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="BU10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="BV10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="BX10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="CA10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB10" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="CD10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="CG10" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="CH10" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="CJ10" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW10" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="BC10" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="BD10" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="BE10" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="BU10" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="BV10" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="BX10" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="CA10" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="CD10" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="CG10" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="CH10" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:96" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>580</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>714</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="J11" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="M11" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="S11" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>328</v>
-      </c>
       <c r="AZ11" s="22" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="BE11" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="BE11" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BV11" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="BX11" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="BV11" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="BX11" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="CA11" s="3" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="CB11" s="11" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="CG11" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="CH11" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="S12" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="BC12" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="BU12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="BV12" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="BX12" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="CA12" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CB12" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="CC12" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="CD12" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="CG12" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="CH12" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="CJ12" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AR12" s="11" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AW13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX13" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="BC13" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="BD13" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE13" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BU13" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="BV13" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="CA13" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CB13" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="CC13" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="CD13" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX14" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="BD14" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AT12" s="3" t="s">
+      <c r="BE14" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AW12" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AZ12" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="BC12" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="BG12" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="BU12" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="BV12" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="BX12" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="CA12" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="CB12" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="CD12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="CG12" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="CJ12" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ13" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AW13" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ13" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="BC13" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="BD13" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="BE13" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="BF13" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="BU13" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="BV13" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="BX13" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="CA13" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="CB13" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="CC13" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="BC14" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="BD14" s="11" t="s">
+      <c r="BF14" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="BE14" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="BV14" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="BW14" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="BV14" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="BW14" s="11" t="s">
-        <v>411</v>
-      </c>
       <c r="BX14" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CA14" s="3" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="CB14" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="CC14" s="18" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="CD14" s="3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="T15" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR15" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="AT15" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW15" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="AR15" s="11" t="s">
+      <c r="BA15" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="BV15" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="AW15" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="BX15" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="BV15" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="BX15" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="BY15" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="CA15" s="3" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="CB15" s="11" t="s">
-        <v>424</v>
+        <v>431</v>
+      </c>
+      <c r="CC15" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="CD15" s="3" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="AQ16" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="BU16" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="BW16" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="BX16" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="BV16" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="BW16" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="BX16" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="CA16" s="3" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="CB16" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="CC16" s="11" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="CD16" s="3" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>577</v>
+        <v>573</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="S17" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="BV17" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="CA17" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="CB17" s="11" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="BU18" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="BV18" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="BX18" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="BU18" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV18" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX18" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="CA18" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="CB18" s="11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="BU19" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="BV19" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="CA19" s="3" t="s">
-        <v>457</v>
+        <v>623</v>
       </c>
       <c r="CB19" s="11" t="s">
-        <v>458</v>
+        <v>622</v>
       </c>
       <c r="CD19" s="3" t="s">
-        <v>459</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="BU20" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="BV20" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="BX20" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="CA20" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="BV20" s="11" t="s">
+      <c r="CB20" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="BX20" s="3" t="s">
+      <c r="CD20" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="CA20" s="3" t="s">
+      <c r="CE20" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="CB20" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="CD20" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="BU21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="BV21" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="BX21" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="BY21" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="CA21" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="BV21" s="11" t="s">
+      <c r="CB21" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="BX21" s="3" t="s">
+      <c r="CC21" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="BY21" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="CA21" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="CB21" s="18" t="s">
-        <v>464</v>
-      </c>
       <c r="CD21" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="CE21" s="3" t="s">
-        <v>633</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="S22" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="BU22" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="BV22" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="BX22" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="CA22" s="3" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="CB22" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="CC22" s="11" t="s">
-        <v>471</v>
+        <v>480</v>
+      </c>
+      <c r="CC22" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="CD22" s="3" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU23" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="BV23" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="BX23" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="CA23" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="CB23" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="CC23" s="11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="CD23" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="BV24" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="BX24" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="CA24" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="CB24" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="CD24" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="BV25" s="16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="BX25" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="CA25" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="CB25" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
+      </c>
+      <c r="CC25" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="CD25" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="BV26" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="BX26" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="CA26" s="3" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="CB26" s="11" t="s">
-        <v>502</v>
+        <v>577</v>
       </c>
       <c r="CC26" s="11" t="s">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="CD26" s="3" t="s">
-        <v>504</v>
+        <v>576</v>
+      </c>
+      <c r="CE26" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="BV27" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="BX27" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="CA27" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="CB27" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="BV27" s="11" t="s">
+      <c r="CD27" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="BX27" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="CA27" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="CB27" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="CC27" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="CD27" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="CE27" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="BV28" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX28" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="CA28" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="CB28" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="CC28" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="BV28" s="11" t="s">
+      <c r="CD28" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="BX28" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="CA28" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="CB28" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="BV29" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="BW29" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="BX29" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="CA29" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="BX29" s="3" t="s">
+      <c r="CB29" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="CA29" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="CB29" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="CC29" s="11" t="s">
-        <v>515</v>
-      </c>
       <c r="CD29" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="BV30" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="CA30" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="CB30" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="CD30" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="CB30" s="11" t="s">
+    </row>
+    <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BU31" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="BX31" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="CA31" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="CD30" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="CA31" s="3" t="s">
+      <c r="CB31" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="CB31" s="15" t="s">
+      <c r="CD31" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="CD31" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB32" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="CB32" s="11" t="s">
+      <c r="CC32" s="11" t="s">
         <v>529</v>
       </c>
       <c r="CD32" s="3" t="s">
         <v>530</v>
+      </c>
+      <c r="CE32" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="CB33" s="18" t="s">
+      <c r="CB33" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="CC33" s="11" t="s">
+      <c r="CD33" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="CD33" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="CE33" s="3" t="s">
-        <v>633</v>
-      </c>
     </row>
-    <row r="34" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA34" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="CB34" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="CD34" s="3" t="s">
-        <v>537</v>
-      </c>
+    <row r="35" spans="79:83" x14ac:dyDescent="0.2">
+      <c r="CA35" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="CB35" s="25"/>
+      <c r="CC35" s="25"/>
+      <c r="CD35" s="25"/>
+      <c r="CE35" s="25"/>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA36" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="CB36" s="25"/>
-      <c r="CC36" s="25"/>
-      <c r="CD36" s="25"/>
-      <c r="CE36" s="25"/>
+      <c r="CA36" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="CB36" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="CD36" s="3" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="CB37" s="11" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="CD37" s="3" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
-        <v>521</v>
+        <v>151</v>
       </c>
       <c r="CB38" s="11" t="s">
-        <v>522</v>
+        <v>152</v>
+      </c>
+      <c r="CC38" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="CD38" s="3" t="s">
-        <v>516</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5959,30 +6047,30 @@
     <hyperlink ref="CN3" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="CB3" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
     <hyperlink ref="CB4" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="CB5" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="CB6" r:id="rId130" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="CB8" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="CB9" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="CB13" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="CB14" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="CB15" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="CB16" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="CB17" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="CB18" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="CB19" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="CB22" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="CB21" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="CB37" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="CB23" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="CB24" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="CB25" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="CB26" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB28" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB29" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB38" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB30" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB31" r:id="rId151" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB32" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CB38" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="CB5" r:id="rId130" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="CB7" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CB8" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CB12" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="CB13" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="CB14" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="CB15" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CB16" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CB17" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CB18" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="CB21" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="CB20" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="CB36" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB22" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB23" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB24" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB25" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB27" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB28" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB37" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB29" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB30" r:id="rId151" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB31" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="CH3" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
     <hyperlink ref="CH4" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
     <hyperlink ref="CH5" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
@@ -6020,14 +6108,14 @@
     <hyperlink ref="BQ3" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
     <hyperlink ref="BW14" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
     <hyperlink ref="CC3" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="CC5" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="CC6" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="CC16" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="CC13" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC29" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="CC22" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC26" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC23" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="CC38" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC5" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="CC15" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CC12" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC28" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC21" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC25" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC22" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
     <hyperlink ref="BW16" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="AX13" r:id="rId199" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="BV8" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
@@ -6037,19 +6125,19 @@
     <hyperlink ref="AR14" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
     <hyperlink ref="AR15" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
     <hyperlink ref="AS14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="CC14" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="CC13" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
     <hyperlink ref="T18" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="CB7" r:id="rId209" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="CB6" r:id="rId209" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="H13" r:id="rId210" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="I13" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="CB33" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC33" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="CB10" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="CB32" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC32" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="CB9" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="Z7" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="CB12" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="CB11" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="CB11" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB10" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
     <hyperlink ref="H14" r:id="rId218" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB34" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="CB33" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
     <hyperlink ref="AL5" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
     <hyperlink ref="AL6" r:id="rId221" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
     <hyperlink ref="AL7" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
@@ -6073,9 +6161,9 @@
     <hyperlink ref="T22" r:id="rId240" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
     <hyperlink ref="CH12" r:id="rId241" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
     <hyperlink ref="BV30" r:id="rId242" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
-    <hyperlink ref="CB27" r:id="rId243" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
-    <hyperlink ref="CC27" r:id="rId244" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
-    <hyperlink ref="CB20" r:id="rId245" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
+    <hyperlink ref="CB26" r:id="rId243" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
+    <hyperlink ref="CC26" r:id="rId244" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
+    <hyperlink ref="CB19" r:id="rId245" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
     <hyperlink ref="AX15" r:id="rId246" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
     <hyperlink ref="AF5" r:id="rId247" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
     <hyperlink ref="AF6" r:id="rId248" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
@@ -6086,14 +6174,14 @@
     <hyperlink ref="CN4" r:id="rId253" xr:uid="{2449811A-66FF-4E8A-AA92-42F92E4D7AD4}"/>
     <hyperlink ref="CO3" r:id="rId254" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
     <hyperlink ref="B4" r:id="rId255" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
-    <hyperlink ref="C4" r:id="rId256" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
+    <hyperlink ref="C4" r:id="rId256" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
     <hyperlink ref="B7" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
-    <hyperlink ref="C7" r:id="rId258" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
-    <hyperlink ref="C8" r:id="rId259" display="https://dribbble.com" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
+    <hyperlink ref="C7" r:id="rId258" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="C8" r:id="rId259" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
     <hyperlink ref="B5" r:id="rId260" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
     <hyperlink ref="B9" r:id="rId261" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
-    <hyperlink ref="C9" r:id="rId262" display="https://search.muz.li" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
-    <hyperlink ref="C5" r:id="rId263" display="https://lanfucai.com" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
+    <hyperlink ref="C9" r:id="rId262" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
+    <hyperlink ref="C5" r:id="rId263" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
     <hyperlink ref="B13" r:id="rId264" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
     <hyperlink ref="B14" r:id="rId265" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
     <hyperlink ref="B15" r:id="rId266" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
@@ -6104,11 +6192,22 @@
     <hyperlink ref="AR16" r:id="rId271" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
     <hyperlink ref="I6" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="CN5" r:id="rId273" xr:uid="{8A4A0ACC-C8E4-49FE-A789-307BD2524C2B}"/>
-    <hyperlink ref="CO5" r:id="rId274" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
-    <hyperlink ref="CN7" r:id="rId275" xr:uid="{028D6BFE-3A19-4B38-954C-A8266860A286}"/>
-    <hyperlink ref="CN8" r:id="rId276" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
+    <hyperlink ref="CN7" r:id="rId274" xr:uid="{028D6BFE-3A19-4B38-954C-A8266860A286}"/>
+    <hyperlink ref="CN8" r:id="rId275" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
+    <hyperlink ref="C3" r:id="rId276" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{3751165F-A3FF-4E0F-84F3-2354A108C27B}"/>
+    <hyperlink ref="C6" r:id="rId277" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E07BFE99-02AB-4A3C-8ECC-0E8828DBF273}"/>
+    <hyperlink ref="C10" r:id="rId278" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{8D65450F-C679-42F4-976D-A979FF1DE899}"/>
+    <hyperlink ref="C11" r:id="rId279" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{2B634BC2-DA35-477F-A151-B3D7781FBF3B}"/>
+    <hyperlink ref="C13" r:id="rId280" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{6E7FD256-26C5-495C-B1BE-790D7ABBD554}"/>
+    <hyperlink ref="C14" r:id="rId281" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{75D0D4CB-E8A4-4996-B63E-FB9C5E1A45CB}"/>
+    <hyperlink ref="C15" r:id="rId282" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5FA63A31-FFC2-48A7-9968-CAE774FEF3C6}"/>
+    <hyperlink ref="C16" r:id="rId283" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E150B6DC-2D8B-4609-85B9-145EF2923377}"/>
+    <hyperlink ref="C17" r:id="rId284" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{DA17F930-9795-47D6-916A-1C3311D91CA9}"/>
+    <hyperlink ref="BV31" r:id="rId285" xr:uid="{A3C6F73E-1A67-4751-9A93-5B7D5ED0EBB5}"/>
+    <hyperlink ref="BW31" r:id="rId286" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
+    <hyperlink ref="CO5" r:id="rId287" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId277"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId288"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D86B6E-FB1F-4DF8-8744-22E087234C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B74201-B81F-48C8-A536-41D240AE286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1065" yWindow="2490" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,9 +858,6 @@
   </si>
   <si>
     <t>http://zh.snipaste.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o73.png</t>
   </si>
   <si>
     <t>👍Snipaste 是一个简单但强大的截图工具，也可以让你将截图贴回到屏幕上！</t>
@@ -2618,6 +2615,10 @@
   </si>
   <si>
     <t>https://thirdqq.qlogo.cn/g?b=sdk&amp;k=5xRdd9uNmWVckXArSWok5g&amp;kti=ZLVsYAAAAAA&amp;s=100&amp;t=1611901576</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230818/616924320318914560.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3169,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="CO3" sqref="CO3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3212,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3221,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3233,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3272,7 +3273,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3291,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="BU1" s="26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>21</v>
@@ -3312,7 +3313,7 @@
         <v>26</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3575,19 +3576,19 @@
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
@@ -3596,22 +3597,22 @@
         <v>35</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>38</v>
@@ -3626,10 +3627,10 @@
         <v>41</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>42</v>
@@ -3648,13 +3649,13 @@
         <v>48</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
@@ -3671,17 +3672,17 @@
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AR3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>45</v>
@@ -3704,10 +3705,10 @@
         <v>57</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>58</v>
@@ -3756,7 +3757,7 @@
         <v>72</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CH3" s="11" t="s">
         <v>73</v>
@@ -3765,39 +3766,39 @@
         <v>74</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>76</v>
@@ -3817,7 +3818,7 @@
         <v>80</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>81</v>
@@ -3850,7 +3851,7 @@
         <v>133</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>91</v>
@@ -3897,10 +3898,10 @@
         <v>100</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>101</v>
@@ -3951,7 +3952,7 @@
         <v>116</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CM4" s="3" t="s">
         <v>117</v>
@@ -3960,24 +3961,24 @@
         <v>118</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>120</v>
@@ -3997,7 +3998,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>32</v>
@@ -4022,13 +4023,13 @@
         <v>128</v>
       </c>
       <c r="AE5" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>134</v>
@@ -4037,7 +4038,7 @@
         <v>135</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>136</v>
@@ -4067,10 +4068,10 @@
         <v>141</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>142</v>
@@ -4101,16 +4102,16 @@
         <v>150</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CB5" s="11" t="s">
         <v>185</v>
       </c>
       <c r="CC5" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>154</v>
@@ -4119,33 +4120,33 @@
         <v>155</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="CP5" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
@@ -4155,7 +4156,7 @@
         <v>157</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>158</v>
@@ -4188,25 +4189,25 @@
         <v>39</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>597</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>653</v>
-      </c>
       <c r="AI6" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>170</v>
@@ -4215,7 +4216,7 @@
         <v>171</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>69</v>
@@ -4230,7 +4231,7 @@
         <v>72</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>166</v>
@@ -4245,7 +4246,7 @@
         <v>169</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>172</v>
@@ -4260,7 +4261,7 @@
         <v>175</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BJ6" s="11" t="s">
         <v>177</v>
@@ -4290,13 +4291,13 @@
         <v>184</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="CB6" s="18" t="s">
         <v>228</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CG6" s="3" t="s">
         <v>186</v>
@@ -4305,18 +4306,18 @@
         <v>187</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>75</v>
@@ -4369,13 +4370,13 @@
         <v>202</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF7" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>209</v>
@@ -4384,7 +4385,7 @@
         <v>210</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>211</v>
@@ -4420,7 +4421,7 @@
         <v>218</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>219</v>
@@ -4471,33 +4472,33 @@
         <v>231</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="CP7" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="CR7" s="27" t="s">
         <v>712</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="CR7" s="27" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>233</v>
@@ -4540,25 +4541,25 @@
         <v>245</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AE8" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>659</v>
-      </c>
       <c r="AK8" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN8" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="AQ8" s="3" t="s">
         <v>249</v>
@@ -4567,7 +4568,7 @@
         <v>250</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AT8" s="3" t="s">
         <v>251</v>
@@ -4607,51 +4608,51 @@
         <v>259</v>
       </c>
       <c r="CA8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB8" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="CB8" s="11" t="s">
+      <c r="CD8" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="CD8" s="3" t="s">
+      <c r="CG8" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="CG8" s="3" t="s">
+      <c r="CH8" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="CH8" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="CJ8" s="3" t="s">
         <v>231</v>
       </c>
       <c r="CM8" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="CP8" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="CR8" s="27" t="s">
         <v>709</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="CP8" s="24" t="s">
-        <v>711</v>
-      </c>
-      <c r="CR8" s="27" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>263</v>
@@ -4660,7 +4661,7 @@
         <v>264</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>265</v>
@@ -4672,13 +4673,13 @@
         <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>266</v>
@@ -4693,13 +4694,13 @@
         <v>269</v>
       </c>
       <c r="AE9" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AH9" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>662</v>
       </c>
       <c r="AQ9" s="3" t="s">
         <v>273</v>
@@ -4707,14 +4708,14 @@
       <c r="AR9" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AS9" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="AT9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AT9" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="AU9" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AW9" s="3" t="s">
         <v>270</v>
@@ -4726,40 +4727,40 @@
         <v>272</v>
       </c>
       <c r="BC9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="BD9" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BE9" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="BX9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="BX9" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="CA9" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="CB9" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CJ9" s="3" t="s">
         <v>231</v>
@@ -4767,213 +4768,213 @@
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AW10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="BC10" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BD10" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF10" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="BE10" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="BU10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="BX10" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="CA10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="CB10" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="CB10" s="11" t="s">
+      <c r="CD10" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="CD10" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="CG10" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="CH10" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="CH10" s="11" t="s">
+      <c r="CJ10" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="G11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M11" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="V11" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AX11" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="AZ11" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="BE11" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="BE11" s="11" t="s">
+      <c r="BF11" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BV11" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="BX11" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BX11" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="CA11" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="CB11" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="CB11" s="11" t="s">
+      <c r="CD11" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="CD11" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="CG11" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="CH11" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="CH11" s="11" t="s">
-        <v>392</v>
-      </c>
       <c r="CJ11" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
@@ -4981,49 +4982,49 @@
         <v>193</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="P12" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="S12" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>206</v>
@@ -5035,845 +5036,845 @@
         <v>208</v>
       </c>
       <c r="AQ12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR12" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AR12" s="11" t="s">
+      <c r="AT12" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AT12" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="AW12" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX12" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="AZ12" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="BC12" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="BD12" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>666</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="BV12" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="BX12" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="BX12" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="CA12" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB12" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="CB12" s="11" t="s">
+      <c r="CC12" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="CC12" s="11" t="s">
+      <c r="CD12" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="CD12" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="CG12" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="CH12" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="CJ12" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="CJ12" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="G13" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AW13" s="3" t="s">
+      <c r="AX13" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AZ13" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BD13" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="BE13" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="BE13" s="11" t="s">
+      <c r="BF13" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="BF13" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="BU13" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="BV13" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="BV13" s="11" t="s">
-        <v>386</v>
-      </c>
       <c r="BX13" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="CA13" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CB13" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="CB13" s="11" t="s">
+      <c r="CC13" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="CC13" s="18" t="s">
+      <c r="CD13" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>341</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="V14" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AQ14" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AW14" s="3" t="s">
+      <c r="AX14" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="AZ14" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BD14" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="BE14" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="BE14" s="11" t="s">
+      <c r="BF14" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="BF14" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="BV14" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="BW14" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="BW14" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="BX14" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="CA14" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="CB14" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="CB14" s="11" t="s">
+      <c r="CD14" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="T15" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
+      <c r="AR15" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="AR15" s="11" t="s">
+      <c r="AT15" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="AW15" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="AW15" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="BV15" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="BV15" s="11" t="s">
+      <c r="BX15" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="BX15" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="BY15" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="CA15" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="CB15" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="CB15" s="11" t="s">
+      <c r="CC15" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="CC15" s="11" t="s">
+      <c r="CD15" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="V16" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="AQ16" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="BU16" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="BW16" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="BX16" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="BW16" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="BX16" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="CA16" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="CB16" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="CB16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="P17" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="S17" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="BV17" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="BX17" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="BX17" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="CA17" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="CB17" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="CB17" s="11" t="s">
+      <c r="CD17" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="CD17" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="BU18" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="BU18" s="3" t="s">
+      <c r="BV18" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="BX18" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="BX18" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="CA18" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB18" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="CB18" s="11" t="s">
+      <c r="CD18" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BU19" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="BV19" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="BX19" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="BX19" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="CA19" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="CB19" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="CD19" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="CB19" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="BU20" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="BV20" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="BV20" s="11" t="s">
+      <c r="BX20" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="BX20" s="3" t="s">
+      <c r="CA20" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="CA20" s="3" t="s">
+      <c r="CB20" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="CB20" s="18" t="s">
+      <c r="CD20" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="CD20" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="CE20" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="BU21" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="BV21" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="BV21" s="11" t="s">
+      <c r="BX21" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="BX21" s="3" t="s">
+      <c r="BY21" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="CA21" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="BY21" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="CA21" s="3" t="s">
+      <c r="CB21" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="CB21" s="11" t="s">
+      <c r="CC21" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="CC21" s="11" t="s">
+      <c r="CD21" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="CD21" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="S22" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>558</v>
-      </c>
       <c r="BU22" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="BV22" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="BV22" s="11" t="s">
+      <c r="BX22" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="BX22" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="CA22" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="CB22" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="CB22" s="11" t="s">
+      <c r="CC22" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="CD22" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU23" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="BV23" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="BV23" s="11" t="s">
+      <c r="BX23" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="BX23" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="CA23" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="CB23" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="CB23" s="11" t="s">
+      <c r="CD23" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="BV24" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="BV24" s="11" t="s">
+      <c r="BX24" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="BX24" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="CA24" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="CB24" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="CB24" s="11" t="s">
+      <c r="CD24" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="BV25" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BX25" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="BX25" s="3" t="s">
-        <v>490</v>
-      </c>
       <c r="CA25" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="CB25" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="CB25" s="11" t="s">
+      <c r="CC25" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="CC25" s="11" t="s">
+      <c r="CD25" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="BV26" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="BX26" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="BX26" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="CA26" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="CB26" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="CC26" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="CD26" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="CB26" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="CC26" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="CD26" s="3" t="s">
-        <v>576</v>
-      </c>
       <c r="CE26" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="BV27" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="BV27" s="11" t="s">
+      <c r="BX27" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="BX27" s="3" t="s">
+      <c r="CA27" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="CA27" s="3" t="s">
+      <c r="CB27" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="CB27" s="11" t="s">
+      <c r="CD27" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="CD27" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="BV28" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="BV28" s="11" t="s">
+      <c r="BX28" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="CA28" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="BX28" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="CA28" s="3" t="s">
+      <c r="CB28" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="CB28" s="11" t="s">
+      <c r="CC28" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="CC28" s="11" t="s">
+      <c r="CD28" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="BV29" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="BV29" s="11" t="s">
+      <c r="BW29" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="BW29" s="11" t="s">
+      <c r="BX29" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="BX29" s="3" t="s">
-        <v>516</v>
-      </c>
       <c r="CA29" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="CB29" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="CB29" s="11" t="s">
-        <v>520</v>
-      </c>
       <c r="CD29" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV30" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="BX30" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="BV30" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="BX30" s="3" t="s">
-        <v>568</v>
-      </c>
       <c r="CA30" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="CB30" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="CB30" s="15" t="s">
+      <c r="CD30" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="CD30" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="BX31" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="BV31" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="BW31" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="BX31" s="3" t="s">
-        <v>719</v>
-      </c>
       <c r="CA31" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="CB31" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="CB31" s="11" t="s">
+      <c r="CD31" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="CD31" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB32" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="CB32" s="18" t="s">
+      <c r="CC32" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="CC32" s="11" t="s">
+      <c r="CD32" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="CD32" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="CE32" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="CB33" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="CB33" s="11" t="s">
+      <c r="CD33" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="35" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA35" s="25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CB35" s="25"/>
       <c r="CC35" s="25"/>
@@ -5882,24 +5883,24 @@
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="CB36" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="CB36" s="11" t="s">
+      <c r="CD36" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="CD36" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="CB37" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="CB37" s="11" t="s">
-        <v>518</v>
-      </c>
       <c r="CD37" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B74201-B81F-48C8-A536-41D240AE286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E12CF42-2CFC-49B3-A5F4-D59E95C9E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2490" windowWidth="23520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="727">
   <si>
     <t>nice</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>👍毕业论文资源,文献综述,文献综述模板,毕业论文降重,论文降重,毕业论文任务书</t>
-  </si>
-  <si>
-    <t>一个别人做的免费影视导航站</t>
   </si>
   <si>
     <t>Dribbble</t>
@@ -2619,6 +2616,22 @@
   </si>
   <si>
     <t>https://cdn.h5ds.com/space/files/600972551685382144/20230818/616924320318914560.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cupfox.app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个别人做的免费影视导航站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力让找电影变得简单,一个影视资源聚合搜索引擎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶杯狐（影视）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3170,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3213,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3222,10 +3235,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3234,7 +3247,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3273,7 +3286,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3292,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="BU1" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>21</v>
@@ -3313,7 +3326,7 @@
         <v>26</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3576,19 +3589,19 @@
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
@@ -3597,22 +3610,22 @@
         <v>35</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>38</v>
@@ -3627,10 +3640,10 @@
         <v>41</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>42</v>
@@ -3649,13 +3662,13 @@
         <v>48</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
@@ -3672,17 +3685,17 @@
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AR3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>45</v>
@@ -3705,10 +3718,10 @@
         <v>57</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>58</v>
@@ -3757,7 +3770,7 @@
         <v>72</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="CH3" s="11" t="s">
         <v>73</v>
@@ -3766,229 +3779,229 @@
         <v>74</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="S4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AE4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AF4" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="AH4" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO4" s="12"/>
       <c r="AQ4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AS4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AT4" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AW4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX4" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="AY4" s="12"/>
       <c r="AZ4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BA4" s="12"/>
       <c r="BC4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BF4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="BI4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BF4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BJ4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BK4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BL4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BP4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BR4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BV4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="BV4" s="11" t="s">
+      <c r="BX4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CB4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="CB4" s="11" t="s">
+      <c r="CD4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CH4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CJ4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CJ4" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CN4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="CN4" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="CP4" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="3" t="s">
@@ -3998,225 +4011,225 @@
         <v>33</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="V5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AB5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AX5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AW5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BD5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BE5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BF5" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="BI5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="BF5" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BP5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BR5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BV5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BX5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BX5" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="CA5" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CB5" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CC5" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="CG5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH5" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="CH5" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="CJ5" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="CP5" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>691</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>652</v>
-      </c>
       <c r="AI6" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AK6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AL6" s="11" t="s">
-        <v>171</v>
-      </c>
       <c r="AN6" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>69</v>
@@ -4231,440 +4244,437 @@
         <v>72</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AW6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX6" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="AY6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="AZ6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AZ6" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="BA6" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BC6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BE6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BF6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="BI6" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BP6" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BR6" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BV6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="BV6" s="11" t="s">
+      <c r="BX6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="BX6" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="CA6" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="CB6" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="CD6" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="CB6" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>618</v>
-      </c>
       <c r="CG6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="CH6" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="CH6" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>713</v>
+        <v>726</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>725</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z7" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AB7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AX7" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BD7" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BE7" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BF7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BK7" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BP7" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="BR7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BV7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="BV7" s="11" t="s">
+      <c r="BX7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="BX7" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="CA7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB7" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="CB7" s="11" t="s">
+      <c r="CD7" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="CD7" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="CG7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="CH7" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="CH7" s="11" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="CJ7" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="CM7" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="CP7" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="CR7" s="27" t="s">
         <v>711</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="CR7" s="27" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T8" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="V8" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AX8" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BC8" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BD8" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BE8" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV8" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="BW8" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="BW8" s="11" t="s">
+      <c r="BX8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BX8" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="CA8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB8" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="CB8" s="11" t="s">
+      <c r="CD8" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="CD8" s="3" t="s">
+      <c r="CG8" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="CG8" s="3" t="s">
+      <c r="CH8" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="CH8" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="CJ8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CM8" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="CP8" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="CR8" s="27" t="s">
         <v>708</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="CP8" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="CR8" s="27" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>69</v>
@@ -4673,1208 +4683,1220 @@
         <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T9" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="U9" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AX9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BE9" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="BX9" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="BX9" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="CA9" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CB9" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AW10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="BC10" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BD10" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="BF10" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="BE10" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="BU10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="BX10" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="CA10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="CB10" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="CB10" s="11" t="s">
+      <c r="CD10" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="CD10" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="CG10" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="CH10" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="CH10" s="11" t="s">
+      <c r="CJ10" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="G11" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M11" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="V11" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="AX11" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="AZ11" s="22" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="BE11" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="BE11" s="11" t="s">
+      <c r="BF11" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BV11" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="BX11" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="BX11" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="CA11" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="CB11" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="CB11" s="11" t="s">
+      <c r="CD11" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="CD11" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="CG11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="CH11" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="CH11" s="11" t="s">
-        <v>391</v>
-      </c>
       <c r="CJ11" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="P12" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="S12" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="AE12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AW12" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="AW12" s="3" t="s">
+      <c r="AX12" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="AZ12" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="BC12" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="BD12" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>665</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="BV12" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="BX12" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="BX12" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="CA12" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="CB12" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="CB12" s="11" t="s">
+      <c r="CC12" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="CC12" s="11" t="s">
+      <c r="CD12" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="CD12" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="CG12" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="CH12" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="CJ12" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="CJ12" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="G13" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AW13" s="3" t="s">
+      <c r="AX13" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AZ13" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BD13" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE13" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="BE13" s="11" t="s">
+      <c r="BF13" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="BF13" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="BU13" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BV13" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="BV13" s="11" t="s">
-        <v>385</v>
-      </c>
       <c r="BX13" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="CA13" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="CB13" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="CB13" s="11" t="s">
+      <c r="CC13" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="CC13" s="18" t="s">
+      <c r="CD13" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>340</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="V14" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="AQ14" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AW14" s="3" t="s">
+      <c r="AX14" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>398</v>
-      </c>
       <c r="AZ14" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BD14" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="BE14" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="BE14" s="11" t="s">
+      <c r="BF14" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="BF14" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="BV14" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="BW14" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="BW14" s="11" t="s">
-        <v>408</v>
-      </c>
       <c r="BX14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CA14" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="CB14" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="CB14" s="11" t="s">
+      <c r="CD14" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T15" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
+      <c r="AR15" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="AR15" s="11" t="s">
+      <c r="AT15" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="AW15" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="AW15" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="BV15" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="BV15" s="11" t="s">
+      <c r="BX15" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="BX15" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="BY15" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="CA15" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB15" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="CB15" s="11" t="s">
+      <c r="CC15" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="CC15" s="11" t="s">
+      <c r="CD15" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="V16" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="AQ16" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="BU16" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="BW16" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="BX16" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BW16" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="BX16" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="CA16" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="CB16" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="CB16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="P17" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="S17" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BV17" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="BX17" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="BX17" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="CA17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="CB17" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="CB17" s="11" t="s">
+      <c r="CD17" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="CD17" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="BU18" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="BU18" s="3" t="s">
+      <c r="BV18" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="BX18" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="BX18" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="CA18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="CB18" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="CB18" s="11" t="s">
+      <c r="CD18" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="BU19" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV19" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="BX19" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="BX19" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="CA19" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="CB19" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="CD19" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="CB19" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>544</v>
-      </c>
       <c r="BU20" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="BV20" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="BV20" s="11" t="s">
+      <c r="BX20" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="BX20" s="3" t="s">
+      <c r="CA20" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="CA20" s="3" t="s">
+      <c r="CB20" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="CB20" s="18" t="s">
+      <c r="CD20" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="CD20" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="CE20" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>547</v>
-      </c>
       <c r="BU21" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="BV21" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="BV21" s="11" t="s">
+      <c r="BX21" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="BX21" s="3" t="s">
+      <c r="BY21" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="CA21" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="BY21" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="CA21" s="3" t="s">
+      <c r="CB21" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="CB21" s="11" t="s">
+      <c r="CC21" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="CC21" s="11" t="s">
+      <c r="CD21" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="CD21" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="S22" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>557</v>
-      </c>
       <c r="BU22" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="BV22" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="BV22" s="11" t="s">
+      <c r="BX22" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="BX22" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="CA22" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="CB22" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="CB22" s="11" t="s">
+      <c r="CC22" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="CD22" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU23" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="BV23" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="BV23" s="11" t="s">
+      <c r="BX23" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="BX23" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="CA23" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="CB23" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="CB23" s="11" t="s">
+      <c r="CD23" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="BV24" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="BV24" s="11" t="s">
+      <c r="BX24" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="BX24" s="3" t="s">
-        <v>483</v>
-      </c>
       <c r="CA24" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="CB24" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="CB24" s="11" t="s">
+      <c r="CD24" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="BV25" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BX25" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="BX25" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="CA25" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="CB25" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="CB25" s="11" t="s">
+      <c r="CC25" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="CC25" s="11" t="s">
+      <c r="CD25" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU26" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="BV26" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="BX26" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="BX26" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="CA26" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="CB26" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="CC26" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="CD26" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="CB26" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="CC26" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="CD26" s="3" t="s">
-        <v>575</v>
-      </c>
       <c r="CE26" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="BV27" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="BV27" s="11" t="s">
+      <c r="BX27" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="BX27" s="3" t="s">
+      <c r="CA27" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="CA27" s="3" t="s">
+      <c r="CB27" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="CB27" s="11" t="s">
+      <c r="CD27" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="CD27" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="BV28" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="BV28" s="11" t="s">
+      <c r="BX28" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="CA28" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="BX28" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="CA28" s="3" t="s">
+      <c r="CB28" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="CB28" s="11" t="s">
+      <c r="CC28" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="CC28" s="11" t="s">
+      <c r="CD28" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="BV29" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="BV29" s="11" t="s">
+      <c r="BW29" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="BW29" s="11" t="s">
+      <c r="BX29" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="BX29" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="CA29" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="CB29" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="CB29" s="11" t="s">
-        <v>519</v>
-      </c>
       <c r="CD29" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="BV30" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="BX30" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="BV30" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="BX30" s="3" t="s">
-        <v>567</v>
-      </c>
       <c r="CA30" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB30" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="CB30" s="15" t="s">
+      <c r="CD30" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="CD30" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="BX31" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="BV31" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="BW31" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="BX31" s="3" t="s">
-        <v>718</v>
-      </c>
       <c r="CA31" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="CB31" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="CB31" s="11" t="s">
+      <c r="CD31" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="CD31" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="CB32" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="CB32" s="18" t="s">
+      <c r="CC32" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="CC32" s="11" t="s">
+      <c r="CD32" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="CD32" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="CE32" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="CB33" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="CB33" s="11" t="s">
+      <c r="CD33" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="35" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA35" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CB35" s="25"/>
       <c r="CC35" s="25"/>
@@ -5883,38 +5905,38 @@
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="CB36" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="CB36" s="11" t="s">
+      <c r="CD36" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="CD36" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="CB37" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="CB37" s="11" t="s">
-        <v>517</v>
-      </c>
       <c r="CD37" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB38" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="CB38" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="CC38" s="11" t="s">
         <v>71</v>
       </c>
       <c r="CD38" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6176,8 +6198,8 @@
     <hyperlink ref="CO3" r:id="rId254" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
     <hyperlink ref="B4" r:id="rId255" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
     <hyperlink ref="C4" r:id="rId256" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
-    <hyperlink ref="B7" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
-    <hyperlink ref="C7" r:id="rId258" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="B22" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
+    <hyperlink ref="C22" r:id="rId258" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
     <hyperlink ref="C8" r:id="rId259" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
     <hyperlink ref="B5" r:id="rId260" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
     <hyperlink ref="B9" r:id="rId261" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
@@ -6207,8 +6229,9 @@
     <hyperlink ref="BV31" r:id="rId285" xr:uid="{A3C6F73E-1A67-4751-9A93-5B7D5ED0EBB5}"/>
     <hyperlink ref="BW31" r:id="rId286" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
     <hyperlink ref="CO5" r:id="rId287" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
+    <hyperlink ref="B7" r:id="rId288" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId288"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId289"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E12CF42-2CFC-49B3-A5F4-D59E95C9E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C87969E-F658-4DF6-A930-5E08C475986C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="730">
   <si>
     <t>nice</t>
   </si>
@@ -2632,6 +2632,18 @@
   </si>
   <si>
     <t>茶杯狐（影视）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cook.yunyoujun.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国好男人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈说男人会做饭，以后更幸福！好的，今天我们来做菜！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3183,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5486,7 +5498,16 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>729</v>
+      </c>
       <c r="S18" s="3" t="s">
         <v>554</v>
       </c>
@@ -5516,18 +5537,6 @@
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>635</v>
-      </c>
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
         <v>540</v>
@@ -5625,18 +5634,6 @@
       </c>
     </row>
     <row r="22" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>712</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>555</v>
       </c>
@@ -5732,6 +5729,18 @@
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>635</v>
+      </c>
       <c r="BU26" s="3" t="s">
         <v>492</v>
       </c>
@@ -5800,7 +5809,19 @@
         <v>510</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="BU29" s="3" t="s">
         <v>511</v>
       </c>
@@ -5952,8 +5973,8 @@
     <hyperlink ref="Z4" r:id="rId8" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="H3" r:id="rId9" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="I3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="H4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="H5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="H6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
@@ -6198,8 +6219,8 @@
     <hyperlink ref="CO3" r:id="rId254" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
     <hyperlink ref="B4" r:id="rId255" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
     <hyperlink ref="C4" r:id="rId256" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
-    <hyperlink ref="B22" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
-    <hyperlink ref="C22" r:id="rId258" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="B29" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
+    <hyperlink ref="C29" r:id="rId258" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
     <hyperlink ref="C8" r:id="rId259" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
     <hyperlink ref="B5" r:id="rId260" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
     <hyperlink ref="B9" r:id="rId261" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
@@ -6230,8 +6251,9 @@
     <hyperlink ref="BW31" r:id="rId286" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
     <hyperlink ref="CO5" r:id="rId287" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
     <hyperlink ref="B7" r:id="rId288" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
+    <hyperlink ref="B18" r:id="rId289" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId289"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId290"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C87969E-F658-4DF6-A930-5E08C475986C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0097EFF0-0B72-4012-ADFD-8233ABB87F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2639,11 +2639,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中国好男人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>妈妈说男人会做饭，以后更幸福！好的，今天我们来做菜！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中国好男人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>🥘</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3196,7 +3207,7 @@
   <dimension ref="A1:CR38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5500,13 +5511,13 @@
     </row>
     <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>727</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>554</v>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0097EFF0-0B72-4012-ADFD-8233ABB87F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A7449-EB7B-4AB0-B296-00402AAB13EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="733">
   <si>
     <t>nice</t>
   </si>
@@ -1800,10 +1800,6 @@
   </si>
   <si>
     <t>免费中文字体收集计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集自互联网公开信息，由doyoudo.com的展哥维护，如有信息错误或推荐收录，请联系B站、即刻：@展哥更新了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2655,6 +2651,22 @@
       </rPr>
       <t>🥘</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.423down.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>423Down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一家由个人运营的软件下载站博客，专注10年去广告软件，提供电脑、安卓软件和系统镜像下载，快速更新，致力于个人IP品牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集自互联网公开信息，由doyoudo.com的展哥维护。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3206,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="BS12" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="CE27" sqref="CE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3249,7 +3261,7 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3270,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3309,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3328,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="BU1" s="26" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>21</v>
@@ -3349,7 +3361,7 @@
         <v>26</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3618,13 +3630,13 @@
         <v>570</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
@@ -3633,22 +3645,22 @@
         <v>35</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>38</v>
@@ -3666,7 +3678,7 @@
         <v>563</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>42</v>
@@ -3685,13 +3697,13 @@
         <v>48</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
@@ -3718,7 +3730,7 @@
         <v>532</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>45</v>
@@ -3741,10 +3753,10 @@
         <v>57</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>58</v>
@@ -3793,7 +3805,7 @@
         <v>72</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CH3" s="11" t="s">
         <v>73</v>
@@ -3802,39 +3814,39 @@
         <v>74</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>671</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>75</v>
@@ -3854,7 +3866,7 @@
         <v>79</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>80</v>
@@ -3887,7 +3899,7 @@
         <v>132</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>90</v>
@@ -3934,10 +3946,10 @@
         <v>99</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>100</v>
@@ -3988,7 +4000,7 @@
         <v>115</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="CM4" s="3" t="s">
         <v>116</v>
@@ -3997,24 +4009,24 @@
         <v>117</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>119</v>
@@ -4034,7 +4046,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>32</v>
@@ -4059,13 +4071,13 @@
         <v>127</v>
       </c>
       <c r="AE5" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>133</v>
@@ -4074,7 +4086,7 @@
         <v>134</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>135</v>
@@ -4104,10 +4116,10 @@
         <v>140</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>141</v>
@@ -4138,16 +4150,16 @@
         <v>149</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CB5" s="11" t="s">
         <v>184</v>
       </c>
       <c r="CC5" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>153</v>
@@ -4156,33 +4168,33 @@
         <v>154</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="CP5" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
@@ -4192,7 +4204,7 @@
         <v>156</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>157</v>
@@ -4225,25 +4237,25 @@
         <v>39</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>595</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>651</v>
-      </c>
       <c r="AI6" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>169</v>
@@ -4252,7 +4264,7 @@
         <v>170</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>69</v>
@@ -4267,7 +4279,7 @@
         <v>72</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>165</v>
@@ -4282,7 +4294,7 @@
         <v>168</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>171</v>
@@ -4297,7 +4309,7 @@
         <v>174</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BJ6" s="11" t="s">
         <v>176</v>
@@ -4327,13 +4339,13 @@
         <v>183</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="CB6" s="18" t="s">
         <v>227</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="CG6" s="3" t="s">
         <v>185</v>
@@ -4342,18 +4354,18 @@
         <v>186</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
@@ -4403,13 +4415,13 @@
         <v>201</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AF7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>208</v>
@@ -4418,7 +4430,7 @@
         <v>209</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>210</v>
@@ -4454,7 +4466,7 @@
         <v>217</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>218</v>
@@ -4505,33 +4517,33 @@
         <v>230</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CP7" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="CR7" s="27" t="s">
         <v>710</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="CR7" s="27" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>232</v>
@@ -4574,16 +4586,16 @@
         <v>244</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AE8" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>551</v>
@@ -4601,7 +4613,7 @@
         <v>249</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AT8" s="3" t="s">
         <v>250</v>
@@ -4659,33 +4671,33 @@
         <v>230</v>
       </c>
       <c r="CM8" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="CP8" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="CR8" s="27" t="s">
         <v>707</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="CP8" s="24" t="s">
-        <v>709</v>
-      </c>
-      <c r="CR8" s="27" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>187</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>262</v>
@@ -4706,13 +4718,13 @@
         <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>265</v>
@@ -4727,13 +4739,13 @@
         <v>268</v>
       </c>
       <c r="AE9" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH9" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="AQ9" s="3" t="s">
         <v>272</v>
@@ -4742,13 +4754,13 @@
         <v>273</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AT9" s="3" t="s">
         <v>274</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AW9" s="3" t="s">
         <v>269</v>
@@ -4781,16 +4793,16 @@
         <v>281</v>
       </c>
       <c r="CA9" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CB9" s="18" t="s">
         <v>311</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CH9" s="18" t="s">
         <v>337</v>
@@ -4807,10 +4819,10 @@
         <v>568</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>289</v>
@@ -4831,10 +4843,10 @@
         <v>294</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>295</v>
@@ -4867,7 +4879,7 @@
         <v>301</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BD10" s="11" t="s">
         <v>381</v>
@@ -4911,10 +4923,10 @@
         <v>561</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>562</v>
@@ -4932,7 +4944,7 @@
         <v>317</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>318</v>
@@ -4965,13 +4977,13 @@
         <v>324</v>
       </c>
       <c r="AZ11" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BD11" s="11" t="s">
         <v>402</v>
@@ -5007,7 +5019,7 @@
         <v>390</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
@@ -5018,13 +5030,13 @@
         <v>287</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>288</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>340</v>
@@ -5033,7 +5045,7 @@
         <v>341</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>342</v>
@@ -5048,16 +5060,16 @@
         <v>372</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>346</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>205</v>
@@ -5087,16 +5099,16 @@
         <v>349</v>
       </c>
       <c r="BC12" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="BD12" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="BU12" s="3" t="s">
         <v>356</v>
@@ -5131,13 +5143,13 @@
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>313</v>
@@ -5155,7 +5167,7 @@
         <v>369</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>535</v>
@@ -5164,7 +5176,7 @@
         <v>534</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>75</v>
@@ -5194,7 +5206,7 @@
         <v>377</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BD13" s="11" t="s">
         <v>328</v>
@@ -5235,13 +5247,13 @@
         <v>339</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>391</v>
@@ -5277,10 +5289,10 @@
         <v>397</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BD14" s="11" t="s">
         <v>353</v>
@@ -5321,22 +5333,22 @@
         <v>567</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T15" s="18" t="s">
         <v>412</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>413</v>
@@ -5348,19 +5360,19 @@
         <v>415</v>
       </c>
       <c r="AW15" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AX15" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>641</v>
-      </c>
       <c r="BA15" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BC15" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BD15" s="11" t="s">
         <v>305</v>
@@ -5372,7 +5384,7 @@
         <v>307</v>
       </c>
       <c r="BG15" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="BU15" s="3" t="s">
         <v>416</v>
@@ -5384,7 +5396,7 @@
         <v>418</v>
       </c>
       <c r="BY15" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="CA15" s="3" t="s">
         <v>428</v>
@@ -5407,10 +5419,10 @@
         <v>547</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>422</v>
@@ -5422,16 +5434,16 @@
         <v>424</v>
       </c>
       <c r="AQ16" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="AT16" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AR16" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="AU16" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BU16" s="3" t="s">
         <v>425</v>
@@ -5440,7 +5452,7 @@
         <v>426</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="BX16" s="3" t="s">
         <v>427</v>
@@ -5463,10 +5475,10 @@
         <v>571</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>343</v>
@@ -5484,10 +5496,19 @@
         <v>433</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>434</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="AT17" s="3" t="s">
+        <v>731</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
@@ -5511,13 +5532,13 @@
     </row>
     <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>554</v>
@@ -5568,13 +5589,13 @@
         <v>451</v>
       </c>
       <c r="CA19" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="CB19" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="CD19" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="CB19" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
@@ -5606,7 +5627,7 @@
         <v>460</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
@@ -5629,7 +5650,7 @@
         <v>463</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="CA21" s="3" t="s">
         <v>464</v>
@@ -5670,7 +5691,7 @@
         <v>478</v>
       </c>
       <c r="CC22" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="CD22" s="3" t="s">
         <v>479</v>
@@ -5741,16 +5762,16 @@
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BU26" s="3" t="s">
         <v>492</v>
@@ -5765,16 +5786,16 @@
         <v>573</v>
       </c>
       <c r="CB26" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="CC26" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="CC26" s="11" t="s">
-        <v>576</v>
-      </c>
       <c r="CD26" s="3" t="s">
-        <v>574</v>
+        <v>732</v>
       </c>
       <c r="CE26" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
@@ -5805,7 +5826,7 @@
         <v>506</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="CA28" s="3" t="s">
         <v>507</v>
@@ -5822,16 +5843,16 @@
     </row>
     <row r="29" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="BU29" s="3" t="s">
         <v>511</v>
@@ -5877,16 +5898,16 @@
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="BX31" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="BV31" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="BW31" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="BX31" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="CA31" s="3" t="s">
         <v>522</v>
@@ -5912,7 +5933,7 @@
         <v>528</v>
       </c>
       <c r="CE32" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
@@ -5928,7 +5949,7 @@
     </row>
     <row r="35" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA35" s="25" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CB35" s="25"/>
       <c r="CC35" s="25"/>
@@ -6263,8 +6284,9 @@
     <hyperlink ref="CO5" r:id="rId287" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
     <hyperlink ref="B7" r:id="rId288" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
     <hyperlink ref="B18" r:id="rId289" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
+    <hyperlink ref="AR17" r:id="rId290" xr:uid="{3187DBDE-EEBD-4D89-93D4-FA8E6558F8E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId290"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId291"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A7449-EB7B-4AB0-B296-00402AAB13EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C25801-8DC7-4B46-9F9B-239AF5285A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="742">
   <si>
     <t>nice</t>
   </si>
@@ -816,9 +816,6 @@
   </si>
   <si>
     <t>http://www.ls.graphics</t>
-  </si>
-  <si>
-    <t>免费高质量样机、插和UI工具</t>
   </si>
   <si>
     <t>lottie</t>
@@ -2667,6 +2664,46 @@
   </si>
   <si>
     <t>收集自互联网公开信息，由doyoudo.com的展哥维护。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mockup.sitapix.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西田样机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费高质量样机、插和UI工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专门提供免费高质量的样机素材。包括美妆洗化、食品饮料、包装盒袋、办公用品等，下载链接百度网盘上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.91sotu.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜图导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涵盖了高清无版权图库、创意灵感、素材资源、教程文章、设计工具、绘画涂鸦、建模贴图、设计社区、字体下载、图标下载等领域。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://imyshare.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的热心网友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyShare - 收集免费实用有趣的东西，做最好的资源导航</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3216,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CR38"/>
+  <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS12" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="CE27" sqref="CE27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3261,7 +3298,7 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3270,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3282,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3321,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3340,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="BU1" s="26" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>21</v>
@@ -3361,7 +3398,7 @@
         <v>26</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3624,19 +3661,19 @@
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
@@ -3645,22 +3682,22 @@
         <v>35</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>38</v>
@@ -3675,10 +3712,10 @@
         <v>41</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>42</v>
@@ -3697,13 +3734,13 @@
         <v>48</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
@@ -3720,17 +3757,17 @@
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AR3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>45</v>
@@ -3753,10 +3790,10 @@
         <v>57</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>58</v>
@@ -3805,7 +3842,7 @@
         <v>72</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CH3" s="11" t="s">
         <v>73</v>
@@ -3814,39 +3851,39 @@
         <v>74</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>670</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>75</v>
@@ -3866,7 +3903,7 @@
         <v>79</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>80</v>
@@ -3899,7 +3936,7 @@
         <v>132</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>90</v>
@@ -3946,10 +3983,10 @@
         <v>99</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>100</v>
@@ -4000,7 +4037,7 @@
         <v>115</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CM4" s="3" t="s">
         <v>116</v>
@@ -4009,24 +4046,24 @@
         <v>117</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>119</v>
@@ -4046,7 +4083,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>32</v>
@@ -4071,13 +4108,13 @@
         <v>127</v>
       </c>
       <c r="AE5" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>133</v>
@@ -4086,7 +4123,7 @@
         <v>134</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>135</v>
@@ -4116,10 +4153,10 @@
         <v>140</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>141</v>
@@ -4150,16 +4187,16 @@
         <v>149</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CB5" s="11" t="s">
         <v>184</v>
       </c>
       <c r="CC5" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>153</v>
@@ -4168,33 +4205,33 @@
         <v>154</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="CP5" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
@@ -4204,7 +4241,7 @@
         <v>156</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>157</v>
@@ -4237,25 +4274,25 @@
         <v>39</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="AI6" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>169</v>
@@ -4264,7 +4301,7 @@
         <v>170</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>69</v>
@@ -4279,7 +4316,7 @@
         <v>72</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>165</v>
@@ -4294,7 +4331,7 @@
         <v>168</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>171</v>
@@ -4309,7 +4346,7 @@
         <v>174</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BJ6" s="11" t="s">
         <v>176</v>
@@ -4339,13 +4376,13 @@
         <v>183</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="CB6" s="18" t="s">
         <v>227</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="CG6" s="3" t="s">
         <v>185</v>
@@ -4354,18 +4391,18 @@
         <v>186</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
@@ -4415,13 +4452,13 @@
         <v>201</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AF7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>652</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>208</v>
@@ -4430,7 +4467,7 @@
         <v>209</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>210</v>
@@ -4466,7 +4503,7 @@
         <v>217</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>218</v>
@@ -4499,13 +4536,13 @@
         <v>226</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="CB7" s="11" t="s">
-        <v>260</v>
+        <v>733</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>261</v>
+        <v>735</v>
       </c>
       <c r="CG7" s="3" t="s">
         <v>228</v>
@@ -4517,33 +4554,33 @@
         <v>230</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="CP7" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="CR7" s="27" t="s">
         <v>709</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="CR7" s="27" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>232</v>
@@ -4586,25 +4623,25 @@
         <v>244</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AE8" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>656</v>
-      </c>
       <c r="AK8" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN8" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="AQ8" s="3" t="s">
         <v>248</v>
@@ -4613,7 +4650,7 @@
         <v>249</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AT8" s="3" t="s">
         <v>250</v>
@@ -4653,63 +4690,63 @@
         <v>258</v>
       </c>
       <c r="CA8" s="3" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="CB8" s="11" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="CD8" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="CG8" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="CG8" s="3" t="s">
+      <c r="CH8" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="CH8" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="CJ8" s="3" t="s">
         <v>230</v>
       </c>
       <c r="CM8" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="CP8" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="CR8" s="27" t="s">
         <v>706</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="CP8" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="CR8" s="27" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>187</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>69</v>
@@ -4718,94 +4755,94 @@
         <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="T9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="U9" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AX9" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BE9" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="BX9" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BX9" s="3" t="s">
+      <c r="CA9" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CA9" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="CB9" s="18" t="s">
-        <v>311</v>
+      <c r="CB9" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>617</v>
+        <v>283</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CJ9" s="3" t="s">
         <v>230</v>
@@ -4813,213 +4850,213 @@
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="BC10" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BD10" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="BF10" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="BE10" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="BU10" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="BX10" s="3" t="s">
+      <c r="CA10" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="CB10" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="CA10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="CB10" s="11" t="s">
-        <v>335</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>336</v>
+        <v>616</v>
       </c>
       <c r="CG10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="CH10" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="CH10" s="11" t="s">
+      <c r="CJ10" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>562</v>
-      </c>
       <c r="G11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M11" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="V11" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="AX11" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="AZ11" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="BE11" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="BE11" s="11" t="s">
+      <c r="BF11" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV11" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="BX11" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="BX11" s="3" t="s">
+      <c r="CA11" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="CA11" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="CB11" s="11" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="CG11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="CH11" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="CH11" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="CJ11" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
@@ -5027,49 +5064,49 @@
         <v>192</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="P12" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="S12" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>205</v>
@@ -5081,914 +5118,945 @@
         <v>207</v>
       </c>
       <c r="AQ12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR12" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="AR12" s="11" t="s">
+      <c r="AT12" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="AT12" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="AW12" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX12" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AZ12" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="BC12" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="BD12" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>663</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BV12" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="BX12" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="BX12" s="3" t="s">
+      <c r="CA12" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="CA12" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="CB12" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="CC12" s="11" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="CD12" s="3" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="CG12" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="CH12" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="CJ12" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="CJ12" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="G13" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>75</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW13" s="3" t="s">
+      <c r="AX13" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AZ13" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BD13" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="BE13" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="BE13" s="11" t="s">
+      <c r="BF13" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="BF13" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="BU13" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BV13" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="BV13" s="11" t="s">
+      <c r="BX13" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CA13" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="BX13" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="CA13" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="CB13" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="CC13" s="18" t="s">
-        <v>410</v>
+        <v>385</v>
+      </c>
+      <c r="CC13" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="CD13" s="3" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>339</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="M14" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="V14" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="AQ14" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AW14" s="3" t="s">
+      <c r="AX14" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>397</v>
-      </c>
       <c r="AZ14" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BD14" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="BE14" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="BE14" s="11" t="s">
+      <c r="BF14" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="BF14" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="BV14" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="BW14" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="BW14" s="11" t="s">
+      <c r="BX14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="CA14" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="BX14" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="CA14" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="CB14" s="11" t="s">
-        <v>420</v>
+        <v>408</v>
+      </c>
+      <c r="CC14" s="18" t="s">
+        <v>409</v>
       </c>
       <c r="CD14" s="3" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T15" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
+      <c r="AR15" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="AR15" s="11" t="s">
+      <c r="AT15" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="AW15" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AW15" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="BV15" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="BV15" s="11" t="s">
+      <c r="BX15" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="BX15" s="3" t="s">
+      <c r="BY15" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="CA15" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="BY15" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="CA15" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="CB15" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="CC15" s="11" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="CD15" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="V16" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="AQ16" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="BU16" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="BW16" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="BX16" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="BW16" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="BX16" s="3" t="s">
+      <c r="CA16" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="CA16" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="CB16" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
+      </c>
+      <c r="CC16" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="CD16" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="P17" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="S17" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="AQ17" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AT17" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="AT17" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BV17" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="BX17" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="BX17" s="3" t="s">
+      <c r="CA17" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="CA17" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="CB17" s="11" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>727</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="BU18" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="BU18" s="3" t="s">
+      <c r="BV18" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="BX18" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="BX18" s="3" t="s">
+      <c r="CA18" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="CA18" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="CB18" s="11" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="E19" s="14"/>
       <c r="S19" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="BU19" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV19" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="BX19" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="BX19" s="3" t="s">
+      <c r="CA19" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="CA19" s="3" t="s">
-        <v>620</v>
-      </c>
       <c r="CB19" s="11" t="s">
-        <v>619</v>
+        <v>452</v>
       </c>
       <c r="CD19" s="3" t="s">
-        <v>621</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>543</v>
-      </c>
       <c r="BU20" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="BV20" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="BV20" s="11" t="s">
+      <c r="BX20" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="BX20" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="CA20" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="CB20" s="18" t="s">
-        <v>459</v>
+        <v>619</v>
+      </c>
+      <c r="CB20" s="11" t="s">
+        <v>618</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>546</v>
-      </c>
       <c r="BU21" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="BV21" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="BV21" s="11" t="s">
+      <c r="BX21" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="BX21" s="3" t="s">
+      <c r="BY21" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="CA21" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="CB21" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="CD21" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="BU22" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="BV22" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="BX22" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="CA22" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="BY21" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="CA21" s="3" t="s">
+      <c r="CB22" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="CB21" s="11" t="s">
+      <c r="CC22" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="CC21" s="11" t="s">
+      <c r="CD22" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="CD21" s="3" t="s">
-        <v>467</v>
-      </c>
     </row>
-    <row r="22" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="S22" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="BU22" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="BV22" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="BX22" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="CA22" s="3" t="s">
+    <row r="23" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BU23" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="BV23" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX23" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="CA23" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="CB23" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="CB22" s="11" t="s">
+      <c r="CC23" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="CD23" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="BU23" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="BV23" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="BX23" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="CA23" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="CB23" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="BV24" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="BV24" s="11" t="s">
+      <c r="BX24" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="BX24" s="3" t="s">
+      <c r="CA24" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="CA24" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="CB24" s="11" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="CD24" s="3" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="BV25" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BX25" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="BX25" s="3" t="s">
+      <c r="CA25" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="CA25" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="CB25" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="CC25" s="11" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="CD25" s="3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BU26" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="BV26" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="BX26" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="BX26" s="3" t="s">
+      <c r="CA26" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="CA26" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="CB26" s="11" t="s">
-        <v>574</v>
+        <v>495</v>
       </c>
       <c r="CC26" s="11" t="s">
-        <v>575</v>
+        <v>496</v>
       </c>
       <c r="CD26" s="3" t="s">
-        <v>732</v>
+        <v>497</v>
       </c>
       <c r="CE26" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU27" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="BV27" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="BV27" s="11" t="s">
+      <c r="BX27" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="BX27" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="CA27" s="3" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="CB27" s="11" t="s">
-        <v>503</v>
+        <v>573</v>
+      </c>
+      <c r="CC27" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="CD27" s="3" t="s">
-        <v>504</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BV28" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="BV28" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="BX28" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="CA28" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="CB28" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="CC28" s="11" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="CD28" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="BU29" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="BV29" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="BV29" s="11" t="s">
+      <c r="BW29" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="BW29" s="11" t="s">
+      <c r="BX29" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="BX29" s="3" t="s">
-        <v>514</v>
-      </c>
       <c r="CA29" s="3" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="CB29" s="11" t="s">
-        <v>518</v>
+        <v>507</v>
+      </c>
+      <c r="CC29" s="11" t="s">
+        <v>508</v>
       </c>
       <c r="CD29" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="BV30" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="BX30" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="BV30" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="BX30" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="CA30" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB30" s="15" t="s">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="CB30" s="11" t="s">
+        <v>517</v>
       </c>
       <c r="CD30" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="BX31" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="BV31" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="BW31" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="BX31" s="3" t="s">
-        <v>716</v>
-      </c>
       <c r="CA31" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="CB31" s="11" t="s">
-        <v>523</v>
+        <v>518</v>
+      </c>
+      <c r="CB31" s="15" t="s">
+        <v>519</v>
       </c>
       <c r="CD31" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="CB32" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="CC32" s="11" t="s">
-        <v>527</v>
+        <v>521</v>
+      </c>
+      <c r="CB32" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="CD32" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="CE32" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="CB33" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="CC33" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD33" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="34" spans="79:83" x14ac:dyDescent="0.2">
+      <c r="CA34" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="CB34" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="CB33" s="11" t="s">
+      <c r="CD34" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="35" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA35" s="25" t="s">
-        <v>679</v>
-      </c>
-      <c r="CB35" s="25"/>
-      <c r="CC35" s="25"/>
-      <c r="CD35" s="25"/>
       <c r="CE35" s="25"/>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA36" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="CB36" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="CD36" s="3" t="s">
-        <v>473</v>
-      </c>
+      <c r="CA36" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="CB36" s="25"/>
+      <c r="CC36" s="25"/>
+      <c r="CD36" s="25"/>
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="CB37" s="11" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="CD37" s="3" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="CB38" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="CD38" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="79:83" x14ac:dyDescent="0.2">
+      <c r="CA39" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="CB38" s="11" t="s">
+      <c r="CB39" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="CC38" s="11" t="s">
+      <c r="CC39" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="CD38" s="3" t="s">
+      <c r="CD39" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6123,30 +6191,30 @@
     <hyperlink ref="CN3" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="CB3" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
     <hyperlink ref="CB4" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="CB38" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="CB39" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="CB5" r:id="rId130" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="CB7" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="CB8" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="CB12" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="CB13" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="CB14" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="CB15" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="CB16" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="CB17" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="CB18" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="CB21" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="CB20" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="CB36" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="CB22" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="CB23" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="CB24" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="CB25" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="CB27" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="CB28" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="CB37" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="CB29" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="CB30" r:id="rId151" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="CB31" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CB8" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CB9" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CB13" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="CB14" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="CB15" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="CB16" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CB17" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CB18" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CB19" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="CB22" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="CB21" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="CB37" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB23" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB24" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB25" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB26" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB28" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB29" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB38" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB30" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB31" r:id="rId151" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB32" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="CH3" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
     <hyperlink ref="CH4" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
     <hyperlink ref="CH5" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
@@ -6184,14 +6252,14 @@
     <hyperlink ref="BQ3" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
     <hyperlink ref="BW14" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
     <hyperlink ref="CC3" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="CC38" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC39" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
     <hyperlink ref="CC5" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="CC15" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="CC12" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="CC28" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="CC21" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="CC25" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="CC22" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="CC16" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CC13" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC29" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC22" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC26" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC23" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
     <hyperlink ref="BW16" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="AX13" r:id="rId199" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="BV8" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
@@ -6201,19 +6269,19 @@
     <hyperlink ref="AR14" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
     <hyperlink ref="AR15" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
     <hyperlink ref="AS14" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="CC13" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="CC14" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
     <hyperlink ref="T18" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
     <hyperlink ref="CB6" r:id="rId209" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="H13" r:id="rId210" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="I13" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="CB32" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="CC32" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="CB9" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="CB33" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC33" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="CB10" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="Z7" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="CB11" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="CB10" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="CB12" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB11" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
     <hyperlink ref="H14" r:id="rId218" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="CB33" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="CB34" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
     <hyperlink ref="AL5" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
     <hyperlink ref="AL6" r:id="rId221" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
     <hyperlink ref="AL7" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
@@ -6237,9 +6305,9 @@
     <hyperlink ref="T22" r:id="rId240" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
     <hyperlink ref="CH12" r:id="rId241" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
     <hyperlink ref="BV30" r:id="rId242" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
-    <hyperlink ref="CB26" r:id="rId243" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
-    <hyperlink ref="CC26" r:id="rId244" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
-    <hyperlink ref="CB19" r:id="rId245" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
+    <hyperlink ref="CB27" r:id="rId243" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
+    <hyperlink ref="CC27" r:id="rId244" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
+    <hyperlink ref="CB20" r:id="rId245" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
     <hyperlink ref="AX15" r:id="rId246" xr:uid="{2A8A5249-96D1-46CB-A9C5-FC5DC78C593D}"/>
     <hyperlink ref="AF5" r:id="rId247" xr:uid="{A32ABBB0-8D7F-48B0-B5D8-453926250F84}"/>
     <hyperlink ref="AF6" r:id="rId248" xr:uid="{87A1D6D7-B9DC-4EE1-8733-4EF5CCAD1C66}"/>
@@ -6285,8 +6353,11 @@
     <hyperlink ref="B7" r:id="rId288" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
     <hyperlink ref="B18" r:id="rId289" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
     <hyperlink ref="AR17" r:id="rId290" xr:uid="{3187DBDE-EEBD-4D89-93D4-FA8E6558F8E6}"/>
+    <hyperlink ref="CB7" r:id="rId291" xr:uid="{A6E7800C-D4AD-4D3D-AF05-A4D4F4DAEF1B}"/>
+    <hyperlink ref="N14" r:id="rId292" xr:uid="{5A9DB915-6BDB-45D9-AB4D-2F1E9C241A66}"/>
+    <hyperlink ref="N15" r:id="rId293" xr:uid="{1AC33F4B-A331-478E-91F1-E8F1B20C5F61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId291"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId294"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C25801-8DC7-4B46-9F9B-239AF5285A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699BEFEA-3E21-4A72-A395-A2BCEEC8D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="748">
   <si>
     <t>nice</t>
   </si>
@@ -1781,10 +1781,6 @@
   </si>
   <si>
     <t>AIGC网页导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://fby.atwebpages.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2704,6 +2700,36 @@
   </si>
   <si>
     <t>iMyShare - 收集免费实用有趣的东西，做最好的资源导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nbchart.com/nbcutter/index.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB Cutter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需网络，永久免费
+NB Cutter是一款智能切图插件
+无需网络，永久免费，NB Cutter是一款智能切图插件支持导出多倍图，适合 Web / Android / iOS 切图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lkssite.vip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKs Site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站博主 -LKs- 《良心到难以置信的网站推荐》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://link3.cc/xiadj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3255,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3298,7 +3324,7 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3319,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3358,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>16</v>
@@ -3377,7 +3403,7 @@
         <v>20</v>
       </c>
       <c r="BU1" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>21</v>
@@ -3398,7 +3424,7 @@
         <v>26</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3663,17 +3689,17 @@
       <c r="A3" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>569</v>
+      <c r="B3" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
@@ -3682,22 +3708,22 @@
         <v>35</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>38</v>
@@ -3715,7 +3741,7 @@
         <v>562</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>42</v>
@@ -3734,13 +3760,13 @@
         <v>48</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
@@ -3767,7 +3793,7 @@
         <v>531</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>45</v>
@@ -3790,10 +3816,10 @@
         <v>57</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BG3" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>58</v>
@@ -3842,7 +3868,7 @@
         <v>72</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CH3" s="11" t="s">
         <v>73</v>
@@ -3851,39 +3877,39 @@
         <v>74</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>75</v>
@@ -3903,7 +3929,7 @@
         <v>79</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>80</v>
@@ -3936,7 +3962,7 @@
         <v>132</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>90</v>
@@ -3983,10 +4009,10 @@
         <v>99</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>100</v>
@@ -4037,7 +4063,7 @@
         <v>115</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CM4" s="3" t="s">
         <v>116</v>
@@ -4046,24 +4072,24 @@
         <v>117</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>119</v>
@@ -4083,7 +4109,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>32</v>
@@ -4108,13 +4134,13 @@
         <v>127</v>
       </c>
       <c r="AE5" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>133</v>
@@ -4123,7 +4149,7 @@
         <v>134</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>135</v>
@@ -4153,10 +4179,10 @@
         <v>140</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>141</v>
@@ -4187,16 +4213,16 @@
         <v>149</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CB5" s="11" t="s">
         <v>184</v>
       </c>
       <c r="CC5" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>153</v>
@@ -4205,33 +4231,33 @@
         <v>154</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="CP5" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
@@ -4241,7 +4267,7 @@
         <v>156</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>157</v>
@@ -4274,25 +4300,25 @@
         <v>39</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>593</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>649</v>
-      </c>
       <c r="AI6" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>169</v>
@@ -4301,7 +4327,7 @@
         <v>170</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>69</v>
@@ -4316,7 +4342,7 @@
         <v>72</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>165</v>
@@ -4331,7 +4357,7 @@
         <v>168</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>171</v>
@@ -4346,7 +4372,7 @@
         <v>174</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BJ6" s="11" t="s">
         <v>176</v>
@@ -4376,13 +4402,13 @@
         <v>183</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="CB6" s="18" t="s">
         <v>227</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="CG6" s="3" t="s">
         <v>185</v>
@@ -4391,18 +4417,18 @@
         <v>186</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
@@ -4452,13 +4478,13 @@
         <v>201</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AF7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>208</v>
@@ -4467,7 +4493,7 @@
         <v>209</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>210</v>
@@ -4503,7 +4529,7 @@
         <v>217</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>218</v>
@@ -4536,13 +4562,13 @@
         <v>226</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="CG7" s="3" t="s">
         <v>228</v>
@@ -4554,33 +4580,33 @@
         <v>230</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="CP7" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="CR7" s="27" t="s">
         <v>708</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="CR7" s="27" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>232</v>
@@ -4623,16 +4649,16 @@
         <v>244</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AE8" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>550</v>
@@ -4650,7 +4676,7 @@
         <v>249</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AT8" s="3" t="s">
         <v>250</v>
@@ -4696,7 +4722,7 @@
         <v>260</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="CG8" s="3" t="s">
         <v>284</v>
@@ -4708,33 +4734,33 @@
         <v>230</v>
       </c>
       <c r="CM8" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="CP8" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="CR8" s="27" t="s">
         <v>705</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="CP8" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="CR8" s="27" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>187</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>261</v>
@@ -4755,13 +4781,13 @@
         <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>264</v>
@@ -4776,13 +4802,13 @@
         <v>267</v>
       </c>
       <c r="AE9" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH9" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="AQ9" s="3" t="s">
         <v>271</v>
@@ -4791,13 +4817,13 @@
         <v>272</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AT9" s="3" t="s">
         <v>273</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AW9" s="3" t="s">
         <v>268</v>
@@ -4839,7 +4865,7 @@
         <v>283</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CH9" s="18" t="s">
         <v>336</v>
@@ -4856,10 +4882,10 @@
         <v>567</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>288</v>
@@ -4880,10 +4906,10 @@
         <v>293</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>294</v>
@@ -4916,7 +4942,7 @@
         <v>300</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BD10" s="11" t="s">
         <v>380</v>
@@ -4937,13 +4963,13 @@
         <v>309</v>
       </c>
       <c r="CA10" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="CB10" s="18" t="s">
         <v>310</v>
       </c>
       <c r="CD10" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="CG10" s="3" t="s">
         <v>361</v>
@@ -4960,10 +4986,10 @@
         <v>560</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>561</v>
@@ -4981,7 +5007,7 @@
         <v>316</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>317</v>
@@ -5014,13 +5040,13 @@
         <v>323</v>
       </c>
       <c r="AZ11" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BD11" s="11" t="s">
         <v>401</v>
@@ -5056,7 +5082,7 @@
         <v>389</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
@@ -5067,13 +5093,13 @@
         <v>286</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>287</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>339</v>
@@ -5082,7 +5108,7 @@
         <v>340</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>341</v>
@@ -5097,16 +5123,16 @@
         <v>371</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>345</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>205</v>
@@ -5136,16 +5162,16 @@
         <v>348</v>
       </c>
       <c r="BC12" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="BD12" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>662</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BU12" s="3" t="s">
         <v>355</v>
@@ -5177,13 +5203,13 @@
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>311</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>312</v>
@@ -5201,7 +5227,7 @@
         <v>368</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>534</v>
@@ -5210,7 +5236,7 @@
         <v>533</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>75</v>
@@ -5240,7 +5266,7 @@
         <v>376</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BD13" s="11" t="s">
         <v>327</v>
@@ -5281,13 +5307,13 @@
         <v>338</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>390</v>
@@ -5296,13 +5322,13 @@
         <v>391</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>392</v>
@@ -5332,10 +5358,10 @@
         <v>396</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BD14" s="11" t="s">
         <v>352</v>
@@ -5379,31 +5405,31 @@
         <v>566</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>741</v>
-      </c>
       <c r="S15" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T15" s="18" t="s">
         <v>411</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>412</v>
@@ -5415,19 +5441,19 @@
         <v>414</v>
       </c>
       <c r="AW15" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="AX15" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="BA15" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BC15" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BD15" s="11" t="s">
         <v>304</v>
@@ -5439,7 +5465,7 @@
         <v>306</v>
       </c>
       <c r="BG15" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BU15" s="3" t="s">
         <v>415</v>
@@ -5451,7 +5477,7 @@
         <v>417</v>
       </c>
       <c r="BY15" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="CA15" s="3" t="s">
         <v>418</v>
@@ -5463,7 +5489,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="180" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>547</v>
       </c>
@@ -5471,10 +5497,19 @@
         <v>546</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>746</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>421</v>
@@ -5486,16 +5521,28 @@
         <v>423</v>
       </c>
       <c r="AQ16" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AT16" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AR16" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="AU16" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AZ16" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="BA16" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="BU16" s="3" t="s">
         <v>424</v>
@@ -5504,7 +5551,7 @@
         <v>425</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BX16" s="3" t="s">
         <v>426</v>
@@ -5524,16 +5571,16 @@
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>342</v>
@@ -5551,19 +5598,19 @@
         <v>432</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>433</v>
       </c>
       <c r="AQ17" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AT17" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="AT17" s="3" t="s">
-        <v>730</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
@@ -5587,13 +5634,13 @@
     </row>
     <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>726</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>553</v>
@@ -5673,16 +5720,16 @@
         <v>456</v>
       </c>
       <c r="CA20" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="CB20" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="CD20" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="CB20" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="CD20" s="3" t="s">
-        <v>620</v>
-      </c>
       <c r="CE20" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
@@ -5705,7 +5752,7 @@
         <v>462</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="CA21" s="3" t="s">
         <v>457</v>
@@ -5766,7 +5813,7 @@
         <v>477</v>
       </c>
       <c r="CC23" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="CD23" s="3" t="s">
         <v>478</v>
@@ -5814,16 +5861,16 @@
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="BU26" s="3" t="s">
         <v>491</v>
@@ -5847,7 +5894,7 @@
         <v>497</v>
       </c>
       <c r="CE26" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
@@ -5861,16 +5908,16 @@
         <v>500</v>
       </c>
       <c r="CA27" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="CB27" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="CB27" s="11" t="s">
+      <c r="CC27" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="CC27" s="11" t="s">
-        <v>574</v>
-      </c>
       <c r="CD27" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
@@ -5881,7 +5928,7 @@
         <v>505</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="CA28" s="3" t="s">
         <v>501</v>
@@ -5895,16 +5942,16 @@
     </row>
     <row r="29" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="BU29" s="3" t="s">
         <v>510</v>
@@ -5953,16 +6000,16 @@
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="BX31" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="BV31" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="BW31" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="BX31" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="CA31" s="3" t="s">
         <v>518</v>
@@ -5985,7 +6032,7 @@
         <v>523</v>
       </c>
       <c r="CE32" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
@@ -6018,7 +6065,7 @@
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CB36" s="25"/>
       <c r="CC36" s="25"/>
@@ -6356,8 +6403,10 @@
     <hyperlink ref="CB7" r:id="rId291" xr:uid="{A6E7800C-D4AD-4D3D-AF05-A4D4F4DAEF1B}"/>
     <hyperlink ref="N14" r:id="rId292" xr:uid="{5A9DB915-6BDB-45D9-AB4D-2F1E9C241A66}"/>
     <hyperlink ref="N15" r:id="rId293" xr:uid="{1AC33F4B-A331-478E-91F1-E8F1B20C5F61}"/>
+    <hyperlink ref="AX16" r:id="rId294" xr:uid="{7D6E27AC-03A9-4278-92AC-4FF224911BE0}"/>
+    <hyperlink ref="N16" r:id="rId295" xr:uid="{B694CC1E-0D33-44AC-AB7E-23FF77292571}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId294"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId296"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699BEFEA-3E21-4A72-A395-A2BCEEC8D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F389A47-F690-44BE-8539-549392E6B674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="751">
   <si>
     <t>nice</t>
   </si>
@@ -2730,6 +2730,18 @@
   </si>
   <si>
     <t>https://link3.cc/xiadj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://onepagelove.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One Page Love</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球最佳单页网站设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3281,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5797,6 +5809,15 @@
       </c>
     </row>
     <row r="23" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>750</v>
+      </c>
       <c r="BU23" s="3" t="s">
         <v>473</v>
       </c>
@@ -6405,8 +6426,9 @@
     <hyperlink ref="N15" r:id="rId293" xr:uid="{1AC33F4B-A331-478E-91F1-E8F1B20C5F61}"/>
     <hyperlink ref="AX16" r:id="rId294" xr:uid="{7D6E27AC-03A9-4278-92AC-4FF224911BE0}"/>
     <hyperlink ref="N16" r:id="rId295" xr:uid="{B694CC1E-0D33-44AC-AB7E-23FF77292571}"/>
+    <hyperlink ref="T23" r:id="rId296" xr:uid="{00C6CCC0-D133-4695-B201-2E124051A974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId296"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId297"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F389A47-F690-44BE-8539-549392E6B674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFF703-A77A-4666-BFE2-DBA86CAAA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="754">
   <si>
     <t>nice</t>
   </si>
@@ -2742,6 +2742,18 @@
   </si>
   <si>
     <t>全球最佳单页网站设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.seeseed.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seeseed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计素材资源导航，无穷尽设计可能, 为设计师提供国内外最全的设计灵感、设计素材、设计工具、设计教程。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3293,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5653,6 +5665,15 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>725</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>753</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>553</v>
@@ -6427,8 +6448,9 @@
     <hyperlink ref="AX16" r:id="rId294" xr:uid="{7D6E27AC-03A9-4278-92AC-4FF224911BE0}"/>
     <hyperlink ref="N16" r:id="rId295" xr:uid="{B694CC1E-0D33-44AC-AB7E-23FF77292571}"/>
     <hyperlink ref="T23" r:id="rId296" xr:uid="{00C6CCC0-D133-4695-B201-2E124051A974}"/>
+    <hyperlink ref="N18" r:id="rId297" xr:uid="{40EA5C21-E4E2-4259-BD27-2292C6A84502}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId297"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId298"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFF703-A77A-4666-BFE2-DBA86CAAA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE95FA7E-6E30-4895-ADD3-35D975032579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="754">
   <si>
     <t>nice</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>zonghe</t>
-  </si>
-  <si>
-    <t>常用软件 &lt;span&gt;（包含手机软件和电脑软件）&lt;/span&gt;</t>
   </si>
   <si>
     <t>software</t>
@@ -1765,10 +1762,6 @@
   </si>
   <si>
     <t>电影海报下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全国电影高清海报下载</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2725,10 +2718,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B站博主 -LKs- 《良心到难以置信的网站推荐》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://link3.cc/xiadj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2754,6 +2743,18 @@
   </si>
   <si>
     <t>设计素材资源导航，无穷尽设计可能, 为设计师提供国内外最全的设计灵感、设计素材、设计工具、设计教程。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站博主 -LKs- 每一期B站都有视频讲解《良心到难以置信的网站推荐》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用软件 &lt;span&gt;（包含设计方面的手机软件和电脑软件）&lt;/span&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国电影高清海报下载，中文搜不到搜电影的英文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2939,7 +2940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3000,9 +3001,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3011,9 +3009,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3305,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3342,13 +3337,13 @@
     <col min="85" max="89" width="9" style="3"/>
     <col min="90" max="90" width="9" style="4"/>
     <col min="91" max="95" width="9" style="3"/>
-    <col min="96" max="96" width="9" style="27"/>
+    <col min="96" max="96" width="9" style="25"/>
     <col min="97" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3357,10 +3352,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3368,8 +3363,8 @@
       <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>690</v>
+      <c r="S1" s="24" t="s">
+        <v>688</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3393,13 +3388,13 @@
         <v>12</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="AW1" s="2" t="s">
         <v>7</v>
@@ -3408,2745 +3403,2755 @@
         <v>8</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="BD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="BN1" s="6"/>
       <c r="BO1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BP1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BU1" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BU1" s="26" t="s">
-        <v>710</v>
-      </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CM1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="CM1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="CN1" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="AV2" s="8"/>
       <c r="AW2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="BB2" s="8"/>
       <c r="BC2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="BH2" s="9"/>
       <c r="BI2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BK2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BL2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BM2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="BN2" s="9"/>
       <c r="BO2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BR2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BS2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="BT2" s="8"/>
       <c r="BU2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BY2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="BZ2" s="8"/>
       <c r="CA2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CD2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CE2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="CF2" s="8"/>
       <c r="CG2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CI2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CJ2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="CJ2" s="7" t="s">
+      <c r="CK2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="CL2" s="8"/>
       <c r="CM2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CN2" s="7" t="s">
+      <c r="CO2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CO2" s="7" t="s">
+      <c r="CP2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="CQ2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR2" s="28"/>
+      <c r="CR2" s="26"/>
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="S3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="V3" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="AA3" s="13"/>
       <c r="AB3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="AG3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="AH3" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AW3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX3" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="AX3" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA3" s="14"/>
       <c r="BC3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="BG3" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="BI3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="BG3" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BK3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BL3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="BN3" s="6"/>
       <c r="BO3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BQ3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BR3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BV3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BX3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CB3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="CB3" s="11" t="s">
+      <c r="CC3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="CC3" s="11" t="s">
+      <c r="CD3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="CH3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="CG3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="CH3" s="11" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="CJ3" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="CK3" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="CP3" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>668</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="S4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AE4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AF4" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="AH4" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL4" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO4" s="12"/>
       <c r="AQ4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AS4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AT4" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AW4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX4" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="AY4" s="12"/>
       <c r="AZ4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA4" s="12"/>
       <c r="BC4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BF4" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="BI4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BF4" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BJ4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BK4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BL4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BP4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BR4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BV4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BV4" s="11" t="s">
+      <c r="BX4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CB4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="11" t="s">
+      <c r="CD4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CH4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CJ4" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="CJ4" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CN4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="CN4" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="CP4" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>709</v>
+        <v>69</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>707</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>686</v>
+      <c r="O5" s="22" t="s">
+        <v>684</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="V5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AB5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AX5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AW5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BD5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BE5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BF5" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="BI5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="BF5" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BP5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BR5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BV5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BX5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BX5" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="CA5" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CB5" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="CC5" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="CG5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="CH5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="CH5" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="CJ5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="CO5" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="CN5" s="1" t="s">
+      <c r="CP5" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>709</v>
+        <v>572</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>707</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>687</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AW6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="BC6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="BD6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI6" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD6" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BJ6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="BI6" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BP6" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BR6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BV6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="BV6" s="11" t="s">
+      <c r="BX6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="BX6" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="CA6" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="CB6" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="CG6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH6" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="CH6" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z7" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AB7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AX7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BD7" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BE7" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BF7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BK7" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BP7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="BR7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BV7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="BV7" s="11" t="s">
+      <c r="BX7" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BX7" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="CA7" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="CD7" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="CB7" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="CD7" s="3" t="s">
-        <v>734</v>
-      </c>
       <c r="CG7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH7" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="CH7" s="11" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="CJ7" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="CM7" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="CP7" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="CR7" s="25" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="CQ7" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="CR7" s="27" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:96" ht="36" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>709</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="V8" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AX8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BD8" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BE8" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="BV8" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="BW8" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="BW8" s="11" t="s">
+      <c r="BX8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="BX8" s="3" t="s">
+      <c r="CA8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="CA8" s="3" t="s">
+      <c r="CB8" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="CB8" s="11" t="s">
-        <v>260</v>
-      </c>
       <c r="CD8" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="CG8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CH8" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="CH8" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="CJ8" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CM8" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="CP8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="CN8" s="1" t="s">
+      <c r="CR8" s="25" t="s">
         <v>703</v>
-      </c>
-      <c r="CP8" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="CR8" s="27" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>709</v>
+        <v>186</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>707</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="U9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AX9" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BE9" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="BX9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BX9" s="3" t="s">
+      <c r="CA9" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="CA9" s="3" t="s">
+      <c r="CB9" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="CB9" s="11" t="s">
+      <c r="CD9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="CD9" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AW10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="BC10" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="BD10" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF10" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="BE10" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="BU10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="BX10" s="3" t="s">
+      <c r="CA10" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="CB10" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="CA10" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>310</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="CG10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="CH10" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="CH10" s="11" t="s">
+      <c r="CJ10" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="G11" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M11" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="V11" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AX11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="AZ11" s="22" t="s">
-        <v>639</v>
+      <c r="AZ11" s="21" t="s">
+        <v>637</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="BE11" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="BE11" s="11" t="s">
+      <c r="BF11" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="BV11" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="BX11" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="BX11" s="3" t="s">
+      <c r="CA11" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="CA11" s="3" t="s">
+      <c r="CB11" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="CB11" s="11" t="s">
+      <c r="CD11" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="CD11" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="CG11" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="CH11" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="CH11" s="11" t="s">
-        <v>389</v>
-      </c>
       <c r="CJ11" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="P12" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="T12" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AW12" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AW12" s="3" t="s">
+      <c r="AX12" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="AZ12" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="BC12" s="24" t="s">
-        <v>660</v>
+      <c r="BC12" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="BD12" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="BF12" s="3" t="s">
-        <v>661</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="BV12" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="BX12" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="BX12" s="3" t="s">
+      <c r="CA12" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="CA12" s="3" t="s">
+      <c r="CB12" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="CB12" s="11" t="s">
+      <c r="CD12" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="CD12" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="CG12" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CH12" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="CJ12" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="CJ12" s="3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="G13" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AW13" s="3" t="s">
+      <c r="AX13" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AZ13" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="BD13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="BE13" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="BE13" s="11" t="s">
+      <c r="BF13" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="BF13" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="BU13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="BV13" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="BV13" s="11" t="s">
+      <c r="BX13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA13" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="BX13" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CA13" s="3" t="s">
+      <c r="CB13" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="CB13" s="11" t="s">
+      <c r="CC13" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="CC13" s="11" t="s">
+      <c r="CD13" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>338</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="M14" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="V14" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="AQ14" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AW14" s="3" t="s">
+      <c r="AX14" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>396</v>
-      </c>
       <c r="AZ14" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="BD14" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE14" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="BE14" s="11" t="s">
+      <c r="BF14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="BF14" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="BV14" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="BW14" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="BW14" s="11" t="s">
+      <c r="BX14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="CA14" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="BX14" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="CA14" s="3" t="s">
+      <c r="CB14" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="CB14" s="11" t="s">
+      <c r="CC14" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="CC14" s="18" t="s">
+      <c r="CD14" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW15" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="BU15" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="BV15" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX15" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="BY15" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="CA15" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="CB15" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="CD15" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="AX16" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="AT15" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="AW15" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="BU15" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="BV15" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="BX15" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="BY15" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="CA15" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CB15" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:96" ht="180" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="AZ16" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="BA16" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="V16" s="3" t="s">
+      <c r="BU16" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="AW16" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="AZ16" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="BA16" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="BW16" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="BX16" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="BW16" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="BX16" s="3" t="s">
+      <c r="CA16" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="CA16" s="3" t="s">
+      <c r="CB16" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="CB16" s="11" t="s">
+      <c r="CC16" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="CC16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>343</v>
+        <v>749</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>344</v>
+        <v>750</v>
       </c>
       <c r="S17" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="AQ17" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AR17" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="AT17" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="AT17" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BV17" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="BX17" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="BX17" s="3" t="s">
+      <c r="CA17" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="CA17" s="3" t="s">
+      <c r="CB17" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="CB17" s="11" t="s">
+      <c r="CD17" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="CD17" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="AQ18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT18" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU18" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="BU18" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="BU18" s="3" t="s">
+      <c r="BV18" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="BX18" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="BX18" s="3" t="s">
+      <c r="CA18" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="CA18" s="3" t="s">
+      <c r="CB18" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="CB18" s="11" t="s">
+      <c r="CD18" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="E19" s="14"/>
-      <c r="S19" s="20" t="s">
-        <v>539</v>
+      <c r="S19" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="BU19" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="BU19" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="BV19" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="BX19" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="BX19" s="3" t="s">
+      <c r="CA19" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="CA19" s="3" t="s">
+      <c r="CB19" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="CB19" s="11" t="s">
+      <c r="CD19" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="S20" s="20" t="s">
+      <c r="S20" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="BU20" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="BV20" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="BV20" s="11" t="s">
+      <c r="BX20" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="BX20" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="CA20" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="CB20" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="CD20" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="CD20" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="CE20" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="BU21" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="BV21" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="BV21" s="11" t="s">
+      <c r="BX21" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="BX21" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="BY21" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="CA21" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="CB21" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="CB21" s="18" t="s">
+      <c r="CD21" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="CD21" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="S22" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>555</v>
-      </c>
       <c r="BU22" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="BV22" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="BV22" s="11" t="s">
+      <c r="BX22" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="BX22" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="CA22" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="CB22" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="CB22" s="11" t="s">
+      <c r="CC22" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="CC22" s="11" t="s">
+      <c r="CD22" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="S23" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="BU23" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="BV23" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="BV23" s="11" t="s">
+      <c r="BX23" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="BX23" s="3" t="s">
+      <c r="CA23" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="CA23" s="3" t="s">
+      <c r="CB23" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="CB23" s="11" t="s">
+      <c r="CC23" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="CD23" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="CC23" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="BV24" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="BV24" s="11" t="s">
+      <c r="BX24" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="BX24" s="3" t="s">
+      <c r="CA24" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="CA24" s="3" t="s">
+      <c r="CB24" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="CB24" s="11" t="s">
+      <c r="CD24" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="BV25" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BX25" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="BX25" s="3" t="s">
+      <c r="CA25" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="CA25" s="3" t="s">
+      <c r="CB25" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="CB25" s="11" t="s">
+      <c r="CD25" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="BU26" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="BV26" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="BX26" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="BX26" s="3" t="s">
+      <c r="CA26" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="CA26" s="3" t="s">
+      <c r="CB26" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="CB26" s="11" t="s">
+      <c r="CC26" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="CC26" s="11" t="s">
+      <c r="CD26" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="CD26" s="3" t="s">
+      <c r="CE26" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="BU27" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="CE26" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="BU27" s="3" t="s">
+      <c r="BV27" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="BV27" s="11" t="s">
+      <c r="BX27" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="BX27" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="CA27" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="CB27" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="CC27" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="CB27" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="CC27" s="11" t="s">
-        <v>573</v>
-      </c>
       <c r="CD27" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BV28" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="BV28" s="11" t="s">
+      <c r="BX28" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="CA28" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="CB28" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="CD28" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="BU29" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="BV29" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="BW29" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="BX29" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="CA29" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="BX28" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="CA28" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="CB28" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="BU29" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="BV29" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="BW29" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="BX29" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="CA29" s="3" t="s">
+      <c r="CB29" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="CB29" s="11" t="s">
+      <c r="CC29" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="CC29" s="11" t="s">
+      <c r="CD29" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="CD29" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BV30" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>565</v>
+        <v>753</v>
       </c>
       <c r="CA30" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="CB30" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="CB30" s="11" t="s">
-        <v>517</v>
-      </c>
       <c r="CD30" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="BV31" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="BW31" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="BX31" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="BX31" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="CA31" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="CB31" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="CB31" s="15" t="s">
+      <c r="CD31" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="CD31" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="CB32" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="CB32" s="11" t="s">
+      <c r="CD32" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="CD32" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="CE32" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="CB33" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="CB33" s="18" t="s">
+      <c r="CC33" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="CC33" s="11" t="s">
+      <c r="CD33" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="CB34" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="CB34" s="11" t="s">
+      <c r="CD34" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="CD34" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="35" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CE35" s="25"/>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA36" s="25" t="s">
-        <v>677</v>
-      </c>
-      <c r="CB36" s="25"/>
-      <c r="CC36" s="25"/>
-      <c r="CD36" s="25"/>
+      <c r="CA36" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="CB36" s="23"/>
+      <c r="CC36" s="23"/>
+      <c r="CD36" s="23"/>
+      <c r="CE36" s="23"/>
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="CB37" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="CB37" s="11" t="s">
+      <c r="CD37" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="CD37" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="CB38" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="CB38" s="11" t="s">
-        <v>515</v>
-      </c>
       <c r="CD38" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB39" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="CB39" s="11" t="s">
+      <c r="CC39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD39" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="CC39" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="CD39" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6184,7 +6189,7 @@
     <hyperlink ref="N9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="N10" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="N11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N22" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="N12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="T8" r:id="rId35" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="O5" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
@@ -6408,49 +6413,50 @@
     <hyperlink ref="CO3" r:id="rId254" xr:uid="{CE656176-387B-4448-BC36-7708A829E5ED}"/>
     <hyperlink ref="B4" r:id="rId255" xr:uid="{1826BB58-0CD2-4214-9806-83A0D695B009}"/>
     <hyperlink ref="C4" r:id="rId256" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5A6441EE-C957-4110-8CB4-689D77D08667}"/>
-    <hyperlink ref="B29" r:id="rId257" tooltip="http://hao.58pic.com" display="http://hao.58pic.com" xr:uid="{8E277DEB-CA88-4B00-B98B-B265792C8B9B}"/>
-    <hyperlink ref="C29" r:id="rId258" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
-    <hyperlink ref="C8" r:id="rId259" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
-    <hyperlink ref="B5" r:id="rId260" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
-    <hyperlink ref="B9" r:id="rId261" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
-    <hyperlink ref="C9" r:id="rId262" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
-    <hyperlink ref="C5" r:id="rId263" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
-    <hyperlink ref="B13" r:id="rId264" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
-    <hyperlink ref="B14" r:id="rId265" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
-    <hyperlink ref="B15" r:id="rId266" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
-    <hyperlink ref="B11" r:id="rId267" display="https://www.artstation.com" xr:uid="{C5B0C8F3-4FE9-418F-BCEC-5B9134FDA6C1}"/>
-    <hyperlink ref="B16" r:id="rId268" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
-    <hyperlink ref="B10" r:id="rId269" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
-    <hyperlink ref="B17" r:id="rId270" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
-    <hyperlink ref="AR16" r:id="rId271" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
-    <hyperlink ref="I6" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="CN5" r:id="rId273" xr:uid="{8A4A0ACC-C8E4-49FE-A789-307BD2524C2B}"/>
-    <hyperlink ref="CN7" r:id="rId274" xr:uid="{028D6BFE-3A19-4B38-954C-A8266860A286}"/>
-    <hyperlink ref="CN8" r:id="rId275" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
-    <hyperlink ref="C3" r:id="rId276" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{3751165F-A3FF-4E0F-84F3-2354A108C27B}"/>
-    <hyperlink ref="C6" r:id="rId277" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E07BFE99-02AB-4A3C-8ECC-0E8828DBF273}"/>
-    <hyperlink ref="C10" r:id="rId278" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{8D65450F-C679-42F4-976D-A979FF1DE899}"/>
-    <hyperlink ref="C11" r:id="rId279" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{2B634BC2-DA35-477F-A151-B3D7781FBF3B}"/>
-    <hyperlink ref="C13" r:id="rId280" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{6E7FD256-26C5-495C-B1BE-790D7ABBD554}"/>
-    <hyperlink ref="C14" r:id="rId281" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{75D0D4CB-E8A4-4996-B63E-FB9C5E1A45CB}"/>
-    <hyperlink ref="C15" r:id="rId282" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5FA63A31-FFC2-48A7-9968-CAE774FEF3C6}"/>
-    <hyperlink ref="C16" r:id="rId283" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E150B6DC-2D8B-4609-85B9-145EF2923377}"/>
-    <hyperlink ref="C17" r:id="rId284" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{DA17F930-9795-47D6-916A-1C3311D91CA9}"/>
-    <hyperlink ref="BV31" r:id="rId285" xr:uid="{A3C6F73E-1A67-4751-9A93-5B7D5ED0EBB5}"/>
-    <hyperlink ref="BW31" r:id="rId286" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
-    <hyperlink ref="CO5" r:id="rId287" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
-    <hyperlink ref="B7" r:id="rId288" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
-    <hyperlink ref="B18" r:id="rId289" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
-    <hyperlink ref="AR17" r:id="rId290" xr:uid="{3187DBDE-EEBD-4D89-93D4-FA8E6558F8E6}"/>
-    <hyperlink ref="CB7" r:id="rId291" xr:uid="{A6E7800C-D4AD-4D3D-AF05-A4D4F4DAEF1B}"/>
-    <hyperlink ref="N14" r:id="rId292" xr:uid="{5A9DB915-6BDB-45D9-AB4D-2F1E9C241A66}"/>
-    <hyperlink ref="N15" r:id="rId293" xr:uid="{1AC33F4B-A331-478E-91F1-E8F1B20C5F61}"/>
-    <hyperlink ref="AX16" r:id="rId294" xr:uid="{7D6E27AC-03A9-4278-92AC-4FF224911BE0}"/>
-    <hyperlink ref="N16" r:id="rId295" xr:uid="{B694CC1E-0D33-44AC-AB7E-23FF77292571}"/>
-    <hyperlink ref="T23" r:id="rId296" xr:uid="{00C6CCC0-D133-4695-B201-2E124051A974}"/>
-    <hyperlink ref="N18" r:id="rId297" xr:uid="{40EA5C21-E4E2-4259-BD27-2292C6A84502}"/>
+    <hyperlink ref="C27" r:id="rId257" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{4CE86707-ACE3-44F4-BFD6-6D5DD75426B8}"/>
+    <hyperlink ref="C8" r:id="rId258" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{F096D0DD-DF9C-433F-AC21-F193216FB8AF}"/>
+    <hyperlink ref="B5" r:id="rId259" display="https://collectui.com" xr:uid="{13CCFD71-589A-4E85-A43C-15C43CEEC53F}"/>
+    <hyperlink ref="B9" r:id="rId260" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
+    <hyperlink ref="C9" r:id="rId261" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
+    <hyperlink ref="C5" r:id="rId262" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
+    <hyperlink ref="B13" r:id="rId263" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
+    <hyperlink ref="B14" r:id="rId264" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
+    <hyperlink ref="B15" r:id="rId265" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
+    <hyperlink ref="B11" r:id="rId266" display="https://www.artstation.com" xr:uid="{C5B0C8F3-4FE9-418F-BCEC-5B9134FDA6C1}"/>
+    <hyperlink ref="B16" r:id="rId267" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
+    <hyperlink ref="B10" r:id="rId268" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
+    <hyperlink ref="B17" r:id="rId269" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
+    <hyperlink ref="AR16" r:id="rId270" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
+    <hyperlink ref="I6" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="CN5" r:id="rId272" xr:uid="{8A4A0ACC-C8E4-49FE-A789-307BD2524C2B}"/>
+    <hyperlink ref="CN7" r:id="rId273" xr:uid="{028D6BFE-3A19-4B38-954C-A8266860A286}"/>
+    <hyperlink ref="CN8" r:id="rId274" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
+    <hyperlink ref="C3" r:id="rId275" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{3751165F-A3FF-4E0F-84F3-2354A108C27B}"/>
+    <hyperlink ref="C6" r:id="rId276" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E07BFE99-02AB-4A3C-8ECC-0E8828DBF273}"/>
+    <hyperlink ref="C10" r:id="rId277" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{8D65450F-C679-42F4-976D-A979FF1DE899}"/>
+    <hyperlink ref="C11" r:id="rId278" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{2B634BC2-DA35-477F-A151-B3D7781FBF3B}"/>
+    <hyperlink ref="C13" r:id="rId279" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{6E7FD256-26C5-495C-B1BE-790D7ABBD554}"/>
+    <hyperlink ref="C14" r:id="rId280" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{75D0D4CB-E8A4-4996-B63E-FB9C5E1A45CB}"/>
+    <hyperlink ref="C15" r:id="rId281" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5FA63A31-FFC2-48A7-9968-CAE774FEF3C6}"/>
+    <hyperlink ref="C16" r:id="rId282" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E150B6DC-2D8B-4609-85B9-145EF2923377}"/>
+    <hyperlink ref="C17" r:id="rId283" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{DA17F930-9795-47D6-916A-1C3311D91CA9}"/>
+    <hyperlink ref="BV31" r:id="rId284" xr:uid="{A3C6F73E-1A67-4751-9A93-5B7D5ED0EBB5}"/>
+    <hyperlink ref="BW31" r:id="rId285" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
+    <hyperlink ref="CO5" r:id="rId286" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
+    <hyperlink ref="B7" r:id="rId287" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
+    <hyperlink ref="B18" r:id="rId288" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
+    <hyperlink ref="AR17" r:id="rId289" xr:uid="{3187DBDE-EEBD-4D89-93D4-FA8E6558F8E6}"/>
+    <hyperlink ref="CB7" r:id="rId290" xr:uid="{A6E7800C-D4AD-4D3D-AF05-A4D4F4DAEF1B}"/>
+    <hyperlink ref="N14" r:id="rId291" xr:uid="{5A9DB915-6BDB-45D9-AB4D-2F1E9C241A66}"/>
+    <hyperlink ref="N15" r:id="rId292" xr:uid="{1AC33F4B-A331-478E-91F1-E8F1B20C5F61}"/>
+    <hyperlink ref="AX16" r:id="rId293" xr:uid="{7D6E27AC-03A9-4278-92AC-4FF224911BE0}"/>
+    <hyperlink ref="N16" r:id="rId294" xr:uid="{B694CC1E-0D33-44AC-AB7E-23FF77292571}"/>
+    <hyperlink ref="T23" r:id="rId295" xr:uid="{00C6CCC0-D133-4695-B201-2E124051A974}"/>
+    <hyperlink ref="N17" r:id="rId296" xr:uid="{40EA5C21-E4E2-4259-BD27-2292C6A84502}"/>
+    <hyperlink ref="B27" r:id="rId297" xr:uid="{C81ED546-DDE3-4574-882D-FBD2F3DE8932}"/>
+    <hyperlink ref="AR18" r:id="rId298" xr:uid="{B1CF3C51-81D6-41D3-BE4E-08E54B265D05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId298"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId299"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE95FA7E-6E30-4895-ADD3-35D975032579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D3D6F-39D6-40C8-AD83-089182F7DCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>⚙ 软件插件&lt;span&gt;（也包含软件下载)&lt;/span&gt;</t>
   </si>
   <si>
     <t>chajian</t>
@@ -2755,6 +2752,29 @@
   </si>
   <si>
     <t>全国电影高清海报下载，中文搜不到搜电影的英文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚙️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 软件插件&lt;span&gt;（也包含软件下载)&lt;/span&gt;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3300,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3343,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3352,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>2</v>
@@ -3364,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -3376,2742 +3396,2742 @@
         <v>6</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BD1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AW1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BI1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="BN1" s="6"/>
       <c r="BO1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BU1" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BU1" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CG1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CM1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CM1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="CN1" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="AV2" s="8"/>
       <c r="AW2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="BB2" s="8"/>
       <c r="BC2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="BH2" s="9"/>
       <c r="BI2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BK2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BL2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BM2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="BN2" s="9"/>
       <c r="BO2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BR2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BS2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="BT2" s="8"/>
       <c r="BU2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BV2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BY2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="BZ2" s="8"/>
       <c r="CA2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CD2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CE2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="CF2" s="8"/>
       <c r="CG2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="CH2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CI2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CJ2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" s="7" t="s">
+      <c r="CK2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="CL2" s="8"/>
       <c r="CM2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="CN2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="CN2" s="7" t="s">
+      <c r="CO2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CO2" s="7" t="s">
+      <c r="CP2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="CQ2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="CR2" s="26"/>
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="S3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="V3" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="AA3" s="13"/>
       <c r="AB3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AH3" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AK3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AO3" s="14"/>
       <c r="AQ3" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AS3" s="13"/>
       <c r="AT3" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AU3" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AW3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX3" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="AX3" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BA3" s="14"/>
       <c r="BC3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="BG3" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="BI3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="BG3" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BK3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BL3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="BN3" s="6"/>
       <c r="BO3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BQ3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BR3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BV3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BX3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CB3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="CB3" s="11" t="s">
+      <c r="CC3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="CC3" s="11" t="s">
+      <c r="CD3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="CH3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="CG3" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="CH3" s="11" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="CJ3" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="CK3" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>666</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="S4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AE4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF4" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AF4" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="AH4" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL4" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO4" s="12"/>
       <c r="AQ4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AS4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AT4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AW4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX4" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="AY4" s="12"/>
       <c r="AZ4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA4" s="12"/>
       <c r="BC4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BF4" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="BI4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BF4" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BJ4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BK4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BL4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BP4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BR4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BV4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="BV4" s="11" t="s">
+      <c r="BX4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CB4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="CB4" s="11" t="s">
+      <c r="CD4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CH4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CJ4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CJ4" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CN4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="CN4" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="CP4" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="O5" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="V5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AB5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AX5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AW5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BD5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BE5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BF5" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="BI5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="BF5" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BP5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BR5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BV5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="BV5" s="11" t="s">
+      <c r="BX5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BX5" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="CA5" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CB5" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CC5" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="CG5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="CH5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="CH5" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="CJ5" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="CP5" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AW6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="BC6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AN6" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BD6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BE6" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BF6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="BI6" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BP6" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BR6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BV6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="BV6" s="11" t="s">
+      <c r="BX6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BX6" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="CA6" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="CB6" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="CD6" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="CB6" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>612</v>
-      </c>
       <c r="CG6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH6" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="CH6" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="K7" s="14"/>
       <c r="M7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" s="12"/>
       <c r="Y7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z7" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AB7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AX7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC7" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BD7" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BE7" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BF7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BJ7" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BK7" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BP7" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="BR7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BV7" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="BV7" s="11" t="s">
+      <c r="BX7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="BX7" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="CA7" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="CG7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="CH7" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="CH7" s="11" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="CJ7" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="CM7" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="CP7" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="CR7" s="25" t="s">
         <v>705</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="CR7" s="25" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T8" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="V8" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AX8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC8" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BD8" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BE8" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="BV8" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="BW8" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="BW8" s="11" t="s">
+      <c r="BX8" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="BX8" s="3" t="s">
+      <c r="CA8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="CA8" s="3" t="s">
+      <c r="CB8" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="CB8" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="CD8" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CG8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="CH8" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="CH8" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="CJ8" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CM8" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="CP8" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="CR8" s="25" t="s">
         <v>702</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="CP8" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="CR8" s="25" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="U9" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AX9" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BE9" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BV9" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="BX9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BX9" s="3" t="s">
+      <c r="CA9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CA9" s="3" t="s">
+      <c r="CB9" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="CB9" s="11" t="s">
+      <c r="CD9" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CD9" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CH9" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AW10" s="3" t="s">
+      <c r="AX10" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="BC10" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BD10" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF10" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="BE10" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="BU10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="BX10" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="BX10" s="3" t="s">
+      <c r="CA10" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="CB10" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="CA10" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>309</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="CG10" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="CH10" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="CH10" s="11" t="s">
+      <c r="CJ10" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="CJ10" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="G11" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M11" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="V11" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="AX11" s="11" t="s">
-        <v>322</v>
-      </c>
       <c r="AZ11" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BD11" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE11" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="BE11" s="11" t="s">
+      <c r="BF11" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="BU11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BV11" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="BX11" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="BX11" s="3" t="s">
+      <c r="CA11" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="CA11" s="3" t="s">
+      <c r="CB11" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="CB11" s="11" t="s">
+      <c r="CD11" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="CD11" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="CG11" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH11" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="CH11" s="11" t="s">
-        <v>388</v>
-      </c>
       <c r="CJ11" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="P12" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="S12" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="AE12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AW12" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AW12" s="3" t="s">
+      <c r="AX12" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AZ12" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AZ12" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="BC12" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="BD12" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>659</v>
-      </c>
       <c r="BG12" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BV12" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="BX12" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="BX12" s="3" t="s">
+      <c r="CA12" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="CA12" s="3" t="s">
+      <c r="CB12" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="CB12" s="11" t="s">
+      <c r="CD12" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="CD12" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="CG12" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="CH12" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="CJ12" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="CJ12" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="G13" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T13" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW13" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW13" s="3" t="s">
+      <c r="AX13" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AZ13" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="BD13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE13" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="BE13" s="11" t="s">
+      <c r="BF13" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="BF13" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="BU13" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BV13" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="BV13" s="11" t="s">
+      <c r="BX13" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CA13" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="BX13" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CA13" s="3" t="s">
+      <c r="CB13" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="CB13" s="11" t="s">
+      <c r="CC13" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="CC13" s="11" t="s">
+      <c r="CD13" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>337</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="M14" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="V14" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="AQ14" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AW14" s="3" t="s">
+      <c r="AX14" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>395</v>
-      </c>
       <c r="AZ14" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BD14" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE14" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="BE14" s="11" t="s">
+      <c r="BF14" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="BF14" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="BU14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="BV14" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="BW14" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="BW14" s="11" t="s">
+      <c r="BX14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="CA14" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="BX14" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="CA14" s="3" t="s">
+      <c r="CB14" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="CB14" s="11" t="s">
+      <c r="CC14" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="CC14" s="18" t="s">
+      <c r="CD14" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>738</v>
-      </c>
       <c r="S15" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T15" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
+      <c r="AR15" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="AR15" s="11" t="s">
+      <c r="AT15" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="AW15" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="BD15" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="BE15" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AW15" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="BV15" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="BV15" s="11" t="s">
+      <c r="BX15" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="BX15" s="3" t="s">
+      <c r="BY15" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="CA15" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="BY15" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="CA15" s="3" t="s">
+      <c r="CB15" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="CB15" s="11" t="s">
+      <c r="CD15" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="V16" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="AQ16" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="BA16" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="BU16" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="AW16" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="AZ16" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="BA16" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="BV16" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="BW16" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="BX16" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="BW16" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="BX16" s="3" t="s">
+      <c r="CA16" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="CA16" s="3" t="s">
+      <c r="CB16" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="CB16" s="11" t="s">
+      <c r="CC16" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="CC16" s="11" t="s">
+      <c r="CD16" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>750</v>
-      </c>
       <c r="S17" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="AQ17" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AT17" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="AT17" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="AX17" s="19"/>
       <c r="BU17" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="BV17" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="BX17" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="BX17" s="3" t="s">
+      <c r="CA17" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="CA17" s="3" t="s">
+      <c r="CB17" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="CB17" s="11" t="s">
+      <c r="CD17" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="CD17" s="3" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>723</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T18" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="AQ18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT18" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AU18" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="BU18" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="AQ18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AT18" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU18" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="BU18" s="3" t="s">
+      <c r="BV18" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="BX18" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="BX18" s="3" t="s">
+      <c r="CA18" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="CA18" s="3" t="s">
+      <c r="CB18" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="CB18" s="11" t="s">
+      <c r="CD18" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="E19" s="14"/>
       <c r="S19" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BU19" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="BV19" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="BX19" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="BX19" s="3" t="s">
+      <c r="CA19" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="CA19" s="3" t="s">
+      <c r="CB19" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="CB19" s="11" t="s">
+      <c r="CD19" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>541</v>
-      </c>
       <c r="BU20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="BV20" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="BV20" s="11" t="s">
+      <c r="BX20" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="BX20" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="CA20" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="CB20" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="CD20" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="CB20" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="CD20" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="CE20" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>544</v>
-      </c>
       <c r="BU21" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="BV21" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="BV21" s="11" t="s">
+      <c r="BX21" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="BX21" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="BY21" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CA21" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="CB21" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="CB21" s="18" t="s">
+      <c r="CD21" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="CD21" s="3" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="M22" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N22" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="P22" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="S22" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>554</v>
-      </c>
       <c r="BU22" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="BV22" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="BV22" s="11" t="s">
+      <c r="BX22" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="BX22" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="CA22" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="CB22" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="CB22" s="11" t="s">
+      <c r="CC22" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="CC22" s="11" t="s">
+      <c r="CD22" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="S23" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>747</v>
-      </c>
       <c r="BU23" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="BV23" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="BV23" s="11" t="s">
+      <c r="BX23" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="BX23" s="3" t="s">
+      <c r="CA23" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="CA23" s="3" t="s">
+      <c r="CB23" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="CB23" s="11" t="s">
+      <c r="CC23" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="CD23" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="CC23" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="BV24" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="BV24" s="11" t="s">
+      <c r="BX24" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BX24" s="3" t="s">
+      <c r="CA24" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="CA24" s="3" t="s">
+      <c r="CB24" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="CB24" s="11" t="s">
+      <c r="CD24" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="BV25" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="BX25" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="BX25" s="3" t="s">
+      <c r="CA25" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="CA25" s="3" t="s">
+      <c r="CB25" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="CB25" s="11" t="s">
+      <c r="CD25" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="BU26" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="BV26" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="BX26" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="BX26" s="3" t="s">
+      <c r="CA26" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="CA26" s="3" t="s">
+      <c r="CB26" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="CB26" s="11" t="s">
+      <c r="CC26" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="CC26" s="11" t="s">
+      <c r="CD26" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="CD26" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="CE26" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="BU27" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="BV27" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="BV27" s="11" t="s">
+      <c r="BX27" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="BX27" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="CA27" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="CB27" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="CB27" s="11" t="s">
+      <c r="CC27" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="CC27" s="11" t="s">
-        <v>571</v>
-      </c>
       <c r="CD27" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU28" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="BV28" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="BV28" s="11" t="s">
-        <v>504</v>
-      </c>
       <c r="BX28" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="CA28" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="CB28" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="CB28" s="11" t="s">
+      <c r="CD28" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU29" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="BV29" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="BV29" s="11" t="s">
+      <c r="BW29" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="BW29" s="11" t="s">
+      <c r="BX29" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="BX29" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="CA29" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="CB29" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="CB29" s="11" t="s">
+      <c r="CC29" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="CC29" s="11" t="s">
+      <c r="CD29" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="CD29" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="BV30" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="CA30" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="CB30" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="CB30" s="11" t="s">
-        <v>516</v>
-      </c>
       <c r="CD30" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="BX31" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="BV31" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="BW31" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="BX31" s="3" t="s">
-        <v>712</v>
-      </c>
       <c r="CA31" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="CB31" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="CB31" s="15" t="s">
+      <c r="CD31" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="CD31" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB32" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="CB32" s="11" t="s">
+      <c r="CD32" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="CD32" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="CE32" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="CB33" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="CB33" s="18" t="s">
+      <c r="CC33" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="CC33" s="11" t="s">
+      <c r="CD33" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB34" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="CB34" s="11" t="s">
+      <c r="CD34" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="CD34" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CB36" s="23"/>
       <c r="CC36" s="23"/>
@@ -6120,38 +6140,38 @@
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="CB37" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="CB37" s="11" t="s">
+      <c r="CD37" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="CD37" s="3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="CB38" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="CB38" s="11" t="s">
-        <v>514</v>
-      </c>
       <c r="CD38" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CB39" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="CB39" s="11" t="s">
+      <c r="CC39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="CD39" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="CC39" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD39" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D3D6F-39D6-40C8-AD83-089182F7DCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67540ACA-EF7B-49BB-97CF-AE71304FAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="754">
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>👩‍🏫 老师推荐</t>
-  </si>
-  <si>
-    <t>🧭 精选设计资源导航网站</t>
-  </si>
-  <si>
     <t>docs</t>
   </si>
   <si>
@@ -963,9 +957,6 @@
   </si>
   <si>
     <t>https://rightbrain.art</t>
-  </si>
-  <si>
-    <t>👍免费的ai绘画网站</t>
   </si>
   <si>
     <t>aescripts+aeplugins</t>
@@ -1742,14 +1733,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GPT4网页导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内免费版本ChatGpt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>教程文章，&lt;i  style="color:red;"&gt;字体学习&lt;/i&gt;是设计领域重要的媒体资讯平台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1874,10 +1857,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不限速单文件传输最大10G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优质免费资源,技术学习资源交流平台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1919,10 +1898,6 @@
   </si>
   <si>
     <t>影猫の仓库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>✨ 置顶网站</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2777,12 +2752,282 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🧭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 精选设计资源导航网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和本站相似，以下每一个导航都汇集了很多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;i  style="color:#bc37e79e;"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常用方方面面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👩‍🏫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 老师推荐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师推荐的一些有用的网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;i  style="color:#bc37e79e;"&gt;UI/UX &lt;/i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>较多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 置顶网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;span&gt;&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>国内免费的ai绘画网站</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室友小白推荐：不限速单文件传输最大10G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费ChatGpt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内免费版本ChatGpt, 超过1400个免费账号~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2916,6 +3161,25 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2975,9 +3239,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3040,6 +3301,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3320,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3345,7 +3609,7 @@
     <col min="49" max="53" width="9" style="3"/>
     <col min="54" max="54" width="9" style="4"/>
     <col min="55" max="59" width="9" style="3"/>
-    <col min="60" max="60" width="9" style="6"/>
+    <col min="60" max="60" width="9" style="5"/>
     <col min="61" max="65" width="9" style="3"/>
     <col min="66" max="66" width="9" style="4"/>
     <col min="67" max="71" width="9" style="3"/>
@@ -3357,2821 +3621,2823 @@
     <col min="85" max="89" width="9" style="3"/>
     <col min="90" max="90" width="9" style="4"/>
     <col min="91" max="95" width="9" style="3"/>
-    <col min="96" max="96" width="9" style="25"/>
+    <col min="96" max="96" width="9" style="24"/>
     <col min="97" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>603</v>
+      <c r="A1" s="23" t="s">
+        <v>749</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="S1" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="24" t="s">
-        <v>687</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="BD1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BI1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AW1" s="24" t="s">
-        <v>753</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="2" t="s">
+      <c r="BU1" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BU1" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:96" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CN1" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="2" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="7" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AH2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AN2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AO2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AT2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AU2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="7" t="s">
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="BA2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AZ2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="7" t="s">
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BF2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BG2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="7" t="s">
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BL2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BM2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BL2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="7" t="s">
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BR2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BS2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BR2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="7" t="s">
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BX2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BY2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BX2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="7" t="s">
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CD2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CE2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="CD2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="7" t="s">
+      <c r="CF2" s="7"/>
+      <c r="CG2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CK2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="CJ2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="7" t="s">
+      <c r="CL2" s="7"/>
+      <c r="CM2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CN2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CN2" s="7" t="s">
+      <c r="CP2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CO2" s="7" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="CP2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="CQ2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="CR2" s="26"/>
+      <c r="CR2" s="25"/>
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="K3" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="O3" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="T3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="Z3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="AI3" s="13"/>
+      <c r="AK3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="13"/>
+      <c r="AQ3" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AW3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="3" t="s">
+      <c r="AX3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AC3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI3" s="14"/>
-      <c r="AK3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA3" s="13"/>
+      <c r="BC3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO3" s="14"/>
-      <c r="AQ3" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AR3" s="12" t="s">
+      <c r="BD3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AU3" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA3" s="14"/>
-      <c r="BC3" s="3" t="s">
+      <c r="BE3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BF3" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="BG3" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="BI3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BJ3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="BG3" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BK3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BL3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BP3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="3" t="s">
+      <c r="BQ3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BR3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BU3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BV3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="CA3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CB3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CC3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="CB3" s="11" t="s">
+      <c r="CD3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="CC3" s="11" t="s">
+      <c r="CG3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="CH3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="CG3" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="CH3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="CK3" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="M4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="S4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" s="11"/>
+      <c r="AE4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" s="11"/>
+      <c r="AQ4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU4" s="11"/>
+      <c r="AW4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA4" s="11"/>
+      <c r="BC4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="BG4" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ4" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="M4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="S4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="12"/>
-      <c r="AE4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO4" s="12"/>
-      <c r="AQ4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU4" s="12"/>
-      <c r="AW4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA4" s="12"/>
-      <c r="BC4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BO4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CA4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="CB4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="CD4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CM4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CN4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="CJ4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="CM4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CN4" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="CP4" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>706</v>
+        <v>591</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>699</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>623</v>
+        <v>599</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="K5" s="13"/>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="S5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="3" t="s">
+      <c r="T5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="V5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="CB5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="CC5" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CH5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="CJ5" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="CM5" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="CN5" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="S5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD5" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE5" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP5" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="BR5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="BX5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA5" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="CB5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="CC5" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="CD5" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="CG5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="CH5" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="CJ5" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="CM5" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="CO5" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="CP5" s="3" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>706</v>
+        <v>598</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>699</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>585</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="G6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="K6" s="13"/>
+      <c r="M6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="N6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="Q6" s="13"/>
+      <c r="S6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="T6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="S6" s="3" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="W6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AW6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="3" t="s">
+      <c r="AX6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AY6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="BC6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="BD6" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="AN6" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BE6" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BF6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="BJ6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BF6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
+      <c r="BO6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BP6" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BR6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="BP6" s="18" t="s">
+      <c r="BU6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BV6" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BV6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="BX6" s="3" t="s">
+      <c r="CA6" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="CB6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="CG6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="CA6" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="CB6" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="CG6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="CH6" s="11" t="s">
-        <v>184</v>
+      <c r="CH6" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>712</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="G7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="13"/>
+      <c r="M7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="N7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="P7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="Q7" s="13"/>
+      <c r="S7" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="T7" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="11"/>
+      <c r="V7" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="W7" s="11"/>
+      <c r="Y7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="3" t="s">
+      <c r="Z7" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="Y7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AE7" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AX7" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AZ7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD7" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG7" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BC7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="BD7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BI7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BJ7" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BK7" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="BJ7" s="11" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BK7" s="11" t="s">
+      <c r="BP7" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BR7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="BP7" s="11" t="s">
+      <c r="BU7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BV7" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BX7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BV7" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="BX7" s="3" t="s">
+      <c r="CA7" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="CD7" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="CG7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="CA7" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="CD7" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CH7" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="CJ7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="CH7" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="CM7" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="CN7" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="CP7" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="CR7" s="24" t="s">
         <v>698</v>
-      </c>
-      <c r="CP7" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="CR7" s="25" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>631</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>706</v>
+      <c r="A8" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>699</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="M8" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="N8" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="Q8" s="13"/>
+      <c r="S8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="T8" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="S8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="Y8" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Z8" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AX8" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AZ8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="BD8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BE8" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BF8" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="BE8" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BV8" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW8" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="BV8" s="18" t="s">
+      <c r="BX8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="BW8" s="11" t="s">
+      <c r="CA8" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="BX8" s="3" t="s">
+      <c r="CB8" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="CA8" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="CB8" s="11" t="s">
-        <v>258</v>
-      </c>
       <c r="CD8" s="3" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="CG8" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="CH8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="CH8" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CM8" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="CN8" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="CP8" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="CR8" s="25" t="s">
-        <v>702</v>
+        <v>696</v>
+      </c>
+      <c r="CR8" s="24" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>706</v>
+        <v>575</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>699</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>620</v>
+        <v>586</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>613</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="M9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="T9" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="U9" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="V9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AX9" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AZ9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AS9" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="BD9" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BE9" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BF9" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BU9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BV9" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BX9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BV9" s="11" t="s">
+      <c r="CA9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BX9" s="3" t="s">
+      <c r="CB9" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="CA9" s="3" t="s">
+      <c r="CD9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CB9" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="CD9" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="CH9" s="18" t="s">
-        <v>334</v>
+        <v>593</v>
+      </c>
+      <c r="CH9" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>564</v>
+        <v>752</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>567</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>632</v>
+        <v>753</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="M10" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="N10" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="P10" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="U10" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="V10" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="AQ10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AX10" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT10" s="3" t="s">
+      <c r="AZ10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="BD10" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="BE10" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="AW10" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="BC10" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="BD10" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="BE10" s="11" t="s">
+      <c r="BF10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="BU10" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="BF10" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="BU10" s="3" t="s">
+      <c r="BV10" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="BX10" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="CA10" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="CB10" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="BX10" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="CA10" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="CB10" s="18" t="s">
-        <v>308</v>
-      </c>
       <c r="CD10" s="3" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="CG10" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="CH10" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
+      </c>
+      <c r="CH10" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="CJ10" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>572</v>
+        <v>601</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>559</v>
+        <v>699</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>750</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="M11" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="N11" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="P11" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="T11" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="AX11" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="AZ11" s="21" t="s">
-        <v>636</v>
+      <c r="AZ11" s="20" t="s">
+        <v>629</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="BD11" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="BE11" s="11" t="s">
-        <v>400</v>
+        <v>581</v>
+      </c>
+      <c r="BD11" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="BE11" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="BF11" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BU11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="BV11" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX11" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="CA11" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="BV11" s="11" t="s">
+      <c r="CB11" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="BX11" s="3" t="s">
+      <c r="CD11" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="CA11" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="CB11" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="CD11" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="CG11" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="CH11" s="11" t="s">
-        <v>387</v>
+        <v>383</v>
+      </c>
+      <c r="CH11" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>666</v>
+        <v>332</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>623</v>
+        <v>751</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="T12" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR12" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX12" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AW12" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AZ12" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="BC12" s="3" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="BF12" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="BU12" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BV12" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="BX12" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="CA12" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="BV12" s="11" t="s">
+      <c r="CB12" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="BX12" s="3" t="s">
+      <c r="CD12" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="CA12" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="CB12" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="CD12" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="CG12" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
+      </c>
+      <c r="CH12" s="10" t="s">
+        <v>552</v>
       </c>
       <c r="CJ12" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>309</v>
+        <v>542</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>541</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>310</v>
+        <v>614</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>528</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR13" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AW13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX13" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR13" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT13" s="3" t="s">
+      <c r="BC13" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="BD13" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE13" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="BU13" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AW13" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AZ13" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="BC13" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="BD13" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="BE13" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="BF13" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="BU13" s="3" t="s">
+      <c r="BV13" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="CA13" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="CB13" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="BV13" s="11" t="s">
+      <c r="CC13" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="BX13" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CA13" s="3" t="s">
+      <c r="CD13" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="CB13" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="CC13" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>336</v>
+        <v>562</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="H14" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="T14" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR14" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS14" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="AX14" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>394</v>
-      </c>
       <c r="AZ14" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="BD14" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="BE14" s="11" t="s">
-        <v>351</v>
+        <v>579</v>
+      </c>
+      <c r="BD14" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="BE14" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="BF14" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="BU14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="BV14" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="BW14" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="BX14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="CA14" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="BV14" s="11" t="s">
+      <c r="CB14" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="BW14" s="11" t="s">
+      <c r="CC14" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="BX14" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="CA14" s="3" t="s">
+      <c r="CD14" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="CB14" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="CC14" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>593</v>
+        <v>715</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="T15" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AR15" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="AT15" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
+      <c r="AW15" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="BD15" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE15" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="BU15" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AR15" s="11" t="s">
+      <c r="BV15" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="BX15" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="AW15" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="BD15" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="BE15" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="BU15" s="3" t="s">
+      <c r="BY15" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="CA15" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="BV15" s="11" t="s">
+      <c r="CB15" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="BX15" s="3" t="s">
+      <c r="CD15" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="BY15" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="CA15" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="CB15" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="CD15" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>544</v>
+        <v>359</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="BA16" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="BU16" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="BV16" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="BW16" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="V16" s="3" t="s">
+      <c r="BX16" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="AT16" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AW16" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="AZ16" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="BA16" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="BU16" s="3" t="s">
+      <c r="CA16" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="BV16" s="11" t="s">
+      <c r="CB16" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="BW16" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="BX16" s="3" t="s">
+      <c r="CC16" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="CA16" s="3" t="s">
+      <c r="CD16" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="CB16" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="CC16" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>618</v>
-      </c>
       <c r="M17" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="S17" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="AT17" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="AX17" s="18"/>
+      <c r="BU17" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="BV17" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="V17" s="3" t="s">
+      <c r="BX17" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="AQ17" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="AT17" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="AX17" s="19"/>
-      <c r="BU17" s="3" t="s">
+      <c r="CA17" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="BV17" s="11" t="s">
+      <c r="CB17" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="BX17" s="3" t="s">
+      <c r="CD17" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="CA17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="T18" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="CB17" s="11" t="s">
+      <c r="V18" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="CD17" s="3" t="s">
+      <c r="AQ18" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU18" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="BU18" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="18" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="T18" s="11" t="s">
+      <c r="BV18" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="BX18" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="AQ18" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT18" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU18" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="BU18" s="3" t="s">
+      <c r="CA18" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="BV18" s="11" t="s">
+      <c r="CB18" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="BX18" s="3" t="s">
+      <c r="CD18" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="CA18" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="CB18" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="CD18" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="E19" s="14"/>
-      <c r="S19" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>536</v>
+      <c r="S19" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BU19" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="BU19" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="BV19" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="BX19" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="CA19" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="BV19" s="11" t="s">
+      <c r="CB19" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="BX19" s="3" t="s">
+      <c r="CD19" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="CA19" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="CB19" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="CD19" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="S20" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>538</v>
+      <c r="S20" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="BU20" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="BV20" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
+      </c>
+      <c r="BV20" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="CB20" s="11" t="s">
-        <v>614</v>
+        <v>608</v>
+      </c>
+      <c r="CB20" s="10" t="s">
+        <v>607</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="BU21" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="BV21" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
+      </c>
+      <c r="BV21" s="10" t="s">
+        <v>456</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="CA21" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="CB21" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="CB21" s="17" t="s">
+        <v>453</v>
       </c>
       <c r="CD21" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="M22" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="T22" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>553</v>
-      </c>
       <c r="BU22" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="BV22" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="BV22" s="10" t="s">
+        <v>463</v>
       </c>
       <c r="BX22" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="CA22" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="CB22" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="CC22" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="CD22" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="CB22" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="CC22" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="S23" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="BU23" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="BV23" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="BX23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="CA23" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="BV23" s="11" t="s">
+      <c r="CB23" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="BX23" s="3" t="s">
+      <c r="CC23" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="CD23" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="CA23" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="CB23" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="CC23" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="CD23" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="BV24" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="BX24" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="CA24" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="BV24" s="11" t="s">
+      <c r="CB24" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="BX24" s="3" t="s">
+      <c r="CD24" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="CA24" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="CB24" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="CD24" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="BV25" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="BX25" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="CA25" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="BV25" s="16" t="s">
+      <c r="CB25" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="BX25" s="3" t="s">
+      <c r="CD25" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="CA25" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="CB25" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="CD25" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>666</v>
+        <v>621</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>659</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="BU26" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="BV26" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="BX26" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="CA26" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="BV26" s="11" t="s">
+      <c r="CB26" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="BX26" s="3" t="s">
+      <c r="CC26" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="CA26" s="3" t="s">
+      <c r="CD26" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="CB26" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="CC26" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="CD26" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="CE26" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>706</v>
+        <v>596</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>699</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="BU27" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="BV27" s="11" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="BV27" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="BX27" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="CA27" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="CB27" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="CC27" s="11" t="s">
-        <v>570</v>
+        <v>563</v>
+      </c>
+      <c r="CB27" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="CC27" s="10" t="s">
+        <v>565</v>
       </c>
       <c r="CD27" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>616</v>
+      </c>
       <c r="BU28" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="BV28" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="BX28" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="CA28" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="CB28" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="CD28" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="BU29" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="BV29" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="BW29" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="BX29" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="CA29" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="CB29" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="BV28" s="11" t="s">
+      <c r="CC29" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="BX28" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="CA28" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="CB28" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="BU29" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="BV29" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="BW29" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="BX29" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="CA29" s="3" t="s">
+      <c r="CD29" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="CB29" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="CC29" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="CD29" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="BV30" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
+      </c>
+      <c r="BV30" s="10" t="s">
+        <v>556</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="CA30" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="CB30" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
+      </c>
+      <c r="CB30" s="10" t="s">
+        <v>512</v>
       </c>
       <c r="CD30" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="BV31" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="BX31" s="3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="CA31" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="CB31" s="15" t="s">
-        <v>517</v>
+        <v>513</v>
+      </c>
+      <c r="CB31" s="14" t="s">
+        <v>514</v>
       </c>
       <c r="CD31" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="CA32" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB32" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="CB32" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="CD32" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="CE32" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB33" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="CC33" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CD33" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="CB33" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="CC33" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="CB34" s="11" t="s">
-        <v>527</v>
+        <v>523</v>
+      </c>
+      <c r="CB34" s="10" t="s">
+        <v>524</v>
       </c>
       <c r="CD34" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
-      <c r="CA36" s="23" t="s">
-        <v>674</v>
-      </c>
-      <c r="CB36" s="23"/>
-      <c r="CC36" s="23"/>
-      <c r="CD36" s="23"/>
-      <c r="CE36" s="23"/>
+      <c r="CA36" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="CB36" s="22"/>
+      <c r="CC36" s="22"/>
+      <c r="CD36" s="22"/>
+      <c r="CE36" s="22"/>
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="CB37" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
+      </c>
+      <c r="CB37" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="CD37" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="CB38" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
+      </c>
+      <c r="CB38" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="CD38" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB39" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD39" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="CB39" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="CC39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="CD39" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6439,13 +6705,13 @@
     <hyperlink ref="B9" r:id="rId260" display="https://pixso.cn/community/home" xr:uid="{5627DFC2-8036-4A78-AC74-0A68A36EE4AA}"/>
     <hyperlink ref="C9" r:id="rId261" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{BF2B8B7D-3505-4561-A5C8-13735604CD6A}"/>
     <hyperlink ref="C5" r:id="rId262" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{D9B11CA5-4710-44AA-869D-135B70C887A1}"/>
-    <hyperlink ref="B13" r:id="rId263" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
-    <hyperlink ref="B14" r:id="rId264" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
-    <hyperlink ref="B15" r:id="rId265" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
-    <hyperlink ref="B11" r:id="rId266" display="https://www.artstation.com" xr:uid="{C5B0C8F3-4FE9-418F-BCEC-5B9134FDA6C1}"/>
-    <hyperlink ref="B16" r:id="rId267" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
-    <hyperlink ref="B10" r:id="rId268" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
-    <hyperlink ref="B17" r:id="rId269" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
+    <hyperlink ref="B11" r:id="rId263" display="https://www.mingcute.com" xr:uid="{E68E8F74-59DA-45A4-B718-0DD45AE7EEA7}"/>
+    <hyperlink ref="B12" r:id="rId264" display="https://c4dsky.com" xr:uid="{6F5C907E-4BE6-4AEB-987F-7679FD97A804}"/>
+    <hyperlink ref="B16" r:id="rId265" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{C68A89B8-CF5D-4496-9D94-DFC0B881A09C}"/>
+    <hyperlink ref="B10" r:id="rId266" display="https://www.artstation.com" xr:uid="{C5B0C8F3-4FE9-418F-BCEC-5B9134FDA6C1}"/>
+    <hyperlink ref="B13" r:id="rId267" display="https://www.jiumodiary.com" xr:uid="{F54B04B5-09A2-490F-9F02-F6FC071C9B72}"/>
+    <hyperlink ref="B29" r:id="rId268" display="https://cdn.h5ds.com/space/files/600972551685382144/20230813/615195892499234816.png" xr:uid="{FA1CF23D-9C4E-40FA-A2B2-3177945AFB08}"/>
+    <hyperlink ref="B14" r:id="rId269" display="https://www.qcmoe.com" xr:uid="{2445B81B-F151-40E8-900D-7D8A4006081B}"/>
     <hyperlink ref="AR16" r:id="rId270" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
     <hyperlink ref="I6" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="CN5" r:id="rId272" xr:uid="{8A4A0ACC-C8E4-49FE-A789-307BD2524C2B}"/>
@@ -6453,18 +6719,18 @@
     <hyperlink ref="CN8" r:id="rId274" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
     <hyperlink ref="C3" r:id="rId275" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{3751165F-A3FF-4E0F-84F3-2354A108C27B}"/>
     <hyperlink ref="C6" r:id="rId276" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E07BFE99-02AB-4A3C-8ECC-0E8828DBF273}"/>
-    <hyperlink ref="C10" r:id="rId277" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{8D65450F-C679-42F4-976D-A979FF1DE899}"/>
-    <hyperlink ref="C11" r:id="rId278" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{2B634BC2-DA35-477F-A151-B3D7781FBF3B}"/>
-    <hyperlink ref="C13" r:id="rId279" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{6E7FD256-26C5-495C-B1BE-790D7ABBD554}"/>
-    <hyperlink ref="C14" r:id="rId280" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{75D0D4CB-E8A4-4996-B63E-FB9C5E1A45CB}"/>
-    <hyperlink ref="C15" r:id="rId281" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5FA63A31-FFC2-48A7-9968-CAE774FEF3C6}"/>
-    <hyperlink ref="C16" r:id="rId282" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E150B6DC-2D8B-4609-85B9-145EF2923377}"/>
-    <hyperlink ref="C17" r:id="rId283" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{DA17F930-9795-47D6-916A-1C3311D91CA9}"/>
+    <hyperlink ref="C29" r:id="rId277" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{8D65450F-C679-42F4-976D-A979FF1DE899}"/>
+    <hyperlink ref="C10" r:id="rId278" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{2B634BC2-DA35-477F-A151-B3D7781FBF3B}"/>
+    <hyperlink ref="C11" r:id="rId279" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{6E7FD256-26C5-495C-B1BE-790D7ABBD554}"/>
+    <hyperlink ref="C12" r:id="rId280" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{75D0D4CB-E8A4-4996-B63E-FB9C5E1A45CB}"/>
+    <hyperlink ref="C16" r:id="rId281" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5FA63A31-FFC2-48A7-9968-CAE774FEF3C6}"/>
+    <hyperlink ref="C13" r:id="rId282" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E150B6DC-2D8B-4609-85B9-145EF2923377}"/>
+    <hyperlink ref="C14" r:id="rId283" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{DA17F930-9795-47D6-916A-1C3311D91CA9}"/>
     <hyperlink ref="BV31" r:id="rId284" xr:uid="{A3C6F73E-1A67-4751-9A93-5B7D5ED0EBB5}"/>
     <hyperlink ref="BW31" r:id="rId285" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
     <hyperlink ref="CO5" r:id="rId286" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
     <hyperlink ref="B7" r:id="rId287" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
-    <hyperlink ref="B18" r:id="rId288" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
+    <hyperlink ref="B15" r:id="rId288" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
     <hyperlink ref="AR17" r:id="rId289" xr:uid="{3187DBDE-EEBD-4D89-93D4-FA8E6558F8E6}"/>
     <hyperlink ref="CB7" r:id="rId290" xr:uid="{A6E7800C-D4AD-4D3D-AF05-A4D4F4DAEF1B}"/>
     <hyperlink ref="N14" r:id="rId291" xr:uid="{5A9DB915-6BDB-45D9-AB4D-2F1E9C241A66}"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67540ACA-EF7B-49BB-97CF-AE71304FAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9B303-5B11-43BB-B580-9845A6A2FAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="755">
   <si>
     <t>nice</t>
   </si>
@@ -3020,6 +3020,10 @@
   </si>
   <si>
     <t>国内免费版本ChatGpt, 超过1400个免费账号~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lingdaima.com/static/img/jianbianse.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3584,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4607,6 +4611,9 @@
       </c>
       <c r="Z6" s="10" t="s">
         <v>582</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>584</v>
@@ -6741,8 +6748,9 @@
     <hyperlink ref="N17" r:id="rId296" xr:uid="{40EA5C21-E4E2-4259-BD27-2292C6A84502}"/>
     <hyperlink ref="B27" r:id="rId297" xr:uid="{C81ED546-DDE3-4574-882D-FBD2F3DE8932}"/>
     <hyperlink ref="AR18" r:id="rId298" xr:uid="{B1CF3C51-81D6-41D3-BE4E-08E54B265D05}"/>
+    <hyperlink ref="AA6" r:id="rId299" xr:uid="{AD204FD2-C94A-4898-94F6-93D458EFE3AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId299"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId300"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9B303-5B11-43BB-B580-9845A6A2FAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B052825C-6DF0-4187-92CE-5A96F163AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="758">
   <si>
     <t>nice</t>
   </si>
@@ -3024,6 +3024,18 @@
   </si>
   <si>
     <t>https://lingdaima.com/static/img/jianbianse.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tools.kalvinbg.cn/image/gif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIF闪图在线制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kalvin在线工具 透明Gif制作，自由选择多张静态图片合成Gif&lt;span color="hotpink"&gt;透明动态图片&lt;span&gt;，支持生成表情包动图、自定义配置顺序、gif闪动速度等</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3588,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="BY8" sqref="BY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4863,13 +4875,16 @@
         <v>219</v>
       </c>
       <c r="BU7" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV7" s="10" t="s">
-        <v>221</v>
+        <v>756</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>222</v>
+        <v>757</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="CA7" s="3" t="s">
         <v>722</v>
@@ -5014,16 +5029,13 @@
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="BV8" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW8" s="10" t="s">
-        <v>253</v>
+        <v>220</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="CA8" s="3" t="s">
         <v>255</v>
@@ -5157,13 +5169,16 @@
         <v>273</v>
       </c>
       <c r="BU9" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BV9" s="10" t="s">
-        <v>275</v>
+        <v>251</v>
+      </c>
+      <c r="BV9" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW9" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="CA9" s="3" t="s">
         <v>277</v>
@@ -5267,13 +5282,13 @@
         <v>376</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="BV10" s="10" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="BX10" s="3" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="CA10" s="3" t="s">
         <v>606</v>
@@ -5371,13 +5386,13 @@
         <v>398</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="BV11" s="10" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="BX11" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="CA11" s="3" t="s">
         <v>328</v>
@@ -5484,13 +5499,13 @@
         <v>616</v>
       </c>
       <c r="BU12" s="3" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="BV12" s="10" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="BX12" s="3" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="CA12" s="3" t="s">
         <v>353</v>
@@ -5588,13 +5603,13 @@
         <v>324</v>
       </c>
       <c r="BU13" s="3" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="BV13" s="10" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="BX13" s="3" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="CA13" s="3" t="s">
         <v>379</v>
@@ -5683,16 +5698,13 @@
         <v>349</v>
       </c>
       <c r="BU14" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="BV14" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="BW14" s="10" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="BX14" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="CA14" s="3" t="s">
         <v>402</v>
@@ -5775,16 +5787,16 @@
         <v>619</v>
       </c>
       <c r="BU15" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="BV15" s="10" t="s">
-        <v>411</v>
+        <v>400</v>
+      </c>
+      <c r="BW15" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="BX15" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="BY15" s="3" t="s">
-        <v>613</v>
+        <v>399</v>
       </c>
       <c r="CA15" s="3" t="s">
         <v>413</v>
@@ -5852,16 +5864,16 @@
         <v>616</v>
       </c>
       <c r="BU16" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="BV16" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="BW16" s="1" t="s">
-        <v>706</v>
+        <v>411</v>
       </c>
       <c r="BX16" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
+      </c>
+      <c r="BY16" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="CA16" s="3" t="s">
         <v>422</v>
@@ -5909,13 +5921,16 @@
       </c>
       <c r="AX17" s="18"/>
       <c r="BU17" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="BV17" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
+      </c>
+      <c r="BW17" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="CA17" s="3" t="s">
         <v>432</v>
@@ -5950,13 +5965,13 @@
         <v>613</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="BV18" s="10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="BX18" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="CA18" s="3" t="s">
         <v>440</v>
@@ -5978,14 +5993,14 @@
       <c r="V19" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="BU19" s="19" t="s">
-        <v>443</v>
+      <c r="BU19" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="BV19" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="CA19" s="3" t="s">
         <v>446</v>
@@ -6007,14 +6022,14 @@
       <c r="V20" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="BU20" s="3" t="s">
-        <v>449</v>
+      <c r="BU20" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="BV20" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="CA20" s="3" t="s">
         <v>608</v>
@@ -6040,16 +6055,13 @@
         <v>540</v>
       </c>
       <c r="BU21" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="BV21" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="BY21" s="3" t="s">
-        <v>612</v>
+        <v>451</v>
       </c>
       <c r="CA21" s="3" t="s">
         <v>452</v>
@@ -6081,13 +6093,16 @@
         <v>550</v>
       </c>
       <c r="BU22" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="BV22" s="10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="BX22" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
+      </c>
+      <c r="BY22" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="CA22" s="3" t="s">
         <v>458</v>
@@ -6113,13 +6128,13 @@
         <v>739</v>
       </c>
       <c r="BU23" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="BV23" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="BX23" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="CA23" s="3" t="s">
         <v>471</v>
@@ -6136,13 +6151,13 @@
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="BV24" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="BX24" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="CA24" s="3" t="s">
         <v>477</v>
@@ -6156,13 +6171,13 @@
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="BV25" s="15" t="s">
-        <v>481</v>
+        <v>474</v>
+      </c>
+      <c r="BV25" s="10" t="s">
+        <v>475</v>
       </c>
       <c r="BX25" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="CA25" s="3" t="s">
         <v>483</v>
@@ -6188,13 +6203,13 @@
         <v>622</v>
       </c>
       <c r="BU26" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="BV26" s="10" t="s">
-        <v>487</v>
+        <v>480</v>
+      </c>
+      <c r="BV26" s="15" t="s">
+        <v>481</v>
       </c>
       <c r="BX26" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="CA26" s="3" t="s">
         <v>489</v>
@@ -6226,13 +6241,13 @@
         <v>711</v>
       </c>
       <c r="BU27" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="BV27" s="10" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="BX27" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="CA27" s="3" t="s">
         <v>563</v>
@@ -6264,13 +6279,13 @@
         <v>616</v>
       </c>
       <c r="BU28" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="BV28" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>573</v>
+        <v>495</v>
       </c>
       <c r="CA28" s="3" t="s">
         <v>496</v>
@@ -6296,16 +6311,13 @@
         <v>625</v>
       </c>
       <c r="BU29" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="BV29" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="BW29" s="10" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="BX29" s="3" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="CA29" s="3" t="s">
         <v>501</v>
@@ -6322,13 +6334,16 @@
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="BV30" s="10" t="s">
-        <v>556</v>
+        <v>506</v>
+      </c>
+      <c r="BW30" s="10" t="s">
+        <v>507</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>745</v>
+        <v>508</v>
       </c>
       <c r="CA30" s="3" t="s">
         <v>511</v>
@@ -6340,18 +6355,15 @@
         <v>504</v>
       </c>
     </row>
-    <row r="31" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="BV31" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="BW31" s="1" t="s">
-        <v>702</v>
+        <v>557</v>
+      </c>
+      <c r="BV31" s="10" t="s">
+        <v>556</v>
       </c>
       <c r="BX31" s="3" t="s">
-        <v>704</v>
+        <v>745</v>
       </c>
       <c r="CA31" s="3" t="s">
         <v>513</v>
@@ -6363,7 +6375,19 @@
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BU32" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="BV32" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="BW32" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="BX32" s="3" t="s">
+        <v>704</v>
+      </c>
       <c r="CA32" s="3" t="s">
         <v>516</v>
       </c>
@@ -6555,26 +6579,26 @@
     <hyperlink ref="BV4" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="BV5" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="BV6" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="BV7" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="BV9" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="BV10" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="BV11" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="BV12" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="BV13" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="BV14" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="BV15" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="BV16" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="BV17" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="BV18" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="BV19" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="BV20" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="BV21" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="BV22" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="BV23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="BV24" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="BV25" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="BV26" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="BV27" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="BV8" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="BV10" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="BV11" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BV12" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="BV13" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BV14" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="BV15" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="BV16" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="BV17" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BV18" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="BV19" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="BV20" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="BV21" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="BV22" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="BV23" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="BV24" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="BV25" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="BV26" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="BV27" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="BV28" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
     <hyperlink ref="CN3" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="CB3" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
     <hyperlink ref="CB4" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
@@ -6637,7 +6661,7 @@
     <hyperlink ref="BK6" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
     <hyperlink ref="BK7" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
     <hyperlink ref="BQ3" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="BW14" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="BW15" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
     <hyperlink ref="CC3" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
     <hyperlink ref="CC39" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
     <hyperlink ref="CC5" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
@@ -6647,10 +6671,10 @@
     <hyperlink ref="CC22" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
     <hyperlink ref="CC26" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
     <hyperlink ref="CC23" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="BW16" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="BW17" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="AX13" r:id="rId199" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="BV8" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="BW8" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="BV9" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="BW9" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
     <hyperlink ref="AR12" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
     <hyperlink ref="AR13" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
     <hyperlink ref="AR14" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
@@ -6672,13 +6696,13 @@
     <hyperlink ref="AL5" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
     <hyperlink ref="AL6" r:id="rId221" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
     <hyperlink ref="AL7" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="BV28" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="BV29" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
     <hyperlink ref="Z8" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
     <hyperlink ref="CH10" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
     <hyperlink ref="CH11" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
     <hyperlink ref="AX14" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="BV29" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="BW29" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="BV30" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="BW30" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
     <hyperlink ref="N13" r:id="rId230" xr:uid="{CC29F55B-DDDE-42D4-B0CE-DB3E8810160B}"/>
     <hyperlink ref="B3" r:id="rId231" xr:uid="{CB58638B-0801-4F80-87B5-9B5AB8E57C3F}"/>
     <hyperlink ref="T19" r:id="rId232" xr:uid="{CC3F7B05-7461-472F-A6C2-783C72A66BCD}"/>
@@ -6691,7 +6715,7 @@
     <hyperlink ref="AL8" r:id="rId239" xr:uid="{5965F952-37C3-4D43-95AF-5F58C7B04401}"/>
     <hyperlink ref="T22" r:id="rId240" xr:uid="{0529A879-6834-4D40-B7E8-4A728DC18A73}"/>
     <hyperlink ref="CH12" r:id="rId241" xr:uid="{E2BF0435-12AB-411A-9FC9-56DA8F7B9525}"/>
-    <hyperlink ref="BV30" r:id="rId242" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
+    <hyperlink ref="BV31" r:id="rId242" xr:uid="{748F5899-92A9-455F-9759-2D007E82B418}"/>
     <hyperlink ref="CB27" r:id="rId243" location="b767fbea-6aa4-41ce-beea-afddf1e0cf5e" xr:uid="{062518CE-262C-4C25-8188-9BC0C30FBE56}"/>
     <hyperlink ref="CC27" r:id="rId244" xr:uid="{890E3A1C-7018-45B4-87B4-2A7BC53ECD1A}"/>
     <hyperlink ref="CB20" r:id="rId245" xr:uid="{B189B72C-5633-4BD5-AF5C-F785A8E3F2C3}"/>
@@ -6733,8 +6757,8 @@
     <hyperlink ref="C16" r:id="rId281" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{5FA63A31-FFC2-48A7-9968-CAE774FEF3C6}"/>
     <hyperlink ref="C13" r:id="rId282" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E150B6DC-2D8B-4609-85B9-145EF2923377}"/>
     <hyperlink ref="C14" r:id="rId283" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{DA17F930-9795-47D6-916A-1C3311D91CA9}"/>
-    <hyperlink ref="BV31" r:id="rId284" xr:uid="{A3C6F73E-1A67-4751-9A93-5B7D5ED0EBB5}"/>
-    <hyperlink ref="BW31" r:id="rId285" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
+    <hyperlink ref="BV32" r:id="rId284" xr:uid="{A3C6F73E-1A67-4751-9A93-5B7D5ED0EBB5}"/>
+    <hyperlink ref="BW32" r:id="rId285" xr:uid="{0F8DBAED-5C85-442B-8B15-0F11950C4DEB}"/>
     <hyperlink ref="CO5" r:id="rId286" xr:uid="{F880A70E-CDD8-4868-818B-63AF30418FE7}"/>
     <hyperlink ref="B7" r:id="rId287" xr:uid="{7EF6E799-A5B5-4947-8319-096A8B9A10F1}"/>
     <hyperlink ref="B15" r:id="rId288" xr:uid="{F9443CAD-A885-48B2-8F87-CF21C616FF51}"/>
@@ -6749,8 +6773,9 @@
     <hyperlink ref="B27" r:id="rId297" xr:uid="{C81ED546-DDE3-4574-882D-FBD2F3DE8932}"/>
     <hyperlink ref="AR18" r:id="rId298" xr:uid="{B1CF3C51-81D6-41D3-BE4E-08E54B265D05}"/>
     <hyperlink ref="AA6" r:id="rId299" xr:uid="{AD204FD2-C94A-4898-94F6-93D458EFE3AE}"/>
+    <hyperlink ref="BV7" r:id="rId300" xr:uid="{21EE0621-96F6-4AA9-A964-2A75B5CFEBC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId300"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId301"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B052825C-6DF0-4187-92CE-5A96F163AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6BF92-0E99-4ACC-8E66-37A00F0C9A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="762">
   <si>
     <t>nice</t>
   </si>
@@ -3035,7 +3035,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kalvin在线工具 透明Gif制作，自由选择多张静态图片合成Gif&lt;span color="hotpink"&gt;透明动态图片&lt;span&gt;，支持生成表情包动图、自定义配置顺序、gif闪动速度等</t>
+    <t>Kalvin在线工具 透明Gif制作，自由选择多张静态图片合成Gif&lt;span style="color: hotpink;"&gt;透明&lt;/span&gt;动态图片，支持生成表情包动图、自定义配置顺序、gif闪动速度等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xn--xu0a.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维洛书签-羽.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维洛个人书签页多搜索引擎网站导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xn--xu0a.cn/favicon.ico</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3600,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="BY8" sqref="BY8"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="CP9" sqref="CP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4741,6 +4757,18 @@
       <c r="CJ6" s="3" t="s">
         <v>666</v>
       </c>
+      <c r="CM6" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="CN6" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="CO6" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="CP6" s="3" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -4904,21 +4932,6 @@
       <c r="CJ7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="CM7" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="CN7" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="CP7" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="CQ7" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="CR7" s="24" t="s">
-        <v>698</v>
-      </c>
     </row>
     <row r="8" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
@@ -5055,18 +5068,6 @@
       <c r="CJ8" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="CM8" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="CP8" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="CR8" s="24" t="s">
-        <v>695</v>
-      </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -5623,6 +5624,21 @@
       <c r="CD13" s="3" t="s">
         <v>382</v>
       </c>
+      <c r="CM13" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="CN13" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="CP13" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="CQ13" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="CR13" s="24" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -5717,6 +5733,18 @@
       </c>
       <c r="CD14" s="3" t="s">
         <v>405</v>
+      </c>
+      <c r="CM14" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="CN14" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="CP14" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="CR14" s="24" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
@@ -6746,8 +6774,8 @@
     <hyperlink ref="AR16" r:id="rId270" xr:uid="{3EC89CC2-E215-480D-9D0A-04D2F57F6909}"/>
     <hyperlink ref="I6" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="CN5" r:id="rId272" xr:uid="{8A4A0ACC-C8E4-49FE-A789-307BD2524C2B}"/>
-    <hyperlink ref="CN7" r:id="rId273" xr:uid="{028D6BFE-3A19-4B38-954C-A8266860A286}"/>
-    <hyperlink ref="CN8" r:id="rId274" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
+    <hyperlink ref="CN13" r:id="rId273" xr:uid="{028D6BFE-3A19-4B38-954C-A8266860A286}"/>
+    <hyperlink ref="CN14" r:id="rId274" xr:uid="{7A3055CD-DDEB-45D5-8280-41D22DE919F3}"/>
     <hyperlink ref="C3" r:id="rId275" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{3751165F-A3FF-4E0F-84F3-2354A108C27B}"/>
     <hyperlink ref="C6" r:id="rId276" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{E07BFE99-02AB-4A3C-8ECC-0E8828DBF273}"/>
     <hyperlink ref="C29" r:id="rId277" display="https://dummyimage.com/1x1/000/fff.jpg" xr:uid="{8D65450F-C679-42F4-976D-A979FF1DE899}"/>
@@ -6774,8 +6802,10 @@
     <hyperlink ref="AR18" r:id="rId298" xr:uid="{B1CF3C51-81D6-41D3-BE4E-08E54B265D05}"/>
     <hyperlink ref="AA6" r:id="rId299" xr:uid="{AD204FD2-C94A-4898-94F6-93D458EFE3AE}"/>
     <hyperlink ref="BV7" r:id="rId300" xr:uid="{21EE0621-96F6-4AA9-A964-2A75B5CFEBC1}"/>
+    <hyperlink ref="CN6" r:id="rId301" xr:uid="{376CDF22-5557-47C8-8F4A-2679DABA4F25}"/>
+    <hyperlink ref="CO6" r:id="rId302" xr:uid="{90C0A1A9-C87D-4544-9636-6E55438F28AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId301"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId303"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6BF92-0E99-4ACC-8E66-37A00F0C9A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410286C-87F4-494F-B1F0-DF181DAB07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="774">
   <si>
     <t>nice</t>
   </si>
@@ -323,16 +323,7 @@
     <t>https://3o.hk/images/2023/04/17/16.png</t>
   </si>
   <si>
-    <t>征集网</t>
-  </si>
-  <si>
-    <t>http://bbs.1zj.com/forum-41-1.html</t>
-  </si>
-  <si>
     <t>https://3o.hk/images/2023/04/17/o87.png</t>
-  </si>
-  <si>
-    <t>设计交流 - 征集网-全球征集论坛</t>
   </si>
   <si>
     <t>whatanime</t>
@@ -3052,6 +3043,66 @@
   </si>
   <si>
     <t>https://xn--xu0a.cn/favicon.ico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.1zj.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球征集网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.izhengji.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国征集网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sjdasai.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计大赛网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文创-工业-标识（logo）-包装-吉祥物卡通-服装-景观设计大赛征集网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.268608.com/imgs/2023/09/12/2d3dae4c2bb9d623.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.268608.com/imgs/2023/09/12/d24e2a0db99938e9.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涵盖标识LOGO征集、吉祥物形象、卡通动漫、广告语征集、商品创意、歌曲歌词、标志征集、旅游商品创意、雕塑景观、宣传语、征文…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原中国征集网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iabocgd.vcgvip.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红荔奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dam-feiyuantu.oss-cn-beijing.aliyuncs.com/vdam-php/others/200067/D27951684218766568.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（视觉中国旗下网站）中国国际农产品品牌建设邀请大赛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3616,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="CP9" sqref="CP9"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="BM18" sqref="BM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3659,28 +3710,28 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>2</v>
@@ -3704,7 +3755,7 @@
         <v>9</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>10</v>
@@ -3713,13 +3764,13 @@
         <v>11</v>
       </c>
       <c r="AW1" s="23" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AX1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>12</v>
@@ -3738,7 +3789,7 @@
         <v>16</v>
       </c>
       <c r="BU1" s="23" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>17</v>
@@ -3759,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4022,19 +4073,19 @@
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>30</v>
@@ -4043,22 +4094,22 @@
         <v>31</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>34</v>
@@ -4073,10 +4124,10 @@
         <v>37</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>38</v>
@@ -4095,13 +4146,13 @@
         <v>44</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AG3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AI3" s="13"/>
       <c r="AK3" s="3" t="s">
@@ -4118,17 +4169,17 @@
       </c>
       <c r="AO3" s="13"/>
       <c r="AQ3" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AR3" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AS3" s="12"/>
       <c r="AT3" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>41</v>
@@ -4151,10 +4202,10 @@
         <v>53</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="BG3" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>54</v>
@@ -4203,7 +4254,7 @@
         <v>68</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="CH3" s="10" t="s">
         <v>69</v>
@@ -4212,39 +4263,39 @@
         <v>70</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>71</v>
@@ -4264,7 +4315,7 @@
         <v>75</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>76</v>
@@ -4291,13 +4342,13 @@
       </c>
       <c r="AC4" s="11"/>
       <c r="AE4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>86</v>
@@ -4344,97 +4395,97 @@
         <v>95</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BG4" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="BI4" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="BK4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="BJ4" s="10" t="s">
+      <c r="BL4" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="BO4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BK4" s="10" t="s">
+      <c r="BP4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BR4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BP4" s="10" t="s">
+      <c r="BV4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BX4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BV4" s="10" t="s">
+      <c r="CA4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="CB4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="CD4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="CB4" s="10" t="s">
+      <c r="CH4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CJ4" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CN4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CH4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="CM4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CN4" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="CP4" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K5" s="13"/>
       <c r="M5" s="3" t="s">
@@ -4444,228 +4495,230 @@
         <v>29</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="S5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AX5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AZ5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="BC5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AR5" s="10" t="s">
+      <c r="BD5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="BE5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AW5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD5" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE5" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="BF5" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="BI5" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="BO5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BJ5" s="10" t="s">
+      <c r="BP5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="BK5" s="10"/>
-      <c r="BL5" s="3" t="s">
+      <c r="BR5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="BP5" s="10" t="s">
+      <c r="BV5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="BU5" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BV5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX5" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="CA5" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="CB5" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="CC5" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="CG5" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="CH5" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="CM5" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="CN5" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="CO5" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="CO5" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="CP5" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E6" s="13"/>
       <c r="G6" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K6" s="13"/>
       <c r="M6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="S6" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>65</v>
@@ -4680,422 +4733,434 @@
         <v>68</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AW6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AX6" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
+      <c r="BA6" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="BC6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BA6" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BD6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE6" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BD6" s="10" t="s">
+      <c r="BI6" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="BJ6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="BE6" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="BJ6" s="10" t="s">
+      <c r="BO6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BP6" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="BK6" s="10" t="s">
+      <c r="BR6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="BL6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="BP6" s="17" t="s">
+      <c r="BV6" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="BU6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV6" s="10" t="s">
+      <c r="CA6" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="CB6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="CG6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BX6" s="3" t="s">
+      <c r="CH6" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="CA6" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="CB6" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="CG6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="CH6" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="CN6" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="CO6" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="CO6" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="CP6" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E7" s="13"/>
       <c r="G7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="K7" s="13"/>
       <c r="M7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="S7" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="W7" s="11"/>
       <c r="Y7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="AX7" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AZ7" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL7" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR7" s="10" t="s">
+      <c r="BC7" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AS7" s="10" t="s">
+      <c r="BD7" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="BE7" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BF7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="BD7" s="10" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="BE7" s="10" t="s">
+      <c r="BJ7" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BK7" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="BJ7" s="10" t="s">
+      <c r="BP7" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="BK7" s="10" t="s">
+      <c r="BR7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BO7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="BP7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="BR7" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="BU7" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="BY7" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="CB7" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="CD7" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="CD7" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="CG7" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="CH7" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="CJ7" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="M8" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="N8" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="O8" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="S8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="Z8" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AX8" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AZ8" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="AL8" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
+      <c r="BC8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AR8" s="10" t="s">
+      <c r="BD8" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="BE8" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BF8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BD8" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="BE8" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>250</v>
+      <c r="BI8" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>765</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="BV8" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="CA8" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CB8" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="CG8" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="CH8" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>65</v>
@@ -5104,1359 +5169,1381 @@
         <v>66</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="AX9" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AZ9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
+      <c r="BC9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AR9" s="10" t="s">
+      <c r="BD9" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AS9" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="BE9" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX9" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BF9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BD9" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE9" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="BF9" s="3" t="s">
-        <v>273</v>
+      <c r="BI9" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>773</v>
       </c>
       <c r="BU9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BV9" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="BW9" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="BX9" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="BV9" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW9" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="BX9" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="CA9" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="CB9" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="CH9" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="M10" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="N10" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="P10" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="T10" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="U10" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="AQ10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="AX10" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="AR10" s="10" t="s">
+      <c r="BC10" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="BD10" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE10" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="AT10" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="AW10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AX10" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="BC10" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="BD10" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="BE10" s="10" t="s">
-        <v>301</v>
-      </c>
       <c r="BF10" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BV10" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="BX10" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="CA10" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="CB10" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CD10" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="CG10" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="CH10" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CJ10" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="M11" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="N11" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="P11" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="N11" s="10" t="s">
+      <c r="T11" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AW11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="AX11" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AR11" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX11" s="10" t="s">
-        <v>318</v>
-      </c>
       <c r="AZ11" s="20" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="BD11" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BE11" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="BF11" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="BV11" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="BX11" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="CA11" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="CB11" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="CG11" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="CH11" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="I12" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="T12" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR12" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX12" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AR12" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW12" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX12" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="AZ12" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="BC12" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="BF12" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
+      </c>
+      <c r="BI12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="BU12" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="BV12" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BX12" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="CA12" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="CB12" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="CD12" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="CG12" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="CH12" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="CJ12" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>71</v>
       </c>
       <c r="T13" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AR13" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW13" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX13" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AZ13" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AQ13" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AR13" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AW13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="AZ13" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="BC13" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="BD13" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="BE13" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BF13" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BU13" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="BV13" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="BX13" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="CA13" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB13" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="CC13" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD13" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="CB13" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="CC13" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="CM13" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="CN13" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="CP13" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="CQ13" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="CR13" s="24" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AR14" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="AS14" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX14" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="BC14" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="AR14" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="AS14" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AX14" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="BC14" s="3" t="s">
-        <v>579</v>
-      </c>
       <c r="BD14" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="BE14" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="BF14" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="BU14" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="BV14" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="BX14" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="CA14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="CB14" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="CC14" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="CD14" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="CB14" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="CC14" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="CM14" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="CN14" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="CP14" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="CP14" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="CR14" s="24" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T15" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR15" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="AT15" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="AW15" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AX15" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="AZ15" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="BD15" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE15" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG15" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AQ15" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AR15" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="AT15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AW15" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="BD15" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="BE15" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="BU15" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BV15" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="BW15" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BX15" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="CA15" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="CB15" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="CD15" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AU16" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="BA16" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="AW16" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="AZ16" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="BA16" s="3" t="s">
-        <v>616</v>
-      </c>
       <c r="BU16" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="BV16" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="BX16" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="BY16" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="CA16" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="CB16" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="CC16" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CD16" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="CB16" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="CC16" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="CD16" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="M17" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AX17" s="18"/>
       <c r="BU17" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="BV17" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="BW17" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="CA17" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="CB17" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S18" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="BV18" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="BX18" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="CB18" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S19" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="BU19" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="BV19" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="CA19" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="CB19" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="CD19" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S20" s="15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="BU20" s="19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="BV20" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CB20" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="BU21" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="BV21" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX21" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="CA21" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="BV21" s="10" t="s">
+      <c r="CB21" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="BX21" s="3" t="s">
+      <c r="CD21" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="CA21" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="CB21" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="CD21" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="M22" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T22" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="BU22" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="BV22" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="BX22" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="BY22" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="CA22" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="BV22" s="10" t="s">
+      <c r="CB22" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="BX22" s="3" t="s">
+      <c r="CC22" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="BY22" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="CA22" s="3" t="s">
+      <c r="CD22" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="CB22" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="CC22" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="CD22" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="S23" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="BU23" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="BV23" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="BX23" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="CA23" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="CB23" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="CC23" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="CD23" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU24" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="BV24" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="BX24" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="CA24" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="CB24" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="CD24" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU25" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="BV25" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="BX25" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="CA25" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="CB25" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="CD25" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="BU26" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="BV26" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="BX26" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="CA26" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="CB26" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="CC26" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="CD26" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="CB26" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="CC26" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="CD26" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="CE26" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="BU27" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="BV27" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="BX27" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="CA27" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="CB27" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="CC27" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="CD27" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="BU28" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="BV28" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="BX28" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="CA28" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="BV28" s="10" t="s">
+      <c r="CB28" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="BX28" s="3" t="s">
+      <c r="CD28" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="CA28" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="CB28" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="CD28" s="3" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BU29" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="BV29" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="BX29" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="CA29" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="CB29" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="BV29" s="10" t="s">
+      <c r="CC29" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="BX29" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="CA29" s="3" t="s">
+      <c r="CD29" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="CB29" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="CC29" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CD29" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU30" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="BV30" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="BW30" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="BX30" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="BV30" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="BW30" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="BX30" s="3" t="s">
+      <c r="CA30" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="CA30" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="CB30" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="CD30" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="BU31" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="BV31" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="BX31" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="CA31" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="CB31" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="CD31" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BU32" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="BV32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="BW32" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="BX32" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="BW32" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="BX32" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="CA32" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="CB32" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="CD32" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="CE32" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA33" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="CB33" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="CC33" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="CD33" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="CB33" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="CC33" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CD33" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="34" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA34" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="CB34" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="CD34" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA36" s="22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="CB36" s="22"/>
       <c r="CC36" s="22"/>
@@ -6465,38 +6552,38 @@
     </row>
     <row r="37" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA37" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="CB37" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="CD37" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA38" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="CB38" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="CD38" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="79:83" x14ac:dyDescent="0.2">
       <c r="CA39" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="CB39" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="CC39" s="10" t="s">
         <v>67</v>
       </c>
       <c r="CD39" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +6682,7 @@
     <hyperlink ref="BD11" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
     <hyperlink ref="BJ3" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="BJ4" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="BJ5" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="BJ12" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="BJ6" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="BJ7" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="BP3" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
@@ -6804,8 +6891,14 @@
     <hyperlink ref="BV7" r:id="rId300" xr:uid="{21EE0621-96F6-4AA9-A964-2A75B5CFEBC1}"/>
     <hyperlink ref="CN6" r:id="rId301" xr:uid="{376CDF22-5557-47C8-8F4A-2679DABA4F25}"/>
     <hyperlink ref="CO6" r:id="rId302" xr:uid="{90C0A1A9-C87D-4544-9636-6E55438F28AA}"/>
+    <hyperlink ref="BJ5" r:id="rId303" xr:uid="{F2965C9D-7024-456E-A86E-61FAC662D50B}"/>
+    <hyperlink ref="BJ8" r:id="rId304" xr:uid="{E0DA62D4-AA41-45B3-BB5C-63B85A9630BC}"/>
+    <hyperlink ref="BK5" r:id="rId305" xr:uid="{0BBCA15B-1C8F-41E6-8FCD-823B12E7F204}"/>
+    <hyperlink ref="BK8" r:id="rId306" xr:uid="{8E54CC43-D360-435F-9768-ABFC3B5B2FF9}"/>
+    <hyperlink ref="BJ9" r:id="rId307" xr:uid="{11D479D5-C136-4C9A-9881-84C84F4EAA49}"/>
+    <hyperlink ref="BK9" r:id="rId308" xr:uid="{787661EE-1CFE-4C30-A8E6-C38FB297A40B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId303"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId309"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410286C-87F4-494F-B1F0-DF181DAB07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1C6C63-C07B-40B2-87DB-C114B17A9156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="780">
   <si>
     <t>nice</t>
   </si>
@@ -563,9 +563,6 @@
     <t>https://www.pdf2go.com/zh</t>
   </si>
   <si>
-    <t>免费PDF在线转换工具</t>
-  </si>
-  <si>
     <t>https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799</t>
   </si>
   <si>
@@ -1491,9 +1488,6 @@
   </si>
   <si>
     <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
-  </si>
-  <si>
-    <t>绘艺素材-音效网</t>
   </si>
   <si>
     <t>http://www.huiyi8.com/yinxiao</t>
@@ -3103,6 +3097,38 @@
   </si>
   <si>
     <t>（视觉中国旗下网站）中国国际农产品品牌建设邀请大赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ilovepdf.com/zh-cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iLovePDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为PDF爱好者提供的PDF文件在线处理工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ilovepdf.com/img/app-icon.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费PDF在线转换工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 打开慢 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文的网站，文档格式在线转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效下载</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3665,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CR39"/>
+  <dimension ref="A1:CR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="BM18" sqref="BM18"/>
+    <sheetView tabSelected="1" topLeftCell="BV17" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="CB39" sqref="CB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3710,28 +3736,28 @@
   <sheetData>
     <row r="1" spans="1:96" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>2</v>
@@ -3755,7 +3781,7 @@
         <v>9</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>10</v>
@@ -3764,13 +3790,13 @@
         <v>11</v>
       </c>
       <c r="AW1" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AX1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>12</v>
@@ -3789,7 +3815,7 @@
         <v>16</v>
       </c>
       <c r="BU1" s="23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>17</v>
@@ -3810,7 +3836,7 @@
         <v>22</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4073,19 +4099,19 @@
     </row>
     <row r="3" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>30</v>
@@ -4094,22 +4120,22 @@
         <v>31</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>34</v>
@@ -4124,10 +4150,10 @@
         <v>37</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>38</v>
@@ -4146,13 +4172,13 @@
         <v>44</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AI3" s="13"/>
       <c r="AK3" s="3" t="s">
@@ -4169,17 +4195,17 @@
       </c>
       <c r="AO3" s="13"/>
       <c r="AQ3" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AR3" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AS3" s="12"/>
       <c r="AT3" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>41</v>
@@ -4202,10 +4228,10 @@
         <v>53</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="BG3" s="13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>54</v>
@@ -4254,7 +4280,7 @@
         <v>68</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="CH3" s="10" t="s">
         <v>69</v>
@@ -4263,39 +4289,39 @@
         <v>70</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="CP3" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>655</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>71</v>
@@ -4315,7 +4341,7 @@
         <v>75</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>76</v>
@@ -4348,7 +4374,7 @@
         <v>125</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>86</v>
@@ -4395,22 +4421,22 @@
         <v>95</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="BG4" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="BK4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="BO4" s="3" t="s">
         <v>97</v>
@@ -4449,7 +4475,7 @@
         <v>108</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="CM4" s="3" t="s">
         <v>109</v>
@@ -4458,24 +4484,24 @@
         <v>110</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>112</v>
@@ -4495,7 +4521,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>28</v>
@@ -4520,13 +4546,13 @@
         <v>120</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>126</v>
@@ -4535,7 +4561,7 @@
         <v>127</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>128</v>
@@ -4565,22 +4591,22 @@
         <v>133</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="BI5" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="BK5" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="BL5" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="BL5" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="BO5" s="3" t="s">
         <v>137</v>
@@ -4601,16 +4627,16 @@
         <v>142</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="CB5" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CC5" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>146</v>
@@ -4619,33 +4645,33 @@
         <v>147</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="CM5" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="CO5" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="CN5" s="1" t="s">
+      <c r="CP5" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E6" s="13"/>
       <c r="G6" s="3" t="s">
@@ -4655,7 +4681,7 @@
         <v>149</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>150</v>
@@ -4688,28 +4714,28 @@
         <v>35</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Z6" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>581</v>
-      </c>
       <c r="AE6" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AF6" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="AH6" s="3" t="s">
-        <v>635</v>
-      </c>
       <c r="AI6" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>162</v>
@@ -4718,7 +4744,7 @@
         <v>163</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>65</v>
@@ -4733,7 +4759,7 @@
         <v>68</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>158</v>
@@ -4748,7 +4774,7 @@
         <v>161</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>164</v>
@@ -4763,7 +4789,7 @@
         <v>167</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BJ6" s="10" t="s">
         <v>169</v>
@@ -4784,383 +4810,389 @@
         <v>173</v>
       </c>
       <c r="BU6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BV6" s="10" t="s">
-        <v>175</v>
+        <v>773</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>176</v>
+        <v>774</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="CB6" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="CG6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH6" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="CH6" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="CJ6" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="CM6" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="CN6" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="CO6" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="CN6" s="1" t="s">
+      <c r="CP6" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="CO6" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="CP6" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>709</v>
       </c>
       <c r="E7" s="13"/>
       <c r="G7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="K7" s="13"/>
       <c r="M7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="S7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W7" s="11"/>
       <c r="Y7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z7" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="AB7" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL7" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AX7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BD7" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="BD7" s="10" t="s">
+      <c r="BE7" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="BE7" s="10" t="s">
+      <c r="BF7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BG7" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BJ7" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="BJ7" s="10" t="s">
+      <c r="BK7" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="BK7" s="10" t="s">
+      <c r="BL7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BL7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BP7" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="BP7" s="10" t="s">
+      <c r="BR7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="BR7" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="BU7" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>752</v>
+        <v>174</v>
+      </c>
+      <c r="BV7" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="BY7" s="3" t="s">
-        <v>613</v>
+        <v>776</v>
+      </c>
+      <c r="BZ7" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="CA7" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="CD7" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="CB7" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="CD7" s="3" t="s">
-        <v>721</v>
-      </c>
       <c r="CG7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="CH7" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="CH7" s="10" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="S8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="V8" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="AL8" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR8" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AX8" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AW8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BD8" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="BD8" s="10" t="s">
+      <c r="BE8" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="BE8" s="10" t="s">
+      <c r="BF8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="BF8" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="BI8" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="BJ8" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="BL8" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="BL8" s="3" t="s">
-        <v>765</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BU8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BV8" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="BV8" s="10" t="s">
+      <c r="BX8" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="BX8" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="CA8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="CB8" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="CB8" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="CD8" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="CG8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CH8" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="CH8" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="CJ8" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>65</v>
@@ -5169,412 +5201,409 @@
         <v>66</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="T9" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="U9" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="V9" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AW9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AR9" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AX9" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AX9" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="BD9" s="10" t="s">
+      <c r="BE9" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="BE9" s="10" t="s">
+      <c r="BF9" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BF9" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="BI9" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="BL9" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="BJ9" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="BL9" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="BU9" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BV9" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="BW9" s="10" t="s">
-        <v>250</v>
+        <v>373</v>
+      </c>
+      <c r="BV9" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>251</v>
+        <v>778</v>
       </c>
       <c r="CA9" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="CB9" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="CB9" s="10" t="s">
+      <c r="CD9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="CD9" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="CG9" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="CH9" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="J10" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="P10" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="S10" 